--- a/raw_data/20200818_saline/20200818_Sensor3_Test_77.xlsx
+++ b/raw_data/20200818_saline/20200818_Sensor3_Test_77.xlsx
@@ -1,1551 +1,1967 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="true"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <workbookPr date1904="1" defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox (GaTech)\Lab files\code\Impedance_fit\raw_data\20200818_saline\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B7C5DAE-682F-42BF-B802-06C2782F0C70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="2240" yWindow="2240" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <si>
-    <t>Inf</t>
-  </si>
-  <si>
-    <t>-Inf</t>
-  </si>
-  <si>
-    <t>#NV</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+  <si>
+    <t>Untitled</t>
+  </si>
+  <si>
+    <t>Untitled 1</t>
+  </si>
+  <si>
+    <t>Untitled 2</t>
+  </si>
+  <si>
+    <t>Untitled 3</t>
+  </si>
+  <si>
+    <t>Untitled 4</t>
+  </si>
+  <si>
+    <t>Untitled 5</t>
+  </si>
+  <si>
+    <t>Untitled 6</t>
+  </si>
+  <si>
+    <t>Untitled 7</t>
+  </si>
+  <si>
+    <t>Untitled 8</t>
+  </si>
+  <si>
+    <t>Untitled 9</t>
+  </si>
+  <si>
+    <t>Untitled 10</t>
+  </si>
+  <si>
+    <t>Untitled 11</t>
+  </si>
+  <si>
+    <t>Untitled 12</t>
+  </si>
+  <si>
+    <t>Untitled 13</t>
+  </si>
+  <si>
+    <t>Untitled 14</t>
+  </si>
+  <si>
+    <t>Untitled 15</t>
+  </si>
+  <si>
+    <t>Untitled 16</t>
+  </si>
+  <si>
+    <t>Untitled 17</t>
+  </si>
+  <si>
+    <t>Untitled 18</t>
+  </si>
+  <si>
+    <t>Untitled 19</t>
+  </si>
+  <si>
+    <t>Untitled 20</t>
+  </si>
+  <si>
+    <t>Untitled 21</t>
+  </si>
+  <si>
+    <t>Untitled 22</t>
+  </si>
+  <si>
+    <t>Untitled 23</t>
+  </si>
+  <si>
+    <t>Untitled 24</t>
+  </si>
+  <si>
+    <t>Untitled 25</t>
+  </si>
+  <si>
+    <t>Untitled 26</t>
+  </si>
+  <si>
+    <t>Untitled 27</t>
+  </si>
+  <si>
+    <t>Untitled 28</t>
+  </si>
+  <si>
+    <t>Untitled 29</t>
+  </si>
+  <si>
+    <t>Untitled 30</t>
+  </si>
+  <si>
+    <t>Untitled 31</t>
+  </si>
+  <si>
+    <t>Untitled 32</t>
+  </si>
+  <si>
+    <t>Untitled 33</t>
+  </si>
+  <si>
+    <t>Untitled 34</t>
+  </si>
+  <si>
+    <t>Untitled 35</t>
+  </si>
+  <si>
+    <t>Untitled 36</t>
+  </si>
+  <si>
+    <t>Untitled 37</t>
+  </si>
+  <si>
+    <t>Untitled 38</t>
+  </si>
+  <si>
+    <t>Untitled 39</t>
+  </si>
+  <si>
+    <t>Untitled 40</t>
+  </si>
+  <si>
+    <t>Untitled 41</t>
+  </si>
+  <si>
+    <t>Untitled 42</t>
+  </si>
+  <si>
+    <t>Untitled 43</t>
+  </si>
+  <si>
+    <t>Untitled 44</t>
+  </si>
+  <si>
+    <t>Untitled 45</t>
+  </si>
+  <si>
+    <t>Untitled 46</t>
+  </si>
+  <si>
+    <t>Untitled 47</t>
+  </si>
+  <si>
+    <t>Untitled 48</t>
+  </si>
+  <si>
+    <t>Untitled 49</t>
+  </si>
+  <si>
+    <t>Untitled 50</t>
+  </si>
+  <si>
+    <t>Untitled 51</t>
+  </si>
+  <si>
+    <t>Untitled 52</t>
+  </si>
+  <si>
+    <t>Untitled 53</t>
+  </si>
+  <si>
+    <t>Untitled 54</t>
+  </si>
+  <si>
+    <t>Untitled 55</t>
+  </si>
+  <si>
+    <t>Untitled 56</t>
+  </si>
+  <si>
+    <t>Untitled 57</t>
+  </si>
+  <si>
+    <t>Untitled 58</t>
+  </si>
+  <si>
+    <t>Untitled 59</t>
+  </si>
+  <si>
+    <t>Untitled 60</t>
+  </si>
+  <si>
+    <t>Untitled 61</t>
+  </si>
+  <si>
+    <t>Untitled 62</t>
+  </si>
+  <si>
+    <t>Untitled 63</t>
+  </si>
+  <si>
+    <t>Untitled 64</t>
+  </si>
+  <si>
+    <t>Untitled 65</t>
+  </si>
+  <si>
+    <t>Untitled 66</t>
+  </si>
+  <si>
+    <t>Untitled 67</t>
+  </si>
+  <si>
+    <t>Untitled 68</t>
+  </si>
+  <si>
+    <t>Untitled 69</t>
+  </si>
+  <si>
+    <t>Untitled 70</t>
+  </si>
+  <si>
+    <t>Untitled 71</t>
+  </si>
+  <si>
+    <t>Untitled 72</t>
+  </si>
+  <si>
+    <t>Untitled 73</t>
+  </si>
+  <si>
+    <t>Untitled 74</t>
+  </si>
+  <si>
+    <t>Untitled 75</t>
+  </si>
+  <si>
+    <t>Untitled 76</t>
+  </si>
+  <si>
+    <t>Untitled 77</t>
+  </si>
+  <si>
+    <t>Untitled 78</t>
+  </si>
+  <si>
+    <t>Untitled 79</t>
+  </si>
+  <si>
+    <t>Untitled 80</t>
+  </si>
+  <si>
+    <t>Untitled 81</t>
+  </si>
+  <si>
+    <t>Untitled 82</t>
+  </si>
+  <si>
+    <t>Untitled 83</t>
+  </si>
+  <si>
+    <t>Untitled 84</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"> </numFmts>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1">
-    <font/>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="1">
-    <fill/>
+  <fills count="2">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0"/>
-    <xf numFmtId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:CG26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Untitled</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Untitled 1</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Untitled 2</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Untitled 3</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Untitled 4</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Untitled 5</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Untitled 6</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Untitled 7</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Untitled 8</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Untitled 9</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Untitled 10</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Untitled 11</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>Untitled 12</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>Untitled 13</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>Untitled 14</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>Untitled 15</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>Untitled 16</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>Untitled 17</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>Untitled 18</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>Untitled 19</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>Untitled 20</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
-        <is>
-          <t>Untitled 21</t>
-        </is>
-      </c>
-      <c r="W1" t="inlineStr">
-        <is>
-          <t>Untitled 22</t>
-        </is>
-      </c>
-      <c r="X1" t="inlineStr">
-        <is>
-          <t>Untitled 23</t>
-        </is>
-      </c>
-      <c r="Y1" t="inlineStr">
-        <is>
-          <t>Untitled 24</t>
-        </is>
-      </c>
-      <c r="Z1" t="inlineStr">
-        <is>
-          <t>Untitled 25</t>
-        </is>
-      </c>
-      <c r="AA1" t="inlineStr">
-        <is>
-          <t>Untitled 26</t>
-        </is>
-      </c>
-      <c r="AB1" t="inlineStr">
-        <is>
-          <t>Untitled 27</t>
-        </is>
-      </c>
-      <c r="AC1" t="inlineStr">
-        <is>
-          <t>Untitled 28</t>
-        </is>
-      </c>
-      <c r="AD1" t="inlineStr">
-        <is>
-          <t>Untitled 29</t>
-        </is>
-      </c>
-      <c r="AE1" t="inlineStr">
-        <is>
-          <t>Untitled 30</t>
-        </is>
-      </c>
-      <c r="AF1" t="inlineStr">
-        <is>
-          <t>Untitled 31</t>
-        </is>
-      </c>
-      <c r="AG1" t="inlineStr">
-        <is>
-          <t>Untitled 32</t>
-        </is>
-      </c>
-      <c r="AH1" t="inlineStr">
-        <is>
-          <t>Untitled 33</t>
-        </is>
-      </c>
-      <c r="AI1" t="inlineStr">
-        <is>
-          <t>Untitled 34</t>
-        </is>
-      </c>
-      <c r="AJ1" t="inlineStr">
-        <is>
-          <t>Untitled 35</t>
-        </is>
-      </c>
-      <c r="AK1" t="inlineStr">
-        <is>
-          <t>Untitled 36</t>
-        </is>
-      </c>
-      <c r="AL1" t="inlineStr">
-        <is>
-          <t>Untitled 37</t>
-        </is>
-      </c>
-      <c r="AM1" t="inlineStr">
-        <is>
-          <t>Untitled 38</t>
-        </is>
-      </c>
-      <c r="AN1" t="inlineStr">
-        <is>
-          <t>Untitled 39</t>
-        </is>
-      </c>
-      <c r="AO1" t="inlineStr">
-        <is>
-          <t>Untitled 40</t>
-        </is>
-      </c>
-      <c r="AP1" t="inlineStr">
-        <is>
-          <t>Untitled 41</t>
-        </is>
-      </c>
-      <c r="AQ1" t="inlineStr">
-        <is>
-          <t>Untitled 42</t>
-        </is>
-      </c>
-      <c r="AR1" t="inlineStr">
-        <is>
-          <t>Untitled 43</t>
-        </is>
-      </c>
-      <c r="AS1" t="inlineStr">
-        <is>
-          <t>Untitled 44</t>
-        </is>
-      </c>
-      <c r="AT1" t="inlineStr">
-        <is>
-          <t>Untitled 45</t>
-        </is>
-      </c>
-      <c r="AU1" t="inlineStr">
-        <is>
-          <t>Untitled 46</t>
-        </is>
-      </c>
-      <c r="AV1" t="inlineStr">
-        <is>
-          <t>Untitled 47</t>
-        </is>
-      </c>
-      <c r="AW1" t="inlineStr">
-        <is>
-          <t>Untitled 48</t>
-        </is>
-      </c>
-      <c r="AX1" t="inlineStr">
-        <is>
-          <t>Untitled 49</t>
-        </is>
-      </c>
-      <c r="AY1" t="inlineStr">
-        <is>
-          <t>Untitled 50</t>
-        </is>
-      </c>
-      <c r="AZ1" t="inlineStr">
-        <is>
-          <t>Untitled 51</t>
-        </is>
-      </c>
-      <c r="BA1" t="inlineStr">
-        <is>
-          <t>Untitled 52</t>
-        </is>
-      </c>
-      <c r="BB1" t="inlineStr">
-        <is>
-          <t>Untitled 53</t>
-        </is>
-      </c>
-      <c r="BC1" t="inlineStr">
-        <is>
-          <t>Untitled 54</t>
-        </is>
-      </c>
-      <c r="BD1" t="inlineStr">
-        <is>
-          <t>Untitled 55</t>
-        </is>
-      </c>
-      <c r="BE1" t="inlineStr">
-        <is>
-          <t>Untitled 56</t>
-        </is>
-      </c>
-      <c r="BF1" t="inlineStr">
-        <is>
-          <t>Untitled 57</t>
-        </is>
-      </c>
-      <c r="BG1" t="inlineStr">
-        <is>
-          <t>Untitled 58</t>
-        </is>
-      </c>
-      <c r="BH1" t="inlineStr">
-        <is>
-          <t>Untitled 59</t>
-        </is>
-      </c>
-      <c r="BI1" t="inlineStr">
-        <is>
-          <t>Untitled 60</t>
-        </is>
-      </c>
-      <c r="BJ1" t="inlineStr">
-        <is>
-          <t>Untitled 61</t>
-        </is>
-      </c>
-      <c r="BK1" t="inlineStr">
-        <is>
-          <t>Untitled 62</t>
-        </is>
-      </c>
-      <c r="BL1" t="inlineStr">
-        <is>
-          <t>Untitled 63</t>
-        </is>
-      </c>
-      <c r="BM1" t="inlineStr">
-        <is>
-          <t>Untitled 64</t>
-        </is>
-      </c>
-      <c r="BN1" t="inlineStr">
-        <is>
-          <t>Untitled 65</t>
-        </is>
-      </c>
-      <c r="BO1" t="inlineStr">
-        <is>
-          <t>Untitled 66</t>
-        </is>
-      </c>
-      <c r="BP1" t="inlineStr">
-        <is>
-          <t>Untitled 67</t>
-        </is>
-      </c>
-      <c r="BQ1" t="inlineStr">
-        <is>
-          <t>Untitled 68</t>
-        </is>
-      </c>
-      <c r="BR1" t="inlineStr">
-        <is>
-          <t>Untitled 69</t>
-        </is>
-      </c>
-      <c r="BS1" t="inlineStr">
-        <is>
-          <t>Untitled 70</t>
-        </is>
-      </c>
-      <c r="BT1" t="inlineStr">
-        <is>
-          <t>Untitled 71</t>
-        </is>
-      </c>
-      <c r="BU1" t="inlineStr">
-        <is>
-          <t>Untitled 72</t>
-        </is>
-      </c>
-      <c r="BV1" t="inlineStr">
-        <is>
-          <t>Untitled 73</t>
-        </is>
-      </c>
-      <c r="BW1" t="inlineStr">
-        <is>
-          <t>Untitled 74</t>
-        </is>
-      </c>
-      <c r="BX1" t="inlineStr">
-        <is>
-          <t>Untitled 75</t>
-        </is>
-      </c>
-      <c r="BY1" t="inlineStr">
-        <is>
-          <t>Untitled 76</t>
-        </is>
-      </c>
-      <c r="BZ1" t="inlineStr">
-        <is>
-          <t>Untitled 77</t>
-        </is>
-      </c>
-      <c r="CA1" t="inlineStr">
-        <is>
-          <t>Untitled 78</t>
-        </is>
-      </c>
-      <c r="CB1" t="inlineStr">
-        <is>
-          <t>Untitled 79</t>
-        </is>
-      </c>
-      <c r="CC1" t="inlineStr">
-        <is>
-          <t>Untitled 80</t>
-        </is>
-      </c>
-      <c r="CD1" t="inlineStr">
-        <is>
-          <t>Untitled 81</t>
-        </is>
-      </c>
-      <c r="CE1" t="inlineStr">
-        <is>
-          <t>Untitled 82</t>
-        </is>
-      </c>
-      <c r="CF1" t="inlineStr">
-        <is>
-          <t>Untitled 83</t>
-        </is>
-      </c>
-      <c r="CG1" t="inlineStr">
-        <is>
-          <t>Untitled 84</t>
-        </is>
+    <row r="1" spans="1:85">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BY1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CA1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CB1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CC1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CD1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CE1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CF1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CG1" t="s">
+        <v>84</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:85">
       <c r="A2" s="1">
-        <v>68955.031577</v>
+        <v>68955.031577000002</v>
       </c>
       <c r="B2" s="1">
-        <v>19.154175</v>
+        <v>19.154174999999999</v>
       </c>
       <c r="C2" s="1">
-        <v>1147.240000</v>
+        <v>1147.24</v>
       </c>
       <c r="D2" s="1">
-        <v>-248.403000</v>
+        <v>-248.40299999999999</v>
       </c>
       <c r="E2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>68965.431726</v>
+        <v>68965.431725999995</v>
       </c>
       <c r="G2" s="1">
-        <v>19.157064</v>
+        <v>19.157063999999998</v>
       </c>
       <c r="H2" s="1">
-        <v>1167.680000</v>
+        <v>1167.68</v>
       </c>
       <c r="I2" s="1">
-        <v>-209.202000</v>
+        <v>-209.202</v>
       </c>
       <c r="J2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
-        <v>68976.188925</v>
+        <v>68976.188924999995</v>
       </c>
       <c r="L2" s="1">
         <v>19.160052</v>
       </c>
       <c r="M2" s="1">
-        <v>1194.050000</v>
+        <v>1194.05</v>
       </c>
       <c r="N2" s="1">
-        <v>-147.593000</v>
+        <v>-147.59299999999999</v>
       </c>
       <c r="O2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P2" s="1">
-        <v>68986.382982</v>
+        <v>68986.382981999996</v>
       </c>
       <c r="Q2" s="1">
-        <v>19.162884</v>
+        <v>19.162883999999998</v>
       </c>
       <c r="R2" s="1">
-        <v>1202.180000</v>
+        <v>1202.18</v>
       </c>
       <c r="S2" s="1">
-        <v>-126.728000</v>
+        <v>-126.72799999999999</v>
       </c>
       <c r="T2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U2" s="1">
-        <v>68996.389987</v>
+        <v>68996.389987000002</v>
       </c>
       <c r="V2" s="1">
         <v>19.165664</v>
       </c>
       <c r="W2" s="1">
-        <v>1210.060000</v>
+        <v>1210.06</v>
       </c>
       <c r="X2" s="1">
-        <v>-106.921000</v>
+        <v>-106.92100000000001</v>
       </c>
       <c r="Y2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z2" s="1">
-        <v>69006.559957</v>
+        <v>69006.559957000005</v>
       </c>
       <c r="AA2" s="1">
-        <v>19.168489</v>
+        <v>19.168489000000001</v>
       </c>
       <c r="AB2" s="1">
-        <v>1218.220000</v>
+        <v>1218.22</v>
       </c>
       <c r="AC2" s="1">
-        <v>-90.697800</v>
+        <v>-90.697800000000001</v>
       </c>
       <c r="AD2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE2" s="1">
-        <v>69016.755233</v>
+        <v>69016.755233000003</v>
       </c>
       <c r="AF2" s="1">
-        <v>19.171321</v>
+        <v>19.171320999999999</v>
       </c>
       <c r="AG2" s="1">
-        <v>1223.530000</v>
+        <v>1223.53</v>
       </c>
       <c r="AH2" s="1">
-        <v>-86.775800</v>
+        <v>-86.775800000000004</v>
       </c>
       <c r="AI2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ2" s="1">
-        <v>69026.860713</v>
+        <v>69026.860713000002</v>
       </c>
       <c r="AK2" s="1">
         <v>19.174128</v>
       </c>
       <c r="AL2" s="1">
-        <v>1230.860000</v>
+        <v>1230.8599999999999</v>
       </c>
       <c r="AM2" s="1">
-        <v>-90.105100</v>
+        <v>-90.105099999999993</v>
       </c>
       <c r="AN2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO2" s="1">
-        <v>69037.102640</v>
+        <v>69037.102639999997</v>
       </c>
       <c r="AP2" s="1">
         <v>19.176973</v>
       </c>
       <c r="AQ2" s="1">
-        <v>1239.100000</v>
+        <v>1239.0999999999999</v>
       </c>
       <c r="AR2" s="1">
-        <v>-102.076000</v>
+        <v>-102.07599999999999</v>
       </c>
       <c r="AS2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT2" s="1">
-        <v>69048.058734</v>
+        <v>69048.058734000006</v>
       </c>
       <c r="AU2" s="1">
-        <v>19.180016</v>
+        <v>19.180015999999998</v>
       </c>
       <c r="AV2" s="1">
-        <v>1249.320000</v>
+        <v>1249.32</v>
       </c>
       <c r="AW2" s="1">
-        <v>-121.448000</v>
+        <v>-121.44799999999999</v>
       </c>
       <c r="AX2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY2" s="1">
-        <v>69059.233104</v>
+        <v>69059.233103999999</v>
       </c>
       <c r="AZ2" s="1">
-        <v>19.183120</v>
+        <v>19.183119999999999</v>
       </c>
       <c r="BA2" s="1">
-        <v>1257.970000</v>
+        <v>1257.97</v>
       </c>
       <c r="BB2" s="1">
-        <v>-138.931000</v>
+        <v>-138.93100000000001</v>
       </c>
       <c r="BC2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD2" s="1">
-        <v>69070.211554</v>
+        <v>69070.211553999994</v>
       </c>
       <c r="BE2" s="1">
-        <v>19.186170</v>
+        <v>19.186170000000001</v>
       </c>
       <c r="BF2" s="1">
-        <v>1298.740000</v>
+        <v>1298.74</v>
       </c>
       <c r="BG2" s="1">
-        <v>-220.716000</v>
+        <v>-220.71600000000001</v>
       </c>
       <c r="BH2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI2" s="1">
-        <v>69080.887971</v>
+        <v>69080.887971000004</v>
       </c>
       <c r="BJ2" s="1">
-        <v>19.189136</v>
+        <v>19.189136000000001</v>
       </c>
       <c r="BK2" s="1">
-        <v>1369.250000</v>
+        <v>1369.25</v>
       </c>
       <c r="BL2" s="1">
-        <v>-356.395000</v>
+        <v>-356.39499999999998</v>
       </c>
       <c r="BM2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN2" s="1">
-        <v>69092.315269</v>
+        <v>69092.315268999999</v>
       </c>
       <c r="BO2" s="1">
-        <v>19.192310</v>
+        <v>19.192309999999999</v>
       </c>
       <c r="BP2" s="1">
-        <v>1484.910000</v>
+        <v>1484.91</v>
       </c>
       <c r="BQ2" s="1">
-        <v>-576.432000</v>
+        <v>-576.43200000000002</v>
       </c>
       <c r="BR2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS2" s="1">
-        <v>69103.064565</v>
+        <v>69103.064564999993</v>
       </c>
       <c r="BT2" s="1">
-        <v>19.195296</v>
+        <v>19.195295999999999</v>
       </c>
       <c r="BU2" s="1">
-        <v>1618.600000</v>
+        <v>1618.6</v>
       </c>
       <c r="BV2" s="1">
-        <v>-823.643000</v>
+        <v>-823.64300000000003</v>
       </c>
       <c r="BW2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX2" s="1">
-        <v>69114.078231</v>
+        <v>69114.078231000007</v>
       </c>
       <c r="BY2" s="1">
-        <v>19.198355</v>
+        <v>19.198354999999999</v>
       </c>
       <c r="BZ2" s="1">
-        <v>1771.430000</v>
+        <v>1771.43</v>
       </c>
       <c r="CA2" s="1">
-        <v>-1091.820000</v>
+        <v>-1091.82</v>
       </c>
       <c r="CB2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC2" s="1">
-        <v>69125.295752</v>
+        <v>69125.295752000005</v>
       </c>
       <c r="CD2" s="1">
-        <v>19.201471</v>
+        <v>19.201471000000002</v>
       </c>
       <c r="CE2" s="1">
-        <v>2189.810000</v>
+        <v>2189.81</v>
       </c>
       <c r="CF2" s="1">
-        <v>-1736.340000</v>
+        <v>-1736.34</v>
       </c>
       <c r="CG2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:85">
       <c r="A3" s="1">
-        <v>68955.418978</v>
+        <v>68955.418978000002</v>
       </c>
       <c r="B3" s="1">
         <v>19.154283</v>
       </c>
       <c r="C3" s="1">
-        <v>1147.390000</v>
+        <v>1147.3900000000001</v>
       </c>
       <c r="D3" s="1">
-        <v>-248.155000</v>
+        <v>-248.155</v>
       </c>
       <c r="E3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F3" s="1">
-        <v>68966.084426</v>
+        <v>68966.084426000001</v>
       </c>
       <c r="G3" s="1">
-        <v>19.157246</v>
+        <v>19.157246000000001</v>
       </c>
       <c r="H3" s="1">
-        <v>1167.820000</v>
+        <v>1167.82</v>
       </c>
       <c r="I3" s="1">
-        <v>-209.650000</v>
+        <v>-209.65</v>
       </c>
       <c r="J3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K3" s="1">
-        <v>68976.300557</v>
+        <v>68976.300556999995</v>
       </c>
       <c r="L3" s="1">
         <v>19.160083</v>
       </c>
       <c r="M3" s="1">
-        <v>1193.980000</v>
+        <v>1193.98</v>
       </c>
       <c r="N3" s="1">
-        <v>-147.796000</v>
+        <v>-147.79599999999999</v>
       </c>
       <c r="O3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P3" s="1">
-        <v>68986.820208</v>
+        <v>68986.820208000005</v>
       </c>
       <c r="Q3" s="1">
-        <v>19.163006</v>
+        <v>19.163005999999999</v>
       </c>
       <c r="R3" s="1">
-        <v>1202.160000</v>
+        <v>1202.1600000000001</v>
       </c>
       <c r="S3" s="1">
-        <v>-126.770000</v>
+        <v>-126.77</v>
       </c>
       <c r="T3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U3" s="1">
-        <v>68996.737185</v>
+        <v>68996.737185000005</v>
       </c>
       <c r="V3" s="1">
-        <v>19.165760</v>
+        <v>19.165759999999999</v>
       </c>
       <c r="W3" s="1">
-        <v>1209.980000</v>
+        <v>1209.98</v>
       </c>
       <c r="X3" s="1">
-        <v>-107.015000</v>
+        <v>-107.015</v>
       </c>
       <c r="Y3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z3" s="1">
-        <v>69006.912649</v>
+        <v>69006.912649000005</v>
       </c>
       <c r="AA3" s="1">
-        <v>19.168587</v>
+        <v>19.168586999999999</v>
       </c>
       <c r="AB3" s="1">
-        <v>1218.180000</v>
+        <v>1218.18</v>
       </c>
       <c r="AC3" s="1">
-        <v>-90.758100</v>
+        <v>-90.758099999999999</v>
       </c>
       <c r="AD3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE3" s="1">
-        <v>69017.133207</v>
+        <v>69017.133207000006</v>
       </c>
       <c r="AF3" s="1">
         <v>19.171426</v>
       </c>
       <c r="AG3" s="1">
-        <v>1223.310000</v>
+        <v>1223.31</v>
       </c>
       <c r="AH3" s="1">
-        <v>-86.512500</v>
+        <v>-86.512500000000003</v>
       </c>
       <c r="AI3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ3" s="1">
-        <v>69027.271899</v>
+        <v>69027.271898999999</v>
       </c>
       <c r="AK3" s="1">
         <v>19.174242</v>
       </c>
       <c r="AL3" s="1">
-        <v>1230.870000</v>
+        <v>1230.8699999999999</v>
       </c>
       <c r="AM3" s="1">
-        <v>-90.122000</v>
+        <v>-90.122</v>
       </c>
       <c r="AN3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO3" s="1">
-        <v>69037.513826</v>
+        <v>69037.513825999995</v>
       </c>
       <c r="AP3" s="1">
         <v>19.177087</v>
       </c>
       <c r="AQ3" s="1">
-        <v>1239.050000</v>
+        <v>1239.05</v>
       </c>
       <c r="AR3" s="1">
-        <v>-102.089000</v>
+        <v>-102.089</v>
       </c>
       <c r="AS3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT3" s="1">
-        <v>69048.505133</v>
+        <v>69048.505132999999</v>
       </c>
       <c r="AU3" s="1">
-        <v>19.180140</v>
+        <v>19.180140000000002</v>
       </c>
       <c r="AV3" s="1">
-        <v>1249.320000</v>
+        <v>1249.32</v>
       </c>
       <c r="AW3" s="1">
-        <v>-121.441000</v>
+        <v>-121.441</v>
       </c>
       <c r="AX3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY3" s="1">
-        <v>69059.628452</v>
+        <v>69059.628452000004</v>
       </c>
       <c r="AZ3" s="1">
-        <v>19.183230</v>
+        <v>19.183229999999998</v>
       </c>
       <c r="BA3" s="1">
-        <v>1257.970000</v>
+        <v>1257.97</v>
       </c>
       <c r="BB3" s="1">
-        <v>-138.901000</v>
+        <v>-138.90100000000001</v>
       </c>
       <c r="BC3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD3" s="1">
-        <v>69070.580577</v>
+        <v>69070.580577000001</v>
       </c>
       <c r="BE3" s="1">
-        <v>19.186272</v>
+        <v>19.186271999999999</v>
       </c>
       <c r="BF3" s="1">
-        <v>1298.740000</v>
+        <v>1298.74</v>
       </c>
       <c r="BG3" s="1">
-        <v>-220.689000</v>
+        <v>-220.68899999999999</v>
       </c>
       <c r="BH3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI3" s="1">
-        <v>69081.286261</v>
+        <v>69081.286261000001</v>
       </c>
       <c r="BJ3" s="1">
-        <v>19.189246</v>
+        <v>19.189246000000001</v>
       </c>
       <c r="BK3" s="1">
-        <v>1369.260000</v>
+        <v>1369.26</v>
       </c>
       <c r="BL3" s="1">
-        <v>-356.420000</v>
+        <v>-356.42</v>
       </c>
       <c r="BM3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN3" s="1">
-        <v>69092.735875</v>
+        <v>69092.735874999998</v>
       </c>
       <c r="BO3" s="1">
-        <v>19.192427</v>
+        <v>19.192426999999999</v>
       </c>
       <c r="BP3" s="1">
-        <v>1484.900000</v>
+        <v>1484.9</v>
       </c>
       <c r="BQ3" s="1">
-        <v>-576.454000</v>
+        <v>-576.45399999999995</v>
       </c>
       <c r="BR3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS3" s="1">
-        <v>69103.507493</v>
+        <v>69103.507492999997</v>
       </c>
       <c r="BT3" s="1">
-        <v>19.195419</v>
+        <v>19.195419000000001</v>
       </c>
       <c r="BU3" s="1">
-        <v>1618.610000</v>
+        <v>1618.61</v>
       </c>
       <c r="BV3" s="1">
-        <v>-823.680000</v>
+        <v>-823.68</v>
       </c>
       <c r="BW3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX3" s="1">
-        <v>69114.523174</v>
+        <v>69114.523174000002</v>
       </c>
       <c r="BY3" s="1">
-        <v>19.198479</v>
+        <v>19.198478999999999</v>
       </c>
       <c r="BZ3" s="1">
-        <v>1771.390000</v>
+        <v>1771.39</v>
       </c>
       <c r="CA3" s="1">
-        <v>-1091.710000</v>
+        <v>-1091.71</v>
       </c>
       <c r="CB3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC3" s="1">
         <v>69125.864663</v>
       </c>
       <c r="CD3" s="1">
-        <v>19.201629</v>
+        <v>19.201629000000001</v>
       </c>
       <c r="CE3" s="1">
-        <v>2188.290000</v>
+        <v>2188.29</v>
       </c>
       <c r="CF3" s="1">
-        <v>-1737.320000</v>
+        <v>-1737.32</v>
       </c>
       <c r="CG3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:85">
       <c r="A4" s="1">
-        <v>68956.076682</v>
+        <v>68956.076681999999</v>
       </c>
       <c r="B4" s="1">
-        <v>19.154466</v>
+        <v>19.154465999999999</v>
       </c>
       <c r="C4" s="1">
-        <v>1147.410000</v>
+        <v>1147.4100000000001</v>
       </c>
       <c r="D4" s="1">
-        <v>-248.432000</v>
+        <v>-248.43199999999999</v>
       </c>
       <c r="E4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F4" s="1">
-        <v>68966.461386</v>
+        <v>68966.461385999995</v>
       </c>
       <c r="G4" s="1">
-        <v>19.157350</v>
+        <v>19.157350000000001</v>
       </c>
       <c r="H4" s="1">
-        <v>1167.980000</v>
+        <v>1167.98</v>
       </c>
       <c r="I4" s="1">
-        <v>-209.085000</v>
+        <v>-209.08500000000001</v>
       </c>
       <c r="J4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K4" s="1">
-        <v>68976.631853</v>
+        <v>68976.631852999999</v>
       </c>
       <c r="L4" s="1">
         <v>19.160176</v>
       </c>
       <c r="M4" s="1">
-        <v>1194.050000</v>
+        <v>1194.05</v>
       </c>
       <c r="N4" s="1">
-        <v>-147.589000</v>
+        <v>-147.589</v>
       </c>
       <c r="O4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P4" s="1">
-        <v>68987.170878</v>
+        <v>68987.170878000004</v>
       </c>
       <c r="Q4" s="1">
         <v>19.163103</v>
       </c>
       <c r="R4" s="1">
-        <v>1202.120000</v>
+        <v>1202.1199999999999</v>
       </c>
       <c r="S4" s="1">
-        <v>-126.743000</v>
+        <v>-126.74299999999999</v>
       </c>
       <c r="T4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U4" s="1">
-        <v>68997.079954</v>
+        <v>68997.079954000001</v>
       </c>
       <c r="V4" s="1">
-        <v>19.165856</v>
+        <v>19.165856000000002</v>
       </c>
       <c r="W4" s="1">
-        <v>1209.950000</v>
+        <v>1209.95</v>
       </c>
       <c r="X4" s="1">
-        <v>-107.039000</v>
+        <v>-107.039</v>
       </c>
       <c r="Y4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z4" s="1">
-        <v>69007.262293</v>
+        <v>69007.262293000007</v>
       </c>
       <c r="AA4" s="1">
-        <v>19.168684</v>
+        <v>19.168683999999999</v>
       </c>
       <c r="AB4" s="1">
-        <v>1218.260000</v>
+        <v>1218.26</v>
       </c>
       <c r="AC4" s="1">
-        <v>-90.834400</v>
+        <v>-90.834400000000002</v>
       </c>
       <c r="AD4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE4" s="1">
-        <v>69017.558246</v>
+        <v>69017.558246000001</v>
       </c>
       <c r="AF4" s="1">
-        <v>19.171544</v>
+        <v>19.171544000000001</v>
       </c>
       <c r="AG4" s="1">
-        <v>1223.390000</v>
+        <v>1223.3900000000001</v>
       </c>
       <c r="AH4" s="1">
-        <v>-86.570000</v>
+        <v>-86.57</v>
       </c>
       <c r="AI4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ4" s="1">
         <v>69027.597769</v>
       </c>
       <c r="AK4" s="1">
-        <v>19.174333</v>
+        <v>19.174333000000001</v>
       </c>
       <c r="AL4" s="1">
-        <v>1230.850000</v>
+        <v>1230.8499999999999</v>
       </c>
       <c r="AM4" s="1">
-        <v>-90.119100</v>
+        <v>-90.119100000000003</v>
       </c>
       <c r="AN4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO4" s="1">
-        <v>69037.859499</v>
+        <v>69037.859498999998</v>
       </c>
       <c r="AP4" s="1">
-        <v>19.177183</v>
+        <v>19.177182999999999</v>
       </c>
       <c r="AQ4" s="1">
-        <v>1239.070000</v>
+        <v>1239.07</v>
       </c>
       <c r="AR4" s="1">
-        <v>-102.094000</v>
+        <v>-102.09399999999999</v>
       </c>
       <c r="AS4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT4" s="1">
         <v>69048.866725</v>
       </c>
       <c r="AU4" s="1">
-        <v>19.180241</v>
+        <v>19.180240999999999</v>
       </c>
       <c r="AV4" s="1">
-        <v>1249.310000</v>
+        <v>1249.31</v>
       </c>
       <c r="AW4" s="1">
-        <v>-121.460000</v>
+        <v>-121.46</v>
       </c>
       <c r="AX4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY4" s="1">
-        <v>69059.987055</v>
+        <v>69059.987055000005</v>
       </c>
       <c r="AZ4" s="1">
-        <v>19.183330</v>
+        <v>19.183330000000002</v>
       </c>
       <c r="BA4" s="1">
-        <v>1257.960000</v>
+        <v>1257.96</v>
       </c>
       <c r="BB4" s="1">
-        <v>-138.927000</v>
+        <v>-138.92699999999999</v>
       </c>
       <c r="BC4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD4" s="1">
-        <v>69070.940709</v>
+        <v>69070.940709000002</v>
       </c>
       <c r="BE4" s="1">
-        <v>19.186372</v>
+        <v>19.186371999999999</v>
       </c>
       <c r="BF4" s="1">
-        <v>1298.720000</v>
+        <v>1298.72</v>
       </c>
       <c r="BG4" s="1">
-        <v>-220.716000</v>
+        <v>-220.71600000000001</v>
       </c>
       <c r="BH4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI4" s="1">
-        <v>69082.039153</v>
+        <v>69082.039153000005</v>
       </c>
       <c r="BJ4" s="1">
-        <v>19.189455</v>
+        <v>19.189454999999999</v>
       </c>
       <c r="BK4" s="1">
-        <v>1369.270000</v>
+        <v>1369.27</v>
       </c>
       <c r="BL4" s="1">
-        <v>-356.365000</v>
+        <v>-356.36500000000001</v>
       </c>
       <c r="BM4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN4" s="1">
-        <v>69093.171859</v>
+        <v>69093.171858999995</v>
       </c>
       <c r="BO4" s="1">
-        <v>19.192548</v>
+        <v>19.192547999999999</v>
       </c>
       <c r="BP4" s="1">
-        <v>1484.820000</v>
+        <v>1484.82</v>
       </c>
       <c r="BQ4" s="1">
-        <v>-576.431000</v>
+        <v>-576.43100000000004</v>
       </c>
       <c r="BR4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS4" s="1">
-        <v>69103.945957</v>
+        <v>69103.945957000004</v>
       </c>
       <c r="BT4" s="1">
-        <v>19.195541</v>
+        <v>19.195540999999999</v>
       </c>
       <c r="BU4" s="1">
-        <v>1618.670000</v>
+        <v>1618.67</v>
       </c>
       <c r="BV4" s="1">
-        <v>-823.813000</v>
+        <v>-823.81299999999999</v>
       </c>
       <c r="BW4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX4" s="1">
-        <v>69114.977974</v>
+        <v>69114.977973999994</v>
       </c>
       <c r="BY4" s="1">
-        <v>19.198605</v>
+        <v>19.198605000000001</v>
       </c>
       <c r="BZ4" s="1">
-        <v>1771.380000</v>
+        <v>1771.38</v>
       </c>
       <c r="CA4" s="1">
-        <v>-1091.660000</v>
+        <v>-1091.6600000000001</v>
       </c>
       <c r="CB4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC4" s="1">
-        <v>69126.381990</v>
+        <v>69126.381989999994</v>
       </c>
       <c r="CD4" s="1">
-        <v>19.201773</v>
+        <v>19.201772999999999</v>
       </c>
       <c r="CE4" s="1">
-        <v>2188.700000</v>
+        <v>2188.6999999999998</v>
       </c>
       <c r="CF4" s="1">
-        <v>-1736.420000</v>
+        <v>-1736.42</v>
       </c>
       <c r="CG4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:85">
       <c r="A5" s="1">
-        <v>68956.449674</v>
+        <v>68956.449674000003</v>
       </c>
       <c r="B5" s="1">
-        <v>19.154569</v>
+        <v>19.154568999999999</v>
       </c>
       <c r="C5" s="1">
-        <v>1147.340000</v>
+        <v>1147.3399999999999</v>
       </c>
       <c r="D5" s="1">
-        <v>-248.503000</v>
+        <v>-248.50299999999999</v>
       </c>
       <c r="E5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F5" s="1">
-        <v>68966.806105</v>
+        <v>68966.806104999996</v>
       </c>
       <c r="G5" s="1">
         <v>19.157446</v>
       </c>
       <c r="H5" s="1">
-        <v>1167.710000</v>
+        <v>1167.71</v>
       </c>
       <c r="I5" s="1">
-        <v>-209.657000</v>
+        <v>-209.65700000000001</v>
       </c>
       <c r="J5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K5" s="1">
-        <v>68976.975615</v>
+        <v>68976.975615000003</v>
       </c>
       <c r="L5" s="1">
-        <v>19.160271</v>
+        <v>19.160271000000002</v>
       </c>
       <c r="M5" s="1">
-        <v>1194.110000</v>
+        <v>1194.1099999999999</v>
       </c>
       <c r="N5" s="1">
-        <v>-147.568000</v>
+        <v>-147.56800000000001</v>
       </c>
       <c r="O5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P5" s="1">
-        <v>68987.517552</v>
+        <v>68987.517552000005</v>
       </c>
       <c r="Q5" s="1">
-        <v>19.163199</v>
+        <v>19.163198999999999</v>
       </c>
       <c r="R5" s="1">
-        <v>1202.140000</v>
+        <v>1202.1400000000001</v>
       </c>
       <c r="S5" s="1">
-        <v>-126.703000</v>
+        <v>-126.703</v>
       </c>
       <c r="T5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U5" s="1">
         <v>68997.493617</v>
       </c>
       <c r="V5" s="1">
-        <v>19.165970</v>
+        <v>19.165970000000002</v>
       </c>
       <c r="W5" s="1">
-        <v>1209.900000</v>
+        <v>1209.9000000000001</v>
       </c>
       <c r="X5" s="1">
-        <v>-106.991000</v>
+        <v>-106.991</v>
       </c>
       <c r="Y5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z5" s="1">
-        <v>69007.706748</v>
+        <v>69007.706747999997</v>
       </c>
       <c r="AA5" s="1">
-        <v>19.168807</v>
+        <v>19.168807000000001</v>
       </c>
       <c r="AB5" s="1">
-        <v>1218.230000</v>
+        <v>1218.23</v>
       </c>
       <c r="AC5" s="1">
-        <v>-90.926000</v>
+        <v>-90.926000000000002</v>
       </c>
       <c r="AD5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE5" s="1">
-        <v>69017.821622</v>
+        <v>69017.821622000003</v>
       </c>
       <c r="AF5" s="1">
-        <v>19.171617</v>
+        <v>19.171617000000001</v>
       </c>
       <c r="AG5" s="1">
-        <v>1223.360000</v>
+        <v>1223.3599999999999</v>
       </c>
       <c r="AH5" s="1">
-        <v>-86.598600</v>
+        <v>-86.598600000000005</v>
       </c>
       <c r="AI5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ5" s="1">
-        <v>69027.944009</v>
+        <v>69027.944008999999</v>
       </c>
       <c r="AK5" s="1">
         <v>19.174429</v>
       </c>
       <c r="AL5" s="1">
-        <v>1230.850000</v>
+        <v>1230.8499999999999</v>
       </c>
       <c r="AM5" s="1">
-        <v>-90.104000</v>
+        <v>-90.103999999999999</v>
       </c>
       <c r="AN5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO5" s="1">
-        <v>69038.220620</v>
+        <v>69038.220619999993</v>
       </c>
       <c r="AP5" s="1">
         <v>19.177284</v>
       </c>
       <c r="AQ5" s="1">
-        <v>1239.100000</v>
+        <v>1239.0999999999999</v>
       </c>
       <c r="AR5" s="1">
-        <v>-102.090000</v>
+        <v>-102.09</v>
       </c>
       <c r="AS5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT5" s="1">
-        <v>69049.234748</v>
+        <v>69049.234748000003</v>
       </c>
       <c r="AU5" s="1">
-        <v>19.180343</v>
+        <v>19.180343000000001</v>
       </c>
       <c r="AV5" s="1">
-        <v>1249.300000</v>
+        <v>1249.3</v>
       </c>
       <c r="AW5" s="1">
-        <v>-121.424000</v>
+        <v>-121.42400000000001</v>
       </c>
       <c r="AX5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY5" s="1">
-        <v>69060.705725</v>
+        <v>69060.705725000007</v>
       </c>
       <c r="AZ5" s="1">
         <v>19.183529</v>
       </c>
       <c r="BA5" s="1">
-        <v>1257.960000</v>
+        <v>1257.96</v>
       </c>
       <c r="BB5" s="1">
-        <v>-138.954000</v>
+        <v>-138.95400000000001</v>
       </c>
       <c r="BC5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD5" s="1">
-        <v>69071.669791</v>
+        <v>69071.669790999993</v>
       </c>
       <c r="BE5" s="1">
-        <v>19.186575</v>
+        <v>19.186575000000001</v>
       </c>
       <c r="BF5" s="1">
-        <v>1298.740000</v>
+        <v>1298.74</v>
       </c>
       <c r="BG5" s="1">
-        <v>-220.724000</v>
+        <v>-220.72399999999999</v>
       </c>
       <c r="BH5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI5" s="1">
-        <v>69082.414624</v>
+        <v>69082.414623999997</v>
       </c>
       <c r="BJ5" s="1">
-        <v>19.189560</v>
+        <v>19.18956</v>
       </c>
       <c r="BK5" s="1">
-        <v>1369.260000</v>
+        <v>1369.26</v>
       </c>
       <c r="BL5" s="1">
-        <v>-356.394000</v>
+        <v>-356.39400000000001</v>
       </c>
       <c r="BM5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN5" s="1">
-        <v>69093.554770</v>
+        <v>69093.554770000002</v>
       </c>
       <c r="BO5" s="1">
-        <v>19.192654</v>
+        <v>19.192654000000001</v>
       </c>
       <c r="BP5" s="1">
-        <v>1484.840000</v>
+        <v>1484.84</v>
       </c>
       <c r="BQ5" s="1">
-        <v>-576.442000</v>
+        <v>-576.44200000000001</v>
       </c>
       <c r="BR5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS5" s="1">
-        <v>69104.375987</v>
+        <v>69104.375987000007</v>
       </c>
       <c r="BT5" s="1">
-        <v>19.195660</v>
+        <v>19.19566</v>
       </c>
       <c r="BU5" s="1">
-        <v>1618.640000</v>
+        <v>1618.64</v>
       </c>
       <c r="BV5" s="1">
-        <v>-823.911000</v>
+        <v>-823.91099999999994</v>
       </c>
       <c r="BW5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX5" s="1">
-        <v>69115.740324</v>
+        <v>69115.740323999999</v>
       </c>
       <c r="BY5" s="1">
-        <v>19.198817</v>
+        <v>19.198816999999998</v>
       </c>
       <c r="BZ5" s="1">
-        <v>1771.300000</v>
+        <v>1771.3</v>
       </c>
       <c r="CA5" s="1">
-        <v>-1091.760000</v>
+        <v>-1091.76</v>
       </c>
       <c r="CB5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC5" s="1">
-        <v>69127.242089</v>
+        <v>69127.242089000007</v>
       </c>
       <c r="CD5" s="1">
         <v>19.202012</v>
       </c>
       <c r="CE5" s="1">
-        <v>2190.150000</v>
+        <v>2190.15</v>
       </c>
       <c r="CF5" s="1">
-        <v>-1736.470000</v>
+        <v>-1736.47</v>
       </c>
       <c r="CG5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:85">
       <c r="A6" s="1">
         <v>68956.788407</v>
       </c>
       <c r="B6" s="1">
-        <v>19.154663</v>
+        <v>19.154662999999999</v>
       </c>
       <c r="C6" s="1">
-        <v>1147.410000</v>
+        <v>1147.4100000000001</v>
       </c>
       <c r="D6" s="1">
-        <v>-248.386000</v>
+        <v>-248.386</v>
       </c>
       <c r="E6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F6" s="1">
-        <v>68967.153306</v>
+        <v>68967.153305999993</v>
       </c>
       <c r="G6" s="1">
         <v>19.157543</v>
       </c>
       <c r="H6" s="1">
-        <v>1167.600000</v>
+        <v>1167.5999999999999</v>
       </c>
       <c r="I6" s="1">
-        <v>-209.131000</v>
+        <v>-209.131</v>
       </c>
       <c r="J6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K6" s="1">
-        <v>68977.399164</v>
+        <v>68977.399164000002</v>
       </c>
       <c r="L6" s="1">
-        <v>19.160389</v>
+        <v>19.160388999999999</v>
       </c>
       <c r="M6" s="1">
-        <v>1194.340000</v>
+        <v>1194.3399999999999</v>
       </c>
       <c r="N6" s="1">
-        <v>-147.447000</v>
+        <v>-147.447</v>
       </c>
       <c r="O6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P6" s="1">
         <v>68987.931224</v>
@@ -1554,829 +1970,829 @@
         <v>19.163314</v>
       </c>
       <c r="R6" s="1">
-        <v>1202.110000</v>
+        <v>1202.1099999999999</v>
       </c>
       <c r="S6" s="1">
-        <v>-126.692000</v>
+        <v>-126.69199999999999</v>
       </c>
       <c r="T6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U6" s="1">
-        <v>68997.783746</v>
+        <v>68997.783746000001</v>
       </c>
       <c r="V6" s="1">
         <v>19.166051</v>
       </c>
       <c r="W6" s="1">
-        <v>1209.930000</v>
+        <v>1209.93</v>
       </c>
       <c r="X6" s="1">
-        <v>-106.865000</v>
+        <v>-106.86499999999999</v>
       </c>
       <c r="Y6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z6" s="1">
-        <v>69007.965123</v>
+        <v>69007.965123000002</v>
       </c>
       <c r="AA6" s="1">
         <v>19.168879</v>
       </c>
       <c r="AB6" s="1">
-        <v>1218.100000</v>
+        <v>1218.0999999999999</v>
       </c>
       <c r="AC6" s="1">
-        <v>-90.922700</v>
+        <v>-90.922700000000006</v>
       </c>
       <c r="AD6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE6" s="1">
-        <v>69018.162374</v>
+        <v>69018.162374000007</v>
       </c>
       <c r="AF6" s="1">
-        <v>19.171712</v>
+        <v>19.171711999999999</v>
       </c>
       <c r="AG6" s="1">
-        <v>1223.310000</v>
+        <v>1223.31</v>
       </c>
       <c r="AH6" s="1">
-        <v>-86.588900</v>
+        <v>-86.588899999999995</v>
       </c>
       <c r="AI6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ6" s="1">
-        <v>69028.291677</v>
+        <v>69028.291677000001</v>
       </c>
       <c r="AK6" s="1">
-        <v>19.174525</v>
+        <v>19.174524999999999</v>
       </c>
       <c r="AL6" s="1">
-        <v>1230.860000</v>
+        <v>1230.8599999999999</v>
       </c>
       <c r="AM6" s="1">
-        <v>-90.074500</v>
+        <v>-90.0745</v>
       </c>
       <c r="AN6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO6" s="1">
-        <v>69038.577707</v>
+        <v>69038.577707000004</v>
       </c>
       <c r="AP6" s="1">
-        <v>19.177383</v>
+        <v>19.177382999999999</v>
       </c>
       <c r="AQ6" s="1">
-        <v>1239.070000</v>
+        <v>1239.07</v>
       </c>
       <c r="AR6" s="1">
-        <v>-102.075000</v>
+        <v>-102.075</v>
       </c>
       <c r="AS6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT6" s="1">
-        <v>69049.960587</v>
+        <v>69049.960586999994</v>
       </c>
       <c r="AU6" s="1">
-        <v>19.180545</v>
+        <v>19.180544999999999</v>
       </c>
       <c r="AV6" s="1">
-        <v>1249.340000</v>
+        <v>1249.3399999999999</v>
       </c>
       <c r="AW6" s="1">
-        <v>-121.443000</v>
+        <v>-121.443</v>
       </c>
       <c r="AX6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY6" s="1">
-        <v>69061.064830</v>
+        <v>69061.064830000003</v>
       </c>
       <c r="AZ6" s="1">
         <v>19.183629</v>
       </c>
       <c r="BA6" s="1">
-        <v>1257.940000</v>
+        <v>1257.94</v>
       </c>
       <c r="BB6" s="1">
-        <v>-138.923000</v>
+        <v>-138.923</v>
       </c>
       <c r="BC6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD6" s="1">
-        <v>69072.047744</v>
+        <v>69072.047743999996</v>
       </c>
       <c r="BE6" s="1">
-        <v>19.186680</v>
+        <v>19.186679999999999</v>
       </c>
       <c r="BF6" s="1">
-        <v>1298.710000</v>
+        <v>1298.71</v>
       </c>
       <c r="BG6" s="1">
-        <v>-220.730000</v>
+        <v>-220.73</v>
       </c>
       <c r="BH6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI6" s="1">
-        <v>69082.787653</v>
+        <v>69082.787653000007</v>
       </c>
       <c r="BJ6" s="1">
-        <v>19.189663</v>
+        <v>19.189662999999999</v>
       </c>
       <c r="BK6" s="1">
-        <v>1369.270000</v>
+        <v>1369.27</v>
       </c>
       <c r="BL6" s="1">
-        <v>-356.387000</v>
+        <v>-356.387</v>
       </c>
       <c r="BM6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN6" s="1">
-        <v>69093.973393</v>
+        <v>69093.973392999993</v>
       </c>
       <c r="BO6" s="1">
-        <v>19.192770</v>
+        <v>19.192769999999999</v>
       </c>
       <c r="BP6" s="1">
-        <v>1484.960000</v>
+        <v>1484.96</v>
       </c>
       <c r="BQ6" s="1">
-        <v>-576.447000</v>
+        <v>-576.447</v>
       </c>
       <c r="BR6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS6" s="1">
-        <v>69105.090756</v>
+        <v>69105.090756000005</v>
       </c>
       <c r="BT6" s="1">
-        <v>19.195859</v>
+        <v>19.195858999999999</v>
       </c>
       <c r="BU6" s="1">
-        <v>1618.610000</v>
+        <v>1618.61</v>
       </c>
       <c r="BV6" s="1">
-        <v>-824.020000</v>
+        <v>-824.02</v>
       </c>
       <c r="BW6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX6" s="1">
-        <v>69115.878213</v>
+        <v>69115.878213000004</v>
       </c>
       <c r="BY6" s="1">
-        <v>19.198855</v>
+        <v>19.198854999999998</v>
       </c>
       <c r="BZ6" s="1">
-        <v>1771.420000</v>
+        <v>1771.42</v>
       </c>
       <c r="CA6" s="1">
-        <v>-1091.820000</v>
+        <v>-1091.82</v>
       </c>
       <c r="CB6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC6" s="1">
-        <v>69127.465787</v>
+        <v>69127.465786999994</v>
       </c>
       <c r="CD6" s="1">
         <v>19.202074</v>
       </c>
       <c r="CE6" s="1">
-        <v>2188.510000</v>
+        <v>2188.5100000000002</v>
       </c>
       <c r="CF6" s="1">
-        <v>-1737.640000</v>
+        <v>-1737.64</v>
       </c>
       <c r="CG6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:85">
       <c r="A7" s="1">
-        <v>68957.208022</v>
+        <v>68957.208022000006</v>
       </c>
       <c r="B7" s="1">
-        <v>19.154780</v>
+        <v>19.154779999999999</v>
       </c>
       <c r="C7" s="1">
-        <v>1147.290000</v>
+        <v>1147.29</v>
       </c>
       <c r="D7" s="1">
-        <v>-248.515000</v>
+        <v>-248.51499999999999</v>
       </c>
       <c r="E7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F7" s="1">
-        <v>68967.581850</v>
+        <v>68967.581850000002</v>
       </c>
       <c r="G7" s="1">
-        <v>19.157662</v>
+        <v>19.157661999999998</v>
       </c>
       <c r="H7" s="1">
-        <v>1167.560000</v>
+        <v>1167.56</v>
       </c>
       <c r="I7" s="1">
-        <v>-209.489000</v>
+        <v>-209.489</v>
       </c>
       <c r="J7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K7" s="1">
-        <v>68977.690811</v>
+        <v>68977.690810999993</v>
       </c>
       <c r="L7" s="1">
-        <v>19.160470</v>
+        <v>19.16047</v>
       </c>
       <c r="M7" s="1">
-        <v>1193.930000</v>
+        <v>1193.93</v>
       </c>
       <c r="N7" s="1">
-        <v>-147.535000</v>
+        <v>-147.535</v>
       </c>
       <c r="O7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P7" s="1">
-        <v>68988.225839</v>
+        <v>68988.225839000006</v>
       </c>
       <c r="Q7" s="1">
-        <v>19.163396</v>
+        <v>19.163395999999999</v>
       </c>
       <c r="R7" s="1">
-        <v>1202.170000</v>
+        <v>1202.17</v>
       </c>
       <c r="S7" s="1">
-        <v>-126.666000</v>
+        <v>-126.666</v>
       </c>
       <c r="T7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U7" s="1">
-        <v>68998.128961</v>
+        <v>68998.128960999995</v>
       </c>
       <c r="V7" s="1">
-        <v>19.166147</v>
+        <v>19.166146999999999</v>
       </c>
       <c r="W7" s="1">
-        <v>1209.880000</v>
+        <v>1209.8800000000001</v>
       </c>
       <c r="X7" s="1">
-        <v>-107.042000</v>
+        <v>-107.042</v>
       </c>
       <c r="Y7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z7" s="1">
-        <v>69008.314388</v>
+        <v>69008.314387999999</v>
       </c>
       <c r="AA7" s="1">
-        <v>19.168976</v>
+        <v>19.168976000000001</v>
       </c>
       <c r="AB7" s="1">
-        <v>1218.160000</v>
+        <v>1218.1600000000001</v>
       </c>
       <c r="AC7" s="1">
-        <v>-90.823700</v>
+        <v>-90.823700000000002</v>
       </c>
       <c r="AD7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE7" s="1">
         <v>69018.506597</v>
       </c>
       <c r="AF7" s="1">
-        <v>19.171807</v>
+        <v>19.171807000000001</v>
       </c>
       <c r="AG7" s="1">
-        <v>1223.290000</v>
+        <v>1223.29</v>
       </c>
       <c r="AH7" s="1">
-        <v>-86.664200</v>
+        <v>-86.664199999999994</v>
       </c>
       <c r="AI7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ7" s="1">
-        <v>69028.989543</v>
+        <v>69028.989543000003</v>
       </c>
       <c r="AK7" s="1">
         <v>19.174719</v>
       </c>
       <c r="AL7" s="1">
-        <v>1230.840000</v>
+        <v>1230.8399999999999</v>
       </c>
       <c r="AM7" s="1">
-        <v>-90.085300</v>
+        <v>-90.085300000000004</v>
       </c>
       <c r="AN7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO7" s="1">
-        <v>69039.301897</v>
+        <v>69039.301896999998</v>
       </c>
       <c r="AP7" s="1">
         <v>19.177584</v>
       </c>
       <c r="AQ7" s="1">
-        <v>1239.070000</v>
+        <v>1239.07</v>
       </c>
       <c r="AR7" s="1">
-        <v>-102.094000</v>
+        <v>-102.09399999999999</v>
       </c>
       <c r="AS7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT7" s="1">
-        <v>69050.350749</v>
+        <v>69050.350749000005</v>
       </c>
       <c r="AU7" s="1">
         <v>19.180653</v>
       </c>
       <c r="AV7" s="1">
-        <v>1249.330000</v>
+        <v>1249.33</v>
       </c>
       <c r="AW7" s="1">
-        <v>-121.434000</v>
+        <v>-121.434</v>
       </c>
       <c r="AX7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY7" s="1">
-        <v>69061.422446</v>
+        <v>69061.422445999997</v>
       </c>
       <c r="AZ7" s="1">
-        <v>19.183728</v>
+        <v>19.183727999999999</v>
       </c>
       <c r="BA7" s="1">
-        <v>1257.950000</v>
+        <v>1257.95</v>
       </c>
       <c r="BB7" s="1">
-        <v>-138.927000</v>
+        <v>-138.92699999999999</v>
       </c>
       <c r="BC7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD7" s="1">
-        <v>69072.407373</v>
+        <v>69072.407372999995</v>
       </c>
       <c r="BE7" s="1">
-        <v>19.186780</v>
+        <v>19.186779999999999</v>
       </c>
       <c r="BF7" s="1">
-        <v>1298.740000</v>
+        <v>1298.74</v>
       </c>
       <c r="BG7" s="1">
-        <v>-220.723000</v>
+        <v>-220.72300000000001</v>
       </c>
       <c r="BH7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI7" s="1">
-        <v>69083.476064</v>
+        <v>69083.476064000002</v>
       </c>
       <c r="BJ7" s="1">
         <v>19.189854</v>
       </c>
       <c r="BK7" s="1">
-        <v>1369.250000</v>
+        <v>1369.25</v>
       </c>
       <c r="BL7" s="1">
-        <v>-356.417000</v>
+        <v>-356.41699999999997</v>
       </c>
       <c r="BM7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN7" s="1">
-        <v>69094.752112</v>
+        <v>69094.752112000002</v>
       </c>
       <c r="BO7" s="1">
-        <v>19.192987</v>
+        <v>19.192986999999999</v>
       </c>
       <c r="BP7" s="1">
-        <v>1484.850000</v>
+        <v>1484.85</v>
       </c>
       <c r="BQ7" s="1">
-        <v>-576.459000</v>
+        <v>-576.45899999999995</v>
       </c>
       <c r="BR7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS7" s="1">
-        <v>69105.217707</v>
+        <v>69105.217707000003</v>
       </c>
       <c r="BT7" s="1">
-        <v>19.195894</v>
+        <v>19.195893999999999</v>
       </c>
       <c r="BU7" s="1">
-        <v>1618.540000</v>
+        <v>1618.54</v>
       </c>
       <c r="BV7" s="1">
-        <v>-824.019000</v>
+        <v>-824.01900000000001</v>
       </c>
       <c r="BW7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX7" s="1">
-        <v>69116.299813</v>
+        <v>69116.299813000005</v>
       </c>
       <c r="BY7" s="1">
-        <v>19.198972</v>
+        <v>19.198972000000001</v>
       </c>
       <c r="BZ7" s="1">
-        <v>1771.500000</v>
+        <v>1771.5</v>
       </c>
       <c r="CA7" s="1">
-        <v>-1091.720000</v>
+        <v>-1091.72</v>
       </c>
       <c r="CB7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC7" s="1">
-        <v>69127.982580</v>
+        <v>69127.982579999996</v>
       </c>
       <c r="CD7" s="1">
-        <v>19.202217</v>
+        <v>19.202217000000001</v>
       </c>
       <c r="CE7" s="1">
-        <v>2188.880000</v>
+        <v>2188.88</v>
       </c>
       <c r="CF7" s="1">
-        <v>-1736.160000</v>
+        <v>-1736.16</v>
       </c>
       <c r="CG7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:85">
       <c r="A8" s="1">
-        <v>68957.481320</v>
+        <v>68957.481320000006</v>
       </c>
       <c r="B8" s="1">
-        <v>19.154856</v>
+        <v>19.154855999999999</v>
       </c>
       <c r="C8" s="1">
-        <v>1147.240000</v>
+        <v>1147.24</v>
       </c>
       <c r="D8" s="1">
-        <v>-248.543000</v>
+        <v>-248.54300000000001</v>
       </c>
       <c r="E8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F8" s="1">
-        <v>68967.858658</v>
+        <v>68967.858657999997</v>
       </c>
       <c r="G8" s="1">
-        <v>19.157739</v>
+        <v>19.157738999999999</v>
       </c>
       <c r="H8" s="1">
-        <v>1167.360000</v>
+        <v>1167.3599999999999</v>
       </c>
       <c r="I8" s="1">
-        <v>-209.314000</v>
+        <v>-209.31399999999999</v>
       </c>
       <c r="J8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K8" s="1">
         <v>68978.034044</v>
       </c>
       <c r="L8" s="1">
-        <v>19.160565</v>
+        <v>19.160564999999998</v>
       </c>
       <c r="M8" s="1">
-        <v>1194.050000</v>
+        <v>1194.05</v>
       </c>
       <c r="N8" s="1">
-        <v>-147.453000</v>
+        <v>-147.453</v>
       </c>
       <c r="O8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P8" s="1">
-        <v>68988.571550</v>
+        <v>68988.571549999993</v>
       </c>
       <c r="Q8" s="1">
-        <v>19.163492</v>
+        <v>19.163492000000002</v>
       </c>
       <c r="R8" s="1">
-        <v>1202.160000</v>
+        <v>1202.1600000000001</v>
       </c>
       <c r="S8" s="1">
-        <v>-126.720000</v>
+        <v>-126.72</v>
       </c>
       <c r="T8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U8" s="1">
-        <v>68998.471232</v>
+        <v>68998.471231999996</v>
       </c>
       <c r="V8" s="1">
         <v>19.166242</v>
       </c>
       <c r="W8" s="1">
-        <v>1210.020000</v>
+        <v>1210.02</v>
       </c>
       <c r="X8" s="1">
-        <v>-107.088000</v>
+        <v>-107.08799999999999</v>
       </c>
       <c r="Y8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z8" s="1">
-        <v>69009.009202</v>
+        <v>69009.009202000001</v>
       </c>
       <c r="AA8" s="1">
         <v>19.169169</v>
       </c>
       <c r="AB8" s="1">
-        <v>1218.230000</v>
+        <v>1218.23</v>
       </c>
       <c r="AC8" s="1">
-        <v>-90.878200</v>
+        <v>-90.878200000000007</v>
       </c>
       <c r="AD8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE8" s="1">
-        <v>69019.198517</v>
+        <v>69019.198516999997</v>
       </c>
       <c r="AF8" s="1">
-        <v>19.172000</v>
+        <v>19.172000000000001</v>
       </c>
       <c r="AG8" s="1">
-        <v>1223.420000</v>
+        <v>1223.42</v>
       </c>
       <c r="AH8" s="1">
-        <v>-86.582500</v>
+        <v>-86.582499999999996</v>
       </c>
       <c r="AI8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ8" s="1">
-        <v>69029.337249</v>
+        <v>69029.337249000004</v>
       </c>
       <c r="AK8" s="1">
         <v>19.174816</v>
       </c>
       <c r="AL8" s="1">
-        <v>1230.830000</v>
+        <v>1230.83</v>
       </c>
       <c r="AM8" s="1">
-        <v>-90.074200</v>
+        <v>-90.074200000000005</v>
       </c>
       <c r="AN8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO8" s="1">
-        <v>69039.688250</v>
+        <v>69039.688250000007</v>
       </c>
       <c r="AP8" s="1">
-        <v>19.177691</v>
+        <v>19.177690999999999</v>
       </c>
       <c r="AQ8" s="1">
-        <v>1239.080000</v>
+        <v>1239.08</v>
       </c>
       <c r="AR8" s="1">
-        <v>-102.096000</v>
+        <v>-102.096</v>
       </c>
       <c r="AS8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT8" s="1">
-        <v>69050.718778</v>
+        <v>69050.718777999995</v>
       </c>
       <c r="AU8" s="1">
-        <v>19.180755</v>
+        <v>19.180755000000001</v>
       </c>
       <c r="AV8" s="1">
-        <v>1249.290000</v>
+        <v>1249.29</v>
       </c>
       <c r="AW8" s="1">
-        <v>-121.439000</v>
+        <v>-121.43899999999999</v>
       </c>
       <c r="AX8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY8" s="1">
-        <v>69062.089067</v>
+        <v>69062.089066999994</v>
       </c>
       <c r="AZ8" s="1">
-        <v>19.183914</v>
+        <v>19.183914000000001</v>
       </c>
       <c r="BA8" s="1">
-        <v>1257.930000</v>
+        <v>1257.93</v>
       </c>
       <c r="BB8" s="1">
-        <v>-138.924000</v>
+        <v>-138.92400000000001</v>
       </c>
       <c r="BC8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD8" s="1">
-        <v>69073.083425</v>
+        <v>69073.083425000004</v>
       </c>
       <c r="BE8" s="1">
         <v>19.186968</v>
       </c>
       <c r="BF8" s="1">
-        <v>1298.750000</v>
+        <v>1298.75</v>
       </c>
       <c r="BG8" s="1">
-        <v>-220.724000</v>
+        <v>-220.72399999999999</v>
       </c>
       <c r="BH8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI8" s="1">
-        <v>69083.914032</v>
+        <v>69083.914032000001</v>
       </c>
       <c r="BJ8" s="1">
-        <v>19.189976</v>
+        <v>19.189976000000001</v>
       </c>
       <c r="BK8" s="1">
-        <v>1369.280000</v>
+        <v>1369.28</v>
       </c>
       <c r="BL8" s="1">
-        <v>-356.384000</v>
+        <v>-356.38400000000001</v>
       </c>
       <c r="BM8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN8" s="1">
         <v>69095.215375</v>
       </c>
       <c r="BO8" s="1">
-        <v>19.193115</v>
+        <v>19.193114999999999</v>
       </c>
       <c r="BP8" s="1">
-        <v>1484.890000</v>
+        <v>1484.89</v>
       </c>
       <c r="BQ8" s="1">
-        <v>-576.478000</v>
+        <v>-576.47799999999995</v>
       </c>
       <c r="BR8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS8" s="1">
-        <v>69105.654211</v>
+        <v>69105.654211000001</v>
       </c>
       <c r="BT8" s="1">
-        <v>19.196015</v>
+        <v>19.196014999999999</v>
       </c>
       <c r="BU8" s="1">
-        <v>1618.540000</v>
+        <v>1618.54</v>
       </c>
       <c r="BV8" s="1">
-        <v>-824.212000</v>
+        <v>-824.21199999999999</v>
       </c>
       <c r="BW8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX8" s="1">
-        <v>69116.725380</v>
+        <v>69116.725380000003</v>
       </c>
       <c r="BY8" s="1">
-        <v>19.199090</v>
+        <v>19.199090000000002</v>
       </c>
       <c r="BZ8" s="1">
-        <v>1771.480000</v>
+        <v>1771.48</v>
       </c>
       <c r="CA8" s="1">
-        <v>-1091.780000</v>
+        <v>-1091.78</v>
       </c>
       <c r="CB8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC8" s="1">
-        <v>69128.534628</v>
+        <v>69128.534627999994</v>
       </c>
       <c r="CD8" s="1">
-        <v>19.202371</v>
+        <v>19.202370999999999</v>
       </c>
       <c r="CE8" s="1">
-        <v>2190.000000</v>
+        <v>2190</v>
       </c>
       <c r="CF8" s="1">
-        <v>-1736.580000</v>
+        <v>-1736.58</v>
       </c>
       <c r="CG8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:85">
       <c r="A9" s="1">
-        <v>68957.820613</v>
+        <v>68957.820613000004</v>
       </c>
       <c r="B9" s="1">
-        <v>19.154950</v>
+        <v>19.154949999999999</v>
       </c>
       <c r="C9" s="1">
-        <v>1147.390000</v>
+        <v>1147.3900000000001</v>
       </c>
       <c r="D9" s="1">
-        <v>-248.408000</v>
+        <v>-248.40799999999999</v>
       </c>
       <c r="E9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F9" s="1">
-        <v>68968.205817</v>
+        <v>68968.205816999995</v>
       </c>
       <c r="G9" s="1">
-        <v>19.157835</v>
+        <v>19.157834999999999</v>
       </c>
       <c r="H9" s="1">
-        <v>1168.130000</v>
+        <v>1168.1300000000001</v>
       </c>
       <c r="I9" s="1">
-        <v>-209.034000</v>
+        <v>-209.03399999999999</v>
       </c>
       <c r="J9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K9" s="1">
-        <v>68978.381770</v>
+        <v>68978.381770000007</v>
       </c>
       <c r="L9" s="1">
-        <v>19.160662</v>
+        <v>19.160661999999999</v>
       </c>
       <c r="M9" s="1">
-        <v>1193.940000</v>
+        <v>1193.94</v>
       </c>
       <c r="N9" s="1">
-        <v>-147.426000</v>
+        <v>-147.42599999999999</v>
       </c>
       <c r="O9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P9" s="1">
-        <v>68988.926229</v>
+        <v>68988.926229000004</v>
       </c>
       <c r="Q9" s="1">
         <v>19.163591</v>
       </c>
       <c r="R9" s="1">
-        <v>1202.090000</v>
+        <v>1202.0899999999999</v>
       </c>
       <c r="S9" s="1">
-        <v>-126.729000</v>
+        <v>-126.729</v>
       </c>
       <c r="T9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U9" s="1">
-        <v>68999.156707</v>
+        <v>68999.156707000002</v>
       </c>
       <c r="V9" s="1">
         <v>19.166432</v>
       </c>
       <c r="W9" s="1">
-        <v>1209.790000</v>
+        <v>1209.79</v>
       </c>
       <c r="X9" s="1">
-        <v>-107.062000</v>
+        <v>-107.062</v>
       </c>
       <c r="Y9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z9" s="1">
-        <v>69009.358916</v>
+        <v>69009.358915999997</v>
       </c>
       <c r="AA9" s="1">
         <v>19.169266</v>
       </c>
       <c r="AB9" s="1">
-        <v>1218.340000</v>
+        <v>1218.3399999999999</v>
       </c>
       <c r="AC9" s="1">
-        <v>-90.851300</v>
+        <v>-90.851299999999995</v>
       </c>
       <c r="AD9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE9" s="1">
-        <v>69019.538771</v>
+        <v>69019.538771000007</v>
       </c>
       <c r="AF9" s="1">
-        <v>19.172094</v>
+        <v>19.172094000000001</v>
       </c>
       <c r="AG9" s="1">
-        <v>1223.520000</v>
+        <v>1223.52</v>
       </c>
       <c r="AH9" s="1">
-        <v>-86.645700</v>
+        <v>-86.645700000000005</v>
       </c>
       <c r="AI9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ9" s="1">
         <v>69029.686919</v>
@@ -2385,3686 +2801,3686 @@
         <v>19.174913</v>
       </c>
       <c r="AL9" s="1">
-        <v>1230.840000</v>
+        <v>1230.8399999999999</v>
       </c>
       <c r="AM9" s="1">
-        <v>-90.074300</v>
+        <v>-90.074299999999994</v>
       </c>
       <c r="AN9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO9" s="1">
-        <v>69040.048840</v>
+        <v>69040.048840000003</v>
       </c>
       <c r="AP9" s="1">
-        <v>19.177791</v>
+        <v>19.177790999999999</v>
       </c>
       <c r="AQ9" s="1">
-        <v>1239.090000</v>
+        <v>1239.0899999999999</v>
       </c>
       <c r="AR9" s="1">
-        <v>-102.065000</v>
+        <v>-102.065</v>
       </c>
       <c r="AS9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT9" s="1">
-        <v>69051.397305</v>
+        <v>69051.397305000006</v>
       </c>
       <c r="AU9" s="1">
         <v>19.180944</v>
       </c>
       <c r="AV9" s="1">
-        <v>1249.320000</v>
+        <v>1249.32</v>
       </c>
       <c r="AW9" s="1">
-        <v>-121.443000</v>
+        <v>-121.443</v>
       </c>
       <c r="AX9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY9" s="1">
-        <v>69062.497307</v>
+        <v>69062.497306999998</v>
       </c>
       <c r="AZ9" s="1">
         <v>19.184027</v>
       </c>
       <c r="BA9" s="1">
-        <v>1257.960000</v>
+        <v>1257.96</v>
       </c>
       <c r="BB9" s="1">
-        <v>-138.943000</v>
+        <v>-138.94300000000001</v>
       </c>
       <c r="BC9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD9" s="1">
-        <v>69073.511969</v>
+        <v>69073.511968999999</v>
       </c>
       <c r="BE9" s="1">
-        <v>19.187087</v>
+        <v>19.187086999999998</v>
       </c>
       <c r="BF9" s="1">
-        <v>1298.720000</v>
+        <v>1298.72</v>
       </c>
       <c r="BG9" s="1">
-        <v>-220.718000</v>
+        <v>-220.71799999999999</v>
       </c>
       <c r="BH9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI9" s="1">
-        <v>69084.288511</v>
+        <v>69084.288511000006</v>
       </c>
       <c r="BJ9" s="1">
-        <v>19.190080</v>
+        <v>19.190079999999998</v>
       </c>
       <c r="BK9" s="1">
-        <v>1369.280000</v>
+        <v>1369.28</v>
       </c>
       <c r="BL9" s="1">
-        <v>-356.392000</v>
+        <v>-356.392</v>
       </c>
       <c r="BM9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN9" s="1">
-        <v>69095.620113</v>
+        <v>69095.620112999997</v>
       </c>
       <c r="BO9" s="1">
-        <v>19.193228</v>
+        <v>19.193228000000001</v>
       </c>
       <c r="BP9" s="1">
-        <v>1484.890000</v>
+        <v>1484.89</v>
       </c>
       <c r="BQ9" s="1">
-        <v>-576.477000</v>
+        <v>-576.47699999999998</v>
       </c>
       <c r="BR9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS9" s="1">
-        <v>69106.084211</v>
+        <v>69106.084210999994</v>
       </c>
       <c r="BT9" s="1">
-        <v>19.196135</v>
+        <v>19.196135000000002</v>
       </c>
       <c r="BU9" s="1">
-        <v>1618.490000</v>
+        <v>1618.49</v>
       </c>
       <c r="BV9" s="1">
-        <v>-824.226000</v>
+        <v>-824.226</v>
       </c>
       <c r="BW9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX9" s="1">
-        <v>69117.173266</v>
+        <v>69117.173265999998</v>
       </c>
       <c r="BY9" s="1">
-        <v>19.199215</v>
+        <v>19.199214999999999</v>
       </c>
       <c r="BZ9" s="1">
-        <v>1771.360000</v>
+        <v>1771.36</v>
       </c>
       <c r="CA9" s="1">
-        <v>-1091.800000</v>
+        <v>-1091.8</v>
       </c>
       <c r="CB9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC9" s="1">
-        <v>69129.064355</v>
+        <v>69129.064354999995</v>
       </c>
       <c r="CD9" s="1">
-        <v>19.202518</v>
+        <v>19.202518000000001</v>
       </c>
       <c r="CE9" s="1">
-        <v>2188.460000</v>
+        <v>2188.46</v>
       </c>
       <c r="CF9" s="1">
-        <v>-1737.240000</v>
+        <v>-1737.24</v>
       </c>
       <c r="CG9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:85">
       <c r="A10" s="1">
-        <v>68958.164806</v>
+        <v>68958.164806000001</v>
       </c>
       <c r="B10" s="1">
-        <v>19.155046</v>
+        <v>19.155045999999999</v>
       </c>
       <c r="C10" s="1">
-        <v>1147.460000</v>
+        <v>1147.46</v>
       </c>
       <c r="D10" s="1">
-        <v>-248.460000</v>
+        <v>-248.46</v>
       </c>
       <c r="E10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F10" s="1">
-        <v>68968.551206</v>
+        <v>68968.551206000004</v>
       </c>
       <c r="G10" s="1">
-        <v>19.157931</v>
+        <v>19.157931000000001</v>
       </c>
       <c r="H10" s="1">
-        <v>1167.160000</v>
+        <v>1167.1600000000001</v>
       </c>
       <c r="I10" s="1">
-        <v>-208.828000</v>
+        <v>-208.828</v>
       </c>
       <c r="J10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K10" s="1">
-        <v>68979.075146</v>
+        <v>68979.075146000003</v>
       </c>
       <c r="L10" s="1">
         <v>19.160854</v>
       </c>
       <c r="M10" s="1">
-        <v>1194.120000</v>
+        <v>1194.1199999999999</v>
       </c>
       <c r="N10" s="1">
-        <v>-147.576000</v>
+        <v>-147.57599999999999</v>
       </c>
       <c r="O10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P10" s="1">
-        <v>68989.621615</v>
+        <v>68989.621614999996</v>
       </c>
       <c r="Q10" s="1">
         <v>19.163784</v>
       </c>
       <c r="R10" s="1">
-        <v>1202.100000</v>
+        <v>1202.0999999999999</v>
       </c>
       <c r="S10" s="1">
-        <v>-126.706000</v>
+        <v>-126.706</v>
       </c>
       <c r="T10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U10" s="1">
-        <v>68999.502879</v>
+        <v>68999.502879000007</v>
       </c>
       <c r="V10" s="1">
-        <v>19.166529</v>
+        <v>19.166529000000001</v>
       </c>
       <c r="W10" s="1">
-        <v>1210.080000</v>
+        <v>1210.08</v>
       </c>
       <c r="X10" s="1">
-        <v>-107.066000</v>
+        <v>-107.066</v>
       </c>
       <c r="Y10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z10" s="1">
-        <v>69009.708094</v>
+        <v>69009.708094000001</v>
       </c>
       <c r="AA10" s="1">
-        <v>19.169363</v>
+        <v>19.169363000000001</v>
       </c>
       <c r="AB10" s="1">
-        <v>1218.230000</v>
+        <v>1218.23</v>
       </c>
       <c r="AC10" s="1">
-        <v>-90.817000</v>
+        <v>-90.816999999999993</v>
       </c>
       <c r="AD10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE10" s="1">
-        <v>69019.883525</v>
+        <v>69019.883524999997</v>
       </c>
       <c r="AF10" s="1">
-        <v>19.172190</v>
+        <v>19.172190000000001</v>
       </c>
       <c r="AG10" s="1">
-        <v>1223.190000</v>
+        <v>1223.19</v>
       </c>
       <c r="AH10" s="1">
-        <v>-86.443900</v>
+        <v>-86.443899999999999</v>
       </c>
       <c r="AI10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ10" s="1">
-        <v>69030.360486</v>
+        <v>69030.360486000005</v>
       </c>
       <c r="AK10" s="1">
-        <v>19.175100</v>
+        <v>19.1751</v>
       </c>
       <c r="AL10" s="1">
-        <v>1230.840000</v>
+        <v>1230.8399999999999</v>
       </c>
       <c r="AM10" s="1">
-        <v>-90.079300</v>
+        <v>-90.079300000000003</v>
       </c>
       <c r="AN10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO10" s="1">
-        <v>69040.726376</v>
+        <v>69040.726376000006</v>
       </c>
       <c r="AP10" s="1">
-        <v>19.177980</v>
+        <v>19.177980000000002</v>
       </c>
       <c r="AQ10" s="1">
-        <v>1239.050000</v>
+        <v>1239.05</v>
       </c>
       <c r="AR10" s="1">
-        <v>-102.074000</v>
+        <v>-102.074</v>
       </c>
       <c r="AS10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT10" s="1">
-        <v>69051.846185</v>
+        <v>69051.846185000002</v>
       </c>
       <c r="AU10" s="1">
         <v>19.181068</v>
       </c>
       <c r="AV10" s="1">
-        <v>1249.320000</v>
+        <v>1249.32</v>
       </c>
       <c r="AW10" s="1">
-        <v>-121.437000</v>
+        <v>-121.437</v>
       </c>
       <c r="AX10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY10" s="1">
-        <v>69062.880219</v>
+        <v>69062.880218999999</v>
       </c>
       <c r="AZ10" s="1">
-        <v>19.184133</v>
+        <v>19.184132999999999</v>
       </c>
       <c r="BA10" s="1">
-        <v>1257.950000</v>
+        <v>1257.95</v>
       </c>
       <c r="BB10" s="1">
-        <v>-138.925000</v>
+        <v>-138.92500000000001</v>
       </c>
       <c r="BC10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD10" s="1">
-        <v>69073.887931</v>
+        <v>69073.887931000005</v>
       </c>
       <c r="BE10" s="1">
-        <v>19.187191</v>
+        <v>19.187190999999999</v>
       </c>
       <c r="BF10" s="1">
-        <v>1298.740000</v>
+        <v>1298.74</v>
       </c>
       <c r="BG10" s="1">
-        <v>-220.740000</v>
+        <v>-220.74</v>
       </c>
       <c r="BH10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI10" s="1">
-        <v>69084.664973</v>
+        <v>69084.664973000006</v>
       </c>
       <c r="BJ10" s="1">
         <v>19.190185</v>
       </c>
       <c r="BK10" s="1">
-        <v>1369.260000</v>
+        <v>1369.26</v>
       </c>
       <c r="BL10" s="1">
-        <v>-356.395000</v>
+        <v>-356.39499999999998</v>
       </c>
       <c r="BM10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN10" s="1">
-        <v>69096.038734</v>
+        <v>69096.038734000002</v>
       </c>
       <c r="BO10" s="1">
         <v>19.193344</v>
       </c>
       <c r="BP10" s="1">
-        <v>1484.820000</v>
+        <v>1484.82</v>
       </c>
       <c r="BQ10" s="1">
-        <v>-576.496000</v>
+        <v>-576.49599999999998</v>
       </c>
       <c r="BR10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS10" s="1">
-        <v>69106.508328</v>
+        <v>69106.508327999996</v>
       </c>
       <c r="BT10" s="1">
-        <v>19.196252</v>
+        <v>19.196252000000001</v>
       </c>
       <c r="BU10" s="1">
-        <v>1618.420000</v>
+        <v>1618.42</v>
       </c>
       <c r="BV10" s="1">
-        <v>-824.296000</v>
+        <v>-824.29600000000005</v>
       </c>
       <c r="BW10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX10" s="1">
-        <v>69117.602834</v>
+        <v>69117.602834000005</v>
       </c>
       <c r="BY10" s="1">
         <v>19.199334</v>
       </c>
       <c r="BZ10" s="1">
-        <v>1771.360000</v>
+        <v>1771.36</v>
       </c>
       <c r="CA10" s="1">
-        <v>-1091.930000</v>
+        <v>-1091.93</v>
       </c>
       <c r="CB10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC10" s="1">
-        <v>69129.582212</v>
+        <v>69129.582211999994</v>
       </c>
       <c r="CD10" s="1">
         <v>19.202662</v>
       </c>
       <c r="CE10" s="1">
-        <v>2189.480000</v>
+        <v>2189.48</v>
       </c>
       <c r="CF10" s="1">
-        <v>-1739.080000</v>
+        <v>-1739.08</v>
       </c>
       <c r="CG10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:85">
       <c r="A11" s="1">
-        <v>68958.845844</v>
+        <v>68958.845843999996</v>
       </c>
       <c r="B11" s="1">
-        <v>19.155235</v>
+        <v>19.155235000000001</v>
       </c>
       <c r="C11" s="1">
-        <v>1147.140000</v>
+        <v>1147.1400000000001</v>
       </c>
       <c r="D11" s="1">
-        <v>-248.327000</v>
+        <v>-248.327</v>
       </c>
       <c r="E11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F11" s="1">
-        <v>68969.241463</v>
+        <v>68969.241462999998</v>
       </c>
       <c r="G11" s="1">
         <v>19.158123</v>
       </c>
       <c r="H11" s="1">
-        <v>1167.600000</v>
+        <v>1167.5999999999999</v>
       </c>
       <c r="I11" s="1">
-        <v>-209.041000</v>
+        <v>-209.041</v>
       </c>
       <c r="J11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K11" s="1">
-        <v>68979.421384</v>
+        <v>68979.421384000001</v>
       </c>
       <c r="L11" s="1">
-        <v>19.160950</v>
+        <v>19.16095</v>
       </c>
       <c r="M11" s="1">
-        <v>1194.160000</v>
+        <v>1194.1600000000001</v>
       </c>
       <c r="N11" s="1">
-        <v>-147.437000</v>
+        <v>-147.43700000000001</v>
       </c>
       <c r="O11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P11" s="1">
-        <v>68989.968811</v>
+        <v>68989.968810999999</v>
       </c>
       <c r="Q11" s="1">
-        <v>19.163880</v>
+        <v>19.163879999999999</v>
       </c>
       <c r="R11" s="1">
-        <v>1202.110000</v>
+        <v>1202.1099999999999</v>
       </c>
       <c r="S11" s="1">
-        <v>-126.659000</v>
+        <v>-126.65900000000001</v>
       </c>
       <c r="T11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U11" s="1">
-        <v>68999.846605</v>
+        <v>68999.846604999999</v>
       </c>
       <c r="V11" s="1">
-        <v>19.166624</v>
+        <v>19.166623999999999</v>
       </c>
       <c r="W11" s="1">
-        <v>1209.960000</v>
+        <v>1209.96</v>
       </c>
       <c r="X11" s="1">
-        <v>-107.081000</v>
+        <v>-107.081</v>
       </c>
       <c r="Y11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z11" s="1">
-        <v>69010.367743</v>
+        <v>69010.367742999995</v>
       </c>
       <c r="AA11" s="1">
-        <v>19.169547</v>
+        <v>19.169547000000001</v>
       </c>
       <c r="AB11" s="1">
-        <v>1218.200000</v>
+        <v>1218.2</v>
       </c>
       <c r="AC11" s="1">
-        <v>-90.838000</v>
+        <v>-90.837999999999994</v>
       </c>
       <c r="AD11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE11" s="1">
-        <v>69020.546483</v>
+        <v>69020.546482999998</v>
       </c>
       <c r="AF11" s="1">
-        <v>19.172374</v>
+        <v>19.172374000000001</v>
       </c>
       <c r="AG11" s="1">
-        <v>1223.500000</v>
+        <v>1223.5</v>
       </c>
       <c r="AH11" s="1">
-        <v>-86.598700</v>
+        <v>-86.598699999999994</v>
       </c>
       <c r="AI11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ11" s="1">
-        <v>69030.732982</v>
+        <v>69030.732982000001</v>
       </c>
       <c r="AK11" s="1">
-        <v>19.175204</v>
+        <v>19.175204000000001</v>
       </c>
       <c r="AL11" s="1">
-        <v>1230.850000</v>
+        <v>1230.8499999999999</v>
       </c>
       <c r="AM11" s="1">
-        <v>-90.091400</v>
+        <v>-90.091399999999993</v>
       </c>
       <c r="AN11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO11" s="1">
-        <v>69041.148968</v>
+        <v>69041.148967999994</v>
       </c>
       <c r="AP11" s="1">
-        <v>19.178097</v>
+        <v>19.178097000000001</v>
       </c>
       <c r="AQ11" s="1">
-        <v>1239.080000</v>
+        <v>1239.08</v>
       </c>
       <c r="AR11" s="1">
-        <v>-102.064000</v>
+        <v>-102.06399999999999</v>
       </c>
       <c r="AS11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT11" s="1">
-        <v>69052.209773</v>
+        <v>69052.209772999995</v>
       </c>
       <c r="AU11" s="1">
-        <v>19.181169</v>
+        <v>19.181169000000001</v>
       </c>
       <c r="AV11" s="1">
-        <v>1249.330000</v>
+        <v>1249.33</v>
       </c>
       <c r="AW11" s="1">
-        <v>-121.443000</v>
+        <v>-121.443</v>
       </c>
       <c r="AX11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY11" s="1">
-        <v>69063.239818</v>
+        <v>69063.239818000002</v>
       </c>
       <c r="AZ11" s="1">
-        <v>19.184233</v>
+        <v>19.184232999999999</v>
       </c>
       <c r="BA11" s="1">
-        <v>1257.940000</v>
+        <v>1257.94</v>
       </c>
       <c r="BB11" s="1">
-        <v>-138.931000</v>
+        <v>-138.93100000000001</v>
       </c>
       <c r="BC11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD11" s="1">
-        <v>69074.247996</v>
+        <v>69074.247996000006</v>
       </c>
       <c r="BE11" s="1">
-        <v>19.187291</v>
+        <v>19.187290999999998</v>
       </c>
       <c r="BF11" s="1">
-        <v>1298.730000</v>
+        <v>1298.73</v>
       </c>
       <c r="BG11" s="1">
-        <v>-220.727000</v>
+        <v>-220.727</v>
       </c>
       <c r="BH11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI11" s="1">
-        <v>69085.086573</v>
+        <v>69085.086572999993</v>
       </c>
       <c r="BJ11" s="1">
-        <v>19.190302</v>
+        <v>19.190301999999999</v>
       </c>
       <c r="BK11" s="1">
-        <v>1369.260000</v>
+        <v>1369.26</v>
       </c>
       <c r="BL11" s="1">
-        <v>-356.408000</v>
+        <v>-356.40800000000002</v>
       </c>
       <c r="BM11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN11" s="1">
-        <v>69096.428094</v>
+        <v>69096.428094000003</v>
       </c>
       <c r="BO11" s="1">
-        <v>19.193452</v>
+        <v>19.193452000000001</v>
       </c>
       <c r="BP11" s="1">
-        <v>1484.880000</v>
+        <v>1484.88</v>
       </c>
       <c r="BQ11" s="1">
-        <v>-576.463000</v>
+        <v>-576.46299999999997</v>
       </c>
       <c r="BR11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS11" s="1">
-        <v>69106.924965</v>
+        <v>69106.924964999998</v>
       </c>
       <c r="BT11" s="1">
         <v>19.196368</v>
       </c>
       <c r="BU11" s="1">
-        <v>1618.410000</v>
+        <v>1618.41</v>
       </c>
       <c r="BV11" s="1">
-        <v>-824.415000</v>
+        <v>-824.41499999999996</v>
       </c>
       <c r="BW11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX11" s="1">
-        <v>69118.023905</v>
+        <v>69118.023904999995</v>
       </c>
       <c r="BY11" s="1">
         <v>19.199451</v>
       </c>
       <c r="BZ11" s="1">
-        <v>1771.430000</v>
+        <v>1771.43</v>
       </c>
       <c r="CA11" s="1">
-        <v>-1091.940000</v>
+        <v>-1091.94</v>
       </c>
       <c r="CB11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC11" s="1">
-        <v>69130.101038</v>
+        <v>69130.101037999993</v>
       </c>
       <c r="CD11" s="1">
-        <v>19.202806</v>
+        <v>19.202805999999999</v>
       </c>
       <c r="CE11" s="1">
-        <v>2191.020000</v>
+        <v>2191.02</v>
       </c>
       <c r="CF11" s="1">
-        <v>-1737.770000</v>
+        <v>-1737.77</v>
       </c>
       <c r="CG11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:85">
       <c r="A12" s="1">
-        <v>68959.188583</v>
+        <v>68959.188582999996</v>
       </c>
       <c r="B12" s="1">
-        <v>19.155330</v>
+        <v>19.155329999999999</v>
       </c>
       <c r="C12" s="1">
-        <v>1147.160000</v>
+        <v>1147.1600000000001</v>
       </c>
       <c r="D12" s="1">
-        <v>-248.401000</v>
+        <v>-248.40100000000001</v>
       </c>
       <c r="E12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F12" s="1">
-        <v>68969.584423</v>
+        <v>68969.584422999993</v>
       </c>
       <c r="G12" s="1">
-        <v>19.158218</v>
+        <v>19.158218000000002</v>
       </c>
       <c r="H12" s="1">
-        <v>1166.740000</v>
+        <v>1166.74</v>
       </c>
       <c r="I12" s="1">
-        <v>-210.020000</v>
+        <v>-210.02</v>
       </c>
       <c r="J12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K12" s="1">
         <v>68979.767066</v>
       </c>
       <c r="L12" s="1">
-        <v>19.161046</v>
+        <v>19.161045999999999</v>
       </c>
       <c r="M12" s="1">
-        <v>1194.130000</v>
+        <v>1194.1300000000001</v>
       </c>
       <c r="N12" s="1">
-        <v>-147.335000</v>
+        <v>-147.33500000000001</v>
       </c>
       <c r="O12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P12" s="1">
-        <v>68990.317963</v>
+        <v>68990.317962999994</v>
       </c>
       <c r="Q12" s="1">
-        <v>19.163977</v>
+        <v>19.163976999999999</v>
       </c>
       <c r="R12" s="1">
-        <v>1202.150000</v>
+        <v>1202.1500000000001</v>
       </c>
       <c r="S12" s="1">
-        <v>-126.679000</v>
+        <v>-126.679</v>
       </c>
       <c r="T12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U12" s="1">
-        <v>69000.502812</v>
+        <v>69000.502812000006</v>
       </c>
       <c r="V12" s="1">
-        <v>19.166806</v>
+        <v>19.166806000000001</v>
       </c>
       <c r="W12" s="1">
-        <v>1209.990000</v>
+        <v>1209.99</v>
       </c>
       <c r="X12" s="1">
-        <v>-106.925000</v>
+        <v>-106.925</v>
       </c>
       <c r="Y12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z12" s="1">
-        <v>69010.752639</v>
+        <v>69010.752638999998</v>
       </c>
       <c r="AA12" s="1">
-        <v>19.169654</v>
+        <v>19.169654000000001</v>
       </c>
       <c r="AB12" s="1">
-        <v>1218.220000</v>
+        <v>1218.22</v>
       </c>
       <c r="AC12" s="1">
-        <v>-90.921100</v>
+        <v>-90.921099999999996</v>
       </c>
       <c r="AD12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE12" s="1">
-        <v>69020.919170</v>
+        <v>69020.919169999994</v>
       </c>
       <c r="AF12" s="1">
-        <v>19.172478</v>
+        <v>19.172478000000002</v>
       </c>
       <c r="AG12" s="1">
-        <v>1223.430000</v>
+        <v>1223.43</v>
       </c>
       <c r="AH12" s="1">
-        <v>-86.693300</v>
+        <v>-86.693299999999994</v>
       </c>
       <c r="AI12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ12" s="1">
-        <v>69031.080678</v>
+        <v>69031.080677999998</v>
       </c>
       <c r="AK12" s="1">
-        <v>19.175300</v>
+        <v>19.1753</v>
       </c>
       <c r="AL12" s="1">
-        <v>1230.830000</v>
+        <v>1230.83</v>
       </c>
       <c r="AM12" s="1">
-        <v>-90.094000</v>
+        <v>-90.093999999999994</v>
       </c>
       <c r="AN12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO12" s="1">
-        <v>69041.508070</v>
+        <v>69041.508069999996</v>
       </c>
       <c r="AP12" s="1">
-        <v>19.178197</v>
+        <v>19.178197000000001</v>
       </c>
       <c r="AQ12" s="1">
-        <v>1239.080000</v>
+        <v>1239.08</v>
       </c>
       <c r="AR12" s="1">
-        <v>-102.048000</v>
+        <v>-102.048</v>
       </c>
       <c r="AS12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT12" s="1">
-        <v>69052.574808</v>
+        <v>69052.574808000005</v>
       </c>
       <c r="AU12" s="1">
-        <v>19.181271</v>
+        <v>19.181270999999999</v>
       </c>
       <c r="AV12" s="1">
-        <v>1249.310000</v>
+        <v>1249.31</v>
       </c>
       <c r="AW12" s="1">
-        <v>-121.449000</v>
+        <v>-121.449</v>
       </c>
       <c r="AX12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY12" s="1">
-        <v>69063.658411</v>
+        <v>69063.658410999997</v>
       </c>
       <c r="AZ12" s="1">
-        <v>19.184350</v>
+        <v>19.184349999999998</v>
       </c>
       <c r="BA12" s="1">
-        <v>1257.940000</v>
+        <v>1257.94</v>
       </c>
       <c r="BB12" s="1">
-        <v>-138.926000</v>
+        <v>-138.92599999999999</v>
       </c>
       <c r="BC12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD12" s="1">
-        <v>69074.680011</v>
+        <v>69074.680011000004</v>
       </c>
       <c r="BE12" s="1">
-        <v>19.187411</v>
+        <v>19.187411000000001</v>
       </c>
       <c r="BF12" s="1">
-        <v>1298.730000</v>
+        <v>1298.73</v>
       </c>
       <c r="BG12" s="1">
-        <v>-220.709000</v>
+        <v>-220.709</v>
       </c>
       <c r="BH12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI12" s="1">
-        <v>69085.441708</v>
+        <v>69085.441707999998</v>
       </c>
       <c r="BJ12" s="1">
-        <v>19.190400</v>
+        <v>19.1904</v>
       </c>
       <c r="BK12" s="1">
-        <v>1369.280000</v>
+        <v>1369.28</v>
       </c>
       <c r="BL12" s="1">
-        <v>-356.375000</v>
+        <v>-356.375</v>
       </c>
       <c r="BM12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN12" s="1">
         <v>69096.845726</v>
       </c>
       <c r="BO12" s="1">
-        <v>19.193568</v>
+        <v>19.193567999999999</v>
       </c>
       <c r="BP12" s="1">
-        <v>1484.890000</v>
+        <v>1484.89</v>
       </c>
       <c r="BQ12" s="1">
-        <v>-576.430000</v>
+        <v>-576.42999999999995</v>
       </c>
       <c r="BR12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS12" s="1">
-        <v>69107.351984</v>
+        <v>69107.351983999994</v>
       </c>
       <c r="BT12" s="1">
-        <v>19.196487</v>
+        <v>19.196487000000001</v>
       </c>
       <c r="BU12" s="1">
-        <v>1618.170000</v>
+        <v>1618.17</v>
       </c>
       <c r="BV12" s="1">
-        <v>-824.325000</v>
+        <v>-824.32500000000005</v>
       </c>
       <c r="BW12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX12" s="1">
-        <v>69118.446498</v>
+        <v>69118.446498000005</v>
       </c>
       <c r="BY12" s="1">
-        <v>19.199568</v>
+        <v>19.199567999999999</v>
       </c>
       <c r="BZ12" s="1">
-        <v>1771.300000</v>
+        <v>1771.3</v>
       </c>
       <c r="CA12" s="1">
-        <v>-1091.690000</v>
+        <v>-1091.69</v>
       </c>
       <c r="CB12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC12" s="1">
-        <v>69130.618353</v>
+        <v>69130.618352999998</v>
       </c>
       <c r="CD12" s="1">
-        <v>19.202950</v>
+        <v>19.202950000000001</v>
       </c>
       <c r="CE12" s="1">
-        <v>2190.500000</v>
+        <v>2190.5</v>
       </c>
       <c r="CF12" s="1">
-        <v>-1738.390000</v>
+        <v>-1738.39</v>
       </c>
       <c r="CG12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:85">
       <c r="A13" s="1">
-        <v>68959.530792</v>
+        <v>68959.530792000005</v>
       </c>
       <c r="B13" s="1">
-        <v>19.155425</v>
+        <v>19.155425000000001</v>
       </c>
       <c r="C13" s="1">
-        <v>1147.380000</v>
+        <v>1147.3800000000001</v>
       </c>
       <c r="D13" s="1">
-        <v>-248.375000</v>
+        <v>-248.375</v>
       </c>
       <c r="E13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F13" s="1">
-        <v>68969.930405</v>
+        <v>68969.930405000006</v>
       </c>
       <c r="G13" s="1">
-        <v>19.158314</v>
+        <v>19.158314000000001</v>
       </c>
       <c r="H13" s="1">
-        <v>1166.940000</v>
+        <v>1166.94</v>
       </c>
       <c r="I13" s="1">
-        <v>-209.333000</v>
+        <v>-209.333</v>
       </c>
       <c r="J13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K13" s="1">
-        <v>68980.417849</v>
+        <v>68980.417849000005</v>
       </c>
       <c r="L13" s="1">
         <v>19.161227</v>
       </c>
       <c r="M13" s="1">
-        <v>1194.110000</v>
+        <v>1194.1099999999999</v>
       </c>
       <c r="N13" s="1">
-        <v>-147.501000</v>
+        <v>-147.501</v>
       </c>
       <c r="O13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P13" s="1">
-        <v>68990.816442</v>
+        <v>68990.816441999996</v>
       </c>
       <c r="Q13" s="1">
         <v>19.164116</v>
       </c>
       <c r="R13" s="1">
-        <v>1202.180000</v>
+        <v>1202.18</v>
       </c>
       <c r="S13" s="1">
-        <v>-126.719000</v>
+        <v>-126.71899999999999</v>
       </c>
       <c r="T13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U13" s="1">
-        <v>69000.872828</v>
+        <v>69000.872828000007</v>
       </c>
       <c r="V13" s="1">
         <v>19.166909</v>
       </c>
       <c r="W13" s="1">
-        <v>1210.100000</v>
+        <v>1210.0999999999999</v>
       </c>
       <c r="X13" s="1">
-        <v>-106.940000</v>
+        <v>-106.94</v>
       </c>
       <c r="Y13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z13" s="1">
-        <v>69011.100864</v>
+        <v>69011.100864000007</v>
       </c>
       <c r="AA13" s="1">
-        <v>19.169750</v>
+        <v>19.169750000000001</v>
       </c>
       <c r="AB13" s="1">
-        <v>1218.200000</v>
+        <v>1218.2</v>
       </c>
       <c r="AC13" s="1">
-        <v>-90.797900</v>
+        <v>-90.797899999999998</v>
       </c>
       <c r="AD13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE13" s="1">
-        <v>69021.258897</v>
+        <v>69021.258897000007</v>
       </c>
       <c r="AF13" s="1">
-        <v>19.172572</v>
+        <v>19.172571999999999</v>
       </c>
       <c r="AG13" s="1">
-        <v>1223.280000</v>
+        <v>1223.28</v>
       </c>
       <c r="AH13" s="1">
-        <v>-86.533700</v>
+        <v>-86.533699999999996</v>
       </c>
       <c r="AI13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ13" s="1">
-        <v>69031.428937</v>
+        <v>69031.428937000004</v>
       </c>
       <c r="AK13" s="1">
         <v>19.175397</v>
       </c>
       <c r="AL13" s="1">
-        <v>1230.870000</v>
+        <v>1230.8699999999999</v>
       </c>
       <c r="AM13" s="1">
-        <v>-90.107200</v>
+        <v>-90.107200000000006</v>
       </c>
       <c r="AN13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO13" s="1">
-        <v>69041.867191</v>
+        <v>69041.867190999998</v>
       </c>
       <c r="AP13" s="1">
         <v>19.178296</v>
       </c>
       <c r="AQ13" s="1">
-        <v>1239.080000</v>
+        <v>1239.08</v>
       </c>
       <c r="AR13" s="1">
-        <v>-102.119000</v>
+        <v>-102.119</v>
       </c>
       <c r="AS13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT13" s="1">
-        <v>69052.996935</v>
+        <v>69052.996935000003</v>
       </c>
       <c r="AU13" s="1">
-        <v>19.181388</v>
+        <v>19.181387999999998</v>
       </c>
       <c r="AV13" s="1">
-        <v>1249.310000</v>
+        <v>1249.31</v>
       </c>
       <c r="AW13" s="1">
-        <v>-121.440000</v>
+        <v>-121.44</v>
       </c>
       <c r="AX13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY13" s="1">
-        <v>69063.957994</v>
+        <v>69063.957993999997</v>
       </c>
       <c r="AZ13" s="1">
-        <v>19.184433</v>
+        <v>19.184432999999999</v>
       </c>
       <c r="BA13" s="1">
-        <v>1257.950000</v>
+        <v>1257.95</v>
       </c>
       <c r="BB13" s="1">
-        <v>-138.928000</v>
+        <v>-138.928</v>
       </c>
       <c r="BC13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD13" s="1">
         <v>69074.969675</v>
       </c>
       <c r="BE13" s="1">
-        <v>19.187492</v>
+        <v>19.187491999999999</v>
       </c>
       <c r="BF13" s="1">
-        <v>1298.740000</v>
+        <v>1298.74</v>
       </c>
       <c r="BG13" s="1">
-        <v>-220.706000</v>
+        <v>-220.70599999999999</v>
       </c>
       <c r="BH13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI13" s="1">
-        <v>69085.817180</v>
+        <v>69085.817179999998</v>
       </c>
       <c r="BJ13" s="1">
-        <v>19.190505</v>
+        <v>19.190505000000002</v>
       </c>
       <c r="BK13" s="1">
-        <v>1369.260000</v>
+        <v>1369.26</v>
       </c>
       <c r="BL13" s="1">
-        <v>-356.389000</v>
+        <v>-356.38900000000001</v>
       </c>
       <c r="BM13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN13" s="1">
-        <v>69097.241074</v>
+        <v>69097.241074000005</v>
       </c>
       <c r="BO13" s="1">
-        <v>19.193678</v>
+        <v>19.193677999999998</v>
       </c>
       <c r="BP13" s="1">
-        <v>1484.910000</v>
+        <v>1484.91</v>
       </c>
       <c r="BQ13" s="1">
-        <v>-576.428000</v>
+        <v>-576.428</v>
       </c>
       <c r="BR13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS13" s="1">
-        <v>69107.765678</v>
+        <v>69107.765677999996</v>
       </c>
       <c r="BT13" s="1">
-        <v>19.196602</v>
+        <v>19.196601999999999</v>
       </c>
       <c r="BU13" s="1">
-        <v>1618.070000</v>
+        <v>1618.07</v>
       </c>
       <c r="BV13" s="1">
-        <v>-824.301000</v>
+        <v>-824.30100000000004</v>
       </c>
       <c r="BW13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX13" s="1">
         <v>69118.878545</v>
       </c>
       <c r="BY13" s="1">
-        <v>19.199688</v>
+        <v>19.199687999999998</v>
       </c>
       <c r="BZ13" s="1">
-        <v>1771.350000</v>
+        <v>1771.35</v>
       </c>
       <c r="CA13" s="1">
-        <v>-1091.830000</v>
+        <v>-1091.83</v>
       </c>
       <c r="CB13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC13" s="1">
-        <v>69131.172352</v>
+        <v>69131.172351999994</v>
       </c>
       <c r="CD13" s="1">
-        <v>19.203103</v>
+        <v>19.203102999999999</v>
       </c>
       <c r="CE13" s="1">
-        <v>2189.020000</v>
+        <v>2189.02</v>
       </c>
       <c r="CF13" s="1">
-        <v>-1738.760000</v>
+        <v>-1738.76</v>
       </c>
       <c r="CG13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:85">
       <c r="A14" s="1">
-        <v>68960.184050</v>
+        <v>68960.184049999996</v>
       </c>
       <c r="B14" s="1">
         <v>19.155607</v>
       </c>
       <c r="C14" s="1">
-        <v>1147.260000</v>
+        <v>1147.26</v>
       </c>
       <c r="D14" s="1">
-        <v>-248.604000</v>
+        <v>-248.60400000000001</v>
       </c>
       <c r="E14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F14" s="1">
-        <v>68970.602029</v>
+        <v>68970.602029000001</v>
       </c>
       <c r="G14" s="1">
-        <v>19.158501</v>
+        <v>19.158501000000001</v>
       </c>
       <c r="H14" s="1">
-        <v>1167.650000</v>
+        <v>1167.6500000000001</v>
       </c>
       <c r="I14" s="1">
-        <v>-209.307000</v>
+        <v>-209.30699999999999</v>
       </c>
       <c r="J14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K14" s="1">
-        <v>68980.801719</v>
+        <v>68980.801718999996</v>
       </c>
       <c r="L14" s="1">
         <v>19.161334</v>
       </c>
       <c r="M14" s="1">
-        <v>1193.940000</v>
+        <v>1193.94</v>
       </c>
       <c r="N14" s="1">
-        <v>-147.322000</v>
+        <v>-147.322</v>
       </c>
       <c r="O14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>68991.014383</v>
+        <v>68991.014383000002</v>
       </c>
       <c r="Q14" s="1">
         <v>19.164171</v>
       </c>
       <c r="R14" s="1">
-        <v>1202.160000</v>
+        <v>1202.1600000000001</v>
       </c>
       <c r="S14" s="1">
-        <v>-126.738000</v>
+        <v>-126.738</v>
       </c>
       <c r="T14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U14" s="1">
-        <v>69001.218541</v>
+        <v>69001.218540999995</v>
       </c>
       <c r="V14" s="1">
         <v>19.167005</v>
       </c>
       <c r="W14" s="1">
-        <v>1210.000000</v>
+        <v>1210</v>
       </c>
       <c r="X14" s="1">
-        <v>-106.811000</v>
+        <v>-106.81100000000001</v>
       </c>
       <c r="Y14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z14" s="1">
-        <v>69011.452000</v>
+        <v>69011.452000000005</v>
       </c>
       <c r="AA14" s="1">
-        <v>19.169848</v>
+        <v>19.169848000000002</v>
       </c>
       <c r="AB14" s="1">
-        <v>1218.280000</v>
+        <v>1218.28</v>
       </c>
       <c r="AC14" s="1">
-        <v>-90.791700</v>
+        <v>-90.791700000000006</v>
       </c>
       <c r="AD14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE14" s="1">
-        <v>69021.605106</v>
+        <v>69021.605106000003</v>
       </c>
       <c r="AF14" s="1">
-        <v>19.172668</v>
+        <v>19.172668000000002</v>
       </c>
       <c r="AG14" s="1">
-        <v>1223.340000</v>
+        <v>1223.3399999999999</v>
       </c>
       <c r="AH14" s="1">
-        <v>-86.562300</v>
+        <v>-86.562299999999993</v>
       </c>
       <c r="AI14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ14" s="1">
-        <v>69031.858435</v>
+        <v>69031.858435000002</v>
       </c>
       <c r="AK14" s="1">
-        <v>19.175516</v>
+        <v>19.175515999999998</v>
       </c>
       <c r="AL14" s="1">
-        <v>1230.840000</v>
+        <v>1230.8399999999999</v>
       </c>
       <c r="AM14" s="1">
-        <v>-90.081000</v>
+        <v>-90.081000000000003</v>
       </c>
       <c r="AN14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO14" s="1">
-        <v>69042.299723</v>
+        <v>69042.299723000004</v>
       </c>
       <c r="AP14" s="1">
         <v>19.178417</v>
       </c>
       <c r="AQ14" s="1">
-        <v>1239.100000</v>
+        <v>1239.0999999999999</v>
       </c>
       <c r="AR14" s="1">
-        <v>-102.087000</v>
+        <v>-102.087</v>
       </c>
       <c r="AS14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT14" s="1">
-        <v>69053.305448</v>
+        <v>69053.305447999999</v>
       </c>
       <c r="AU14" s="1">
-        <v>19.181474</v>
+        <v>19.181474000000001</v>
       </c>
       <c r="AV14" s="1">
-        <v>1249.320000</v>
+        <v>1249.32</v>
       </c>
       <c r="AW14" s="1">
-        <v>-121.444000</v>
+        <v>-121.444</v>
       </c>
       <c r="AX14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY14" s="1">
-        <v>69064.315114</v>
+        <v>69064.315113999997</v>
       </c>
       <c r="AZ14" s="1">
-        <v>19.184532</v>
+        <v>19.184532000000001</v>
       </c>
       <c r="BA14" s="1">
-        <v>1257.950000</v>
+        <v>1257.95</v>
       </c>
       <c r="BB14" s="1">
-        <v>-138.918000</v>
+        <v>-138.91800000000001</v>
       </c>
       <c r="BC14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD14" s="1">
-        <v>69075.330797</v>
+        <v>69075.330797000002</v>
       </c>
       <c r="BE14" s="1">
-        <v>19.187592</v>
+        <v>19.187591999999999</v>
       </c>
       <c r="BF14" s="1">
-        <v>1298.750000</v>
+        <v>1298.75</v>
       </c>
       <c r="BG14" s="1">
-        <v>-220.742000</v>
+        <v>-220.74199999999999</v>
       </c>
       <c r="BH14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI14" s="1">
-        <v>69086.193179</v>
+        <v>69086.193178999994</v>
       </c>
       <c r="BJ14" s="1">
-        <v>19.190609</v>
+        <v>19.190608999999998</v>
       </c>
       <c r="BK14" s="1">
-        <v>1369.250000</v>
+        <v>1369.25</v>
       </c>
       <c r="BL14" s="1">
-        <v>-356.375000</v>
+        <v>-356.375</v>
       </c>
       <c r="BM14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN14" s="1">
-        <v>69097.670572</v>
+        <v>69097.670572000003</v>
       </c>
       <c r="BO14" s="1">
         <v>19.193797</v>
       </c>
       <c r="BP14" s="1">
-        <v>1484.870000</v>
+        <v>1484.87</v>
       </c>
       <c r="BQ14" s="1">
-        <v>-576.445000</v>
+        <v>-576.44500000000005</v>
       </c>
       <c r="BR14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS14" s="1">
-        <v>69108.195680</v>
+        <v>69108.195680000004</v>
       </c>
       <c r="BT14" s="1">
         <v>19.196721</v>
       </c>
       <c r="BU14" s="1">
-        <v>1618.050000</v>
+        <v>1618.05</v>
       </c>
       <c r="BV14" s="1">
-        <v>-824.426000</v>
+        <v>-824.42600000000004</v>
       </c>
       <c r="BW14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX14" s="1">
-        <v>69119.288736</v>
+        <v>69119.288736000002</v>
       </c>
       <c r="BY14" s="1">
-        <v>19.199802</v>
+        <v>19.199801999999998</v>
       </c>
       <c r="BZ14" s="1">
-        <v>1771.480000</v>
+        <v>1771.48</v>
       </c>
       <c r="CA14" s="1">
-        <v>-1091.760000</v>
+        <v>-1091.76</v>
       </c>
       <c r="CB14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC14" s="1">
-        <v>69131.702576</v>
+        <v>69131.702575999996</v>
       </c>
       <c r="CD14" s="1">
-        <v>19.203251</v>
+        <v>19.203251000000002</v>
       </c>
       <c r="CE14" s="1">
-        <v>2191.040000</v>
+        <v>2191.04</v>
       </c>
       <c r="CF14" s="1">
-        <v>-1738.010000</v>
+        <v>-1738.01</v>
       </c>
       <c r="CG14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:85">
       <c r="A15" s="1">
-        <v>68960.554531</v>
+        <v>68960.554531000002</v>
       </c>
       <c r="B15" s="1">
-        <v>19.155710</v>
+        <v>19.155709999999999</v>
       </c>
       <c r="C15" s="1">
-        <v>1147.570000</v>
+        <v>1147.57</v>
       </c>
       <c r="D15" s="1">
-        <v>-248.389000</v>
+        <v>-248.38900000000001</v>
       </c>
       <c r="E15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F15" s="1">
-        <v>68970.961124</v>
+        <v>68970.961123999994</v>
       </c>
       <c r="G15" s="1">
-        <v>19.158600</v>
+        <v>19.1586</v>
       </c>
       <c r="H15" s="1">
-        <v>1167.940000</v>
+        <v>1167.94</v>
       </c>
       <c r="I15" s="1">
-        <v>-209.819000</v>
+        <v>-209.81899999999999</v>
       </c>
       <c r="J15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K15" s="1">
-        <v>68981.147435</v>
+        <v>68981.147435000006</v>
       </c>
       <c r="L15" s="1">
-        <v>19.161430</v>
+        <v>19.161429999999999</v>
       </c>
       <c r="M15" s="1">
-        <v>1194.230000</v>
+        <v>1194.23</v>
       </c>
       <c r="N15" s="1">
-        <v>-147.468000</v>
+        <v>-147.46799999999999</v>
       </c>
       <c r="O15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P15" s="1">
-        <v>68991.363562</v>
+        <v>68991.363561999999</v>
       </c>
       <c r="Q15" s="1">
         <v>19.164268</v>
       </c>
       <c r="R15" s="1">
-        <v>1202.110000</v>
+        <v>1202.1099999999999</v>
       </c>
       <c r="S15" s="1">
-        <v>-126.734000</v>
+        <v>-126.73399999999999</v>
       </c>
       <c r="T15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U15" s="1">
-        <v>69001.563259</v>
+        <v>69001.563259000002</v>
       </c>
       <c r="V15" s="1">
-        <v>19.167101</v>
+        <v>19.167100999999999</v>
       </c>
       <c r="W15" s="1">
-        <v>1209.870000</v>
+        <v>1209.8699999999999</v>
       </c>
       <c r="X15" s="1">
-        <v>-107.040000</v>
+        <v>-107.04</v>
       </c>
       <c r="Y15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z15" s="1">
-        <v>69011.872607</v>
+        <v>69011.872606999998</v>
       </c>
       <c r="AA15" s="1">
-        <v>19.169965</v>
+        <v>19.169965000000001</v>
       </c>
       <c r="AB15" s="1">
-        <v>1218.260000</v>
+        <v>1218.26</v>
       </c>
       <c r="AC15" s="1">
-        <v>-90.760300</v>
+        <v>-90.760300000000001</v>
       </c>
       <c r="AD15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE15" s="1">
-        <v>69022.031664</v>
+        <v>69022.031663999995</v>
       </c>
       <c r="AF15" s="1">
         <v>19.172787</v>
       </c>
       <c r="AG15" s="1">
-        <v>1223.320000</v>
+        <v>1223.32</v>
       </c>
       <c r="AH15" s="1">
-        <v>-86.598900</v>
+        <v>-86.5989</v>
       </c>
       <c r="AI15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ15" s="1">
-        <v>69032.140661</v>
+        <v>69032.140660999998</v>
       </c>
       <c r="AK15" s="1">
-        <v>19.175595</v>
+        <v>19.175595000000001</v>
       </c>
       <c r="AL15" s="1">
-        <v>1230.840000</v>
+        <v>1230.8399999999999</v>
       </c>
       <c r="AM15" s="1">
-        <v>-90.087000</v>
+        <v>-90.087000000000003</v>
       </c>
       <c r="AN15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO15" s="1">
-        <v>69042.591831</v>
+        <v>69042.591830999998</v>
       </c>
       <c r="AP15" s="1">
-        <v>19.178498</v>
+        <v>19.178498000000001</v>
       </c>
       <c r="AQ15" s="1">
-        <v>1239.110000</v>
+        <v>1239.1099999999999</v>
       </c>
       <c r="AR15" s="1">
-        <v>-102.076000</v>
+        <v>-102.07599999999999</v>
       </c>
       <c r="AS15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT15" s="1">
-        <v>69053.670999</v>
+        <v>69053.670998999994</v>
       </c>
       <c r="AU15" s="1">
-        <v>19.181575</v>
+        <v>19.181574999999999</v>
       </c>
       <c r="AV15" s="1">
-        <v>1249.310000</v>
+        <v>1249.31</v>
       </c>
       <c r="AW15" s="1">
-        <v>-121.432000</v>
+        <v>-121.432</v>
       </c>
       <c r="AX15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY15" s="1">
-        <v>69064.674712</v>
+        <v>69064.674712000007</v>
       </c>
       <c r="AZ15" s="1">
-        <v>19.184632</v>
+        <v>19.184632000000001</v>
       </c>
       <c r="BA15" s="1">
-        <v>1257.940000</v>
+        <v>1257.94</v>
       </c>
       <c r="BB15" s="1">
-        <v>-138.924000</v>
+        <v>-138.92400000000001</v>
       </c>
       <c r="BC15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD15" s="1">
-        <v>69075.692883</v>
+        <v>69075.692882999996</v>
       </c>
       <c r="BE15" s="1">
-        <v>19.187692</v>
+        <v>19.187691999999998</v>
       </c>
       <c r="BF15" s="1">
-        <v>1298.740000</v>
+        <v>1298.74</v>
       </c>
       <c r="BG15" s="1">
-        <v>-220.730000</v>
+        <v>-220.73</v>
       </c>
       <c r="BH15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI15" s="1">
-        <v>69086.942106</v>
+        <v>69086.942106000002</v>
       </c>
       <c r="BJ15" s="1">
-        <v>19.190817</v>
+        <v>19.190816999999999</v>
       </c>
       <c r="BK15" s="1">
-        <v>1369.310000</v>
+        <v>1369.31</v>
       </c>
       <c r="BL15" s="1">
-        <v>-356.436000</v>
+        <v>-356.43599999999998</v>
       </c>
       <c r="BM15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN15" s="1">
         <v>69098.062909</v>
       </c>
       <c r="BO15" s="1">
-        <v>19.193906</v>
+        <v>19.193905999999998</v>
       </c>
       <c r="BP15" s="1">
-        <v>1484.880000</v>
+        <v>1484.88</v>
       </c>
       <c r="BQ15" s="1">
-        <v>-576.461000</v>
+        <v>-576.46100000000001</v>
       </c>
       <c r="BR15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS15" s="1">
-        <v>69108.622735</v>
+        <v>69108.622734999997</v>
       </c>
       <c r="BT15" s="1">
-        <v>19.196840</v>
+        <v>19.196840000000002</v>
       </c>
       <c r="BU15" s="1">
-        <v>1617.950000</v>
+        <v>1617.95</v>
       </c>
       <c r="BV15" s="1">
-        <v>-824.336000</v>
+        <v>-824.33600000000001</v>
       </c>
       <c r="BW15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX15" s="1">
-        <v>69119.742576</v>
+        <v>69119.742576000004</v>
       </c>
       <c r="BY15" s="1">
         <v>19.199928</v>
       </c>
       <c r="BZ15" s="1">
-        <v>1771.310000</v>
+        <v>1771.31</v>
       </c>
       <c r="CA15" s="1">
-        <v>-1091.750000</v>
+        <v>-1091.75</v>
       </c>
       <c r="CB15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC15" s="1">
-        <v>69132.527956</v>
+        <v>69132.527956000005</v>
       </c>
       <c r="CD15" s="1">
-        <v>19.203480</v>
+        <v>19.203479999999999</v>
       </c>
       <c r="CE15" s="1">
-        <v>2189.950000</v>
+        <v>2189.9499999999998</v>
       </c>
       <c r="CF15" s="1">
-        <v>-1736.330000</v>
+        <v>-1736.33</v>
       </c>
       <c r="CG15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:85">
       <c r="A16" s="1">
-        <v>68960.897283</v>
+        <v>68960.897282999998</v>
       </c>
       <c r="B16" s="1">
-        <v>19.155805</v>
+        <v>19.155805000000001</v>
       </c>
       <c r="C16" s="1">
-        <v>1147.360000</v>
+        <v>1147.3599999999999</v>
       </c>
       <c r="D16" s="1">
-        <v>-248.356000</v>
+        <v>-248.35599999999999</v>
       </c>
       <c r="E16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F16" s="1">
-        <v>68971.309781</v>
+        <v>68971.309781000004</v>
       </c>
       <c r="G16" s="1">
         <v>19.158697</v>
       </c>
       <c r="H16" s="1">
-        <v>1167.550000</v>
+        <v>1167.55</v>
       </c>
       <c r="I16" s="1">
-        <v>-209.138000</v>
+        <v>-209.13800000000001</v>
       </c>
       <c r="J16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K16" s="1">
-        <v>68981.496150</v>
+        <v>68981.496150000006</v>
       </c>
       <c r="L16" s="1">
         <v>19.161527</v>
       </c>
       <c r="M16" s="1">
-        <v>1194.060000</v>
+        <v>1194.06</v>
       </c>
       <c r="N16" s="1">
-        <v>-147.380000</v>
+        <v>-147.38</v>
       </c>
       <c r="O16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P16" s="1">
-        <v>68991.790617</v>
+        <v>68991.790617000006</v>
       </c>
       <c r="Q16" s="1">
         <v>19.164386</v>
       </c>
       <c r="R16" s="1">
-        <v>1202.120000</v>
+        <v>1202.1199999999999</v>
       </c>
       <c r="S16" s="1">
-        <v>-126.757000</v>
+        <v>-126.75700000000001</v>
       </c>
       <c r="T16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U16" s="1">
-        <v>69001.977456</v>
+        <v>69001.977455999993</v>
       </c>
       <c r="V16" s="1">
         <v>19.167216</v>
       </c>
       <c r="W16" s="1">
-        <v>1209.930000</v>
+        <v>1209.93</v>
       </c>
       <c r="X16" s="1">
-        <v>-106.987000</v>
+        <v>-106.98699999999999</v>
       </c>
       <c r="Y16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z16" s="1">
-        <v>69012.147401</v>
+        <v>69012.147400999995</v>
       </c>
       <c r="AA16" s="1">
-        <v>19.170041</v>
+        <v>19.170041000000001</v>
       </c>
       <c r="AB16" s="1">
-        <v>1218.230000</v>
+        <v>1218.23</v>
       </c>
       <c r="AC16" s="1">
-        <v>-90.902900</v>
+        <v>-90.902900000000002</v>
       </c>
       <c r="AD16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE16" s="1">
-        <v>69022.298513</v>
+        <v>69022.298513000002</v>
       </c>
       <c r="AF16" s="1">
-        <v>19.172861</v>
+        <v>19.172861000000001</v>
       </c>
       <c r="AG16" s="1">
-        <v>1223.260000</v>
+        <v>1223.26</v>
       </c>
       <c r="AH16" s="1">
-        <v>-86.660500</v>
+        <v>-86.660499999999999</v>
       </c>
       <c r="AI16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ16" s="1">
-        <v>69032.491827</v>
+        <v>69032.491827000005</v>
       </c>
       <c r="AK16" s="1">
-        <v>19.175692</v>
+        <v>19.175692000000002</v>
       </c>
       <c r="AL16" s="1">
-        <v>1230.820000</v>
+        <v>1230.82</v>
       </c>
       <c r="AM16" s="1">
-        <v>-90.058900</v>
+        <v>-90.058899999999994</v>
       </c>
       <c r="AN16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO16" s="1">
-        <v>69042.948950</v>
+        <v>69042.948950000005</v>
       </c>
       <c r="AP16" s="1">
         <v>19.178597</v>
       </c>
       <c r="AQ16" s="1">
-        <v>1239.060000</v>
+        <v>1239.06</v>
       </c>
       <c r="AR16" s="1">
-        <v>-102.088000</v>
+        <v>-102.08799999999999</v>
       </c>
       <c r="AS16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT16" s="1">
-        <v>69054.035031</v>
+        <v>69054.035031000007</v>
       </c>
       <c r="AU16" s="1">
         <v>19.181676</v>
       </c>
       <c r="AV16" s="1">
-        <v>1249.280000</v>
+        <v>1249.28</v>
       </c>
       <c r="AW16" s="1">
-        <v>-121.440000</v>
+        <v>-121.44</v>
       </c>
       <c r="AX16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY16" s="1">
-        <v>69065.394945</v>
+        <v>69065.394944999993</v>
       </c>
       <c r="AZ16" s="1">
         <v>19.184832</v>
       </c>
       <c r="BA16" s="1">
-        <v>1257.940000</v>
+        <v>1257.94</v>
       </c>
       <c r="BB16" s="1">
-        <v>-138.918000</v>
+        <v>-138.91800000000001</v>
       </c>
       <c r="BC16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD16" s="1">
-        <v>69076.414026</v>
+        <v>69076.414025999999</v>
       </c>
       <c r="BE16" s="1">
-        <v>19.187893</v>
+        <v>19.187892999999999</v>
       </c>
       <c r="BF16" s="1">
-        <v>1298.730000</v>
+        <v>1298.73</v>
       </c>
       <c r="BG16" s="1">
-        <v>-220.720000</v>
+        <v>-220.72</v>
       </c>
       <c r="BH16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI16" s="1">
-        <v>69087.319066</v>
+        <v>69087.319065999996</v>
       </c>
       <c r="BJ16" s="1">
         <v>19.190922</v>
       </c>
       <c r="BK16" s="1">
-        <v>1369.240000</v>
+        <v>1369.24</v>
       </c>
       <c r="BL16" s="1">
-        <v>-356.400000</v>
+        <v>-356.4</v>
       </c>
       <c r="BM16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN16" s="1">
-        <v>69098.482554</v>
+        <v>69098.482554000002</v>
       </c>
       <c r="BO16" s="1">
-        <v>19.194023</v>
+        <v>19.194023000000001</v>
       </c>
       <c r="BP16" s="1">
-        <v>1484.910000</v>
+        <v>1484.91</v>
       </c>
       <c r="BQ16" s="1">
-        <v>-576.471000</v>
+        <v>-576.471</v>
       </c>
       <c r="BR16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS16" s="1">
-        <v>69109.035406</v>
+        <v>69109.035405999995</v>
       </c>
       <c r="BT16" s="1">
-        <v>19.196954</v>
+        <v>19.196954000000002</v>
       </c>
       <c r="BU16" s="1">
-        <v>1617.830000</v>
+        <v>1617.83</v>
       </c>
       <c r="BV16" s="1">
-        <v>-824.228000</v>
+        <v>-824.22799999999995</v>
       </c>
       <c r="BW16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX16" s="1">
-        <v>69120.508862</v>
+        <v>69120.508862000002</v>
       </c>
       <c r="BY16" s="1">
-        <v>19.200141</v>
+        <v>19.200140999999999</v>
       </c>
       <c r="BZ16" s="1">
-        <v>1771.410000</v>
+        <v>1771.41</v>
       </c>
       <c r="CA16" s="1">
-        <v>-1091.740000</v>
+        <v>-1091.74</v>
       </c>
       <c r="CB16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC16" s="1">
-        <v>69132.738223</v>
+        <v>69132.738222999993</v>
       </c>
       <c r="CD16" s="1">
-        <v>19.203538</v>
+        <v>19.203538000000002</v>
       </c>
       <c r="CE16" s="1">
-        <v>2188.580000</v>
+        <v>2188.58</v>
       </c>
       <c r="CF16" s="1">
-        <v>-1737.590000</v>
+        <v>-1737.59</v>
       </c>
       <c r="CG16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:85">
       <c r="A17" s="1">
-        <v>68961.239537</v>
+        <v>68961.239537000001</v>
       </c>
       <c r="B17" s="1">
-        <v>19.155900</v>
+        <v>19.155899999999999</v>
       </c>
       <c r="C17" s="1">
-        <v>1147.440000</v>
+        <v>1147.44</v>
       </c>
       <c r="D17" s="1">
-        <v>-248.089000</v>
+        <v>-248.089</v>
       </c>
       <c r="E17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F17" s="1">
-        <v>68971.656483</v>
+        <v>68971.656482999999</v>
       </c>
       <c r="G17" s="1">
-        <v>19.158793</v>
+        <v>19.158792999999999</v>
       </c>
       <c r="H17" s="1">
-        <v>1167.250000</v>
+        <v>1167.25</v>
       </c>
       <c r="I17" s="1">
-        <v>-209.506000</v>
+        <v>-209.506</v>
       </c>
       <c r="J17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K17" s="1">
-        <v>68981.924663</v>
+        <v>68981.924662999998</v>
       </c>
       <c r="L17" s="1">
-        <v>19.161646</v>
+        <v>19.161646000000001</v>
       </c>
       <c r="M17" s="1">
-        <v>1193.910000</v>
+        <v>1193.9100000000001</v>
       </c>
       <c r="N17" s="1">
-        <v>-147.410000</v>
+        <v>-147.41</v>
       </c>
       <c r="O17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P17" s="1">
-        <v>68992.071817</v>
+        <v>68992.071817000004</v>
       </c>
       <c r="Q17" s="1">
-        <v>19.164464</v>
+        <v>19.164463999999999</v>
       </c>
       <c r="R17" s="1">
-        <v>1202.120000</v>
+        <v>1202.1199999999999</v>
       </c>
       <c r="S17" s="1">
-        <v>-126.679000</v>
+        <v>-126.679</v>
       </c>
       <c r="T17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U17" s="1">
-        <v>69002.262124</v>
+        <v>69002.262124000001</v>
       </c>
       <c r="V17" s="1">
-        <v>19.167295</v>
+        <v>19.167294999999999</v>
       </c>
       <c r="W17" s="1">
-        <v>1210.060000</v>
+        <v>1210.06</v>
       </c>
       <c r="X17" s="1">
-        <v>-107.095000</v>
+        <v>-107.095</v>
       </c>
       <c r="Y17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z17" s="1">
-        <v>69012.493102</v>
+        <v>69012.493101999993</v>
       </c>
       <c r="AA17" s="1">
         <v>19.170137</v>
       </c>
       <c r="AB17" s="1">
-        <v>1218.250000</v>
+        <v>1218.25</v>
       </c>
       <c r="AC17" s="1">
-        <v>-90.926900</v>
+        <v>-90.926900000000003</v>
       </c>
       <c r="AD17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE17" s="1">
-        <v>69022.642247</v>
+        <v>69022.642246999996</v>
       </c>
       <c r="AF17" s="1">
-        <v>19.172956</v>
+        <v>19.172955999999999</v>
       </c>
       <c r="AG17" s="1">
-        <v>1223.260000</v>
+        <v>1223.26</v>
       </c>
       <c r="AH17" s="1">
-        <v>-86.542000</v>
+        <v>-86.542000000000002</v>
       </c>
       <c r="AI17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ17" s="1">
-        <v>69032.839522</v>
+        <v>69032.839521999995</v>
       </c>
       <c r="AK17" s="1">
-        <v>19.175789</v>
+        <v>19.175789000000002</v>
       </c>
       <c r="AL17" s="1">
-        <v>1230.860000</v>
+        <v>1230.8599999999999</v>
       </c>
       <c r="AM17" s="1">
-        <v>-90.081100</v>
+        <v>-90.081100000000006</v>
       </c>
       <c r="AN17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO17" s="1">
-        <v>69043.679092</v>
+        <v>69043.679092000006</v>
       </c>
       <c r="AP17" s="1">
-        <v>19.178800</v>
+        <v>19.178799999999999</v>
       </c>
       <c r="AQ17" s="1">
-        <v>1239.080000</v>
+        <v>1239.08</v>
       </c>
       <c r="AR17" s="1">
-        <v>-102.081000</v>
+        <v>-102.081</v>
       </c>
       <c r="AS17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT17" s="1">
-        <v>69054.762165</v>
+        <v>69054.762164999993</v>
       </c>
       <c r="AU17" s="1">
-        <v>19.181878</v>
+        <v>19.181878000000001</v>
       </c>
       <c r="AV17" s="1">
-        <v>1249.340000</v>
+        <v>1249.3399999999999</v>
       </c>
       <c r="AW17" s="1">
-        <v>-121.444000</v>
+        <v>-121.444</v>
       </c>
       <c r="AX17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY17" s="1">
-        <v>69065.772881</v>
+        <v>69065.772880999997</v>
       </c>
       <c r="AZ17" s="1">
-        <v>19.184937</v>
+        <v>19.184937000000001</v>
       </c>
       <c r="BA17" s="1">
-        <v>1257.970000</v>
+        <v>1257.97</v>
       </c>
       <c r="BB17" s="1">
-        <v>-138.935000</v>
+        <v>-138.935</v>
       </c>
       <c r="BC17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD17" s="1">
-        <v>69076.826696</v>
+        <v>69076.826696000004</v>
       </c>
       <c r="BE17" s="1">
-        <v>19.188007</v>
+        <v>19.188006999999999</v>
       </c>
       <c r="BF17" s="1">
-        <v>1298.700000</v>
+        <v>1298.7</v>
       </c>
       <c r="BG17" s="1">
-        <v>-220.730000</v>
+        <v>-220.73</v>
       </c>
       <c r="BH17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI17" s="1">
-        <v>69087.695557</v>
+        <v>69087.695556999999</v>
       </c>
       <c r="BJ17" s="1">
-        <v>19.191027</v>
+        <v>19.191026999999998</v>
       </c>
       <c r="BK17" s="1">
-        <v>1369.270000</v>
+        <v>1369.27</v>
       </c>
       <c r="BL17" s="1">
-        <v>-356.418000</v>
+        <v>-356.41800000000001</v>
       </c>
       <c r="BM17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN17" s="1">
-        <v>69099.186875</v>
+        <v>69099.186874999999</v>
       </c>
       <c r="BO17" s="1">
         <v>19.194219</v>
       </c>
       <c r="BP17" s="1">
-        <v>1484.900000</v>
+        <v>1484.9</v>
       </c>
       <c r="BQ17" s="1">
-        <v>-576.471000</v>
+        <v>-576.471</v>
       </c>
       <c r="BR17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS17" s="1">
-        <v>69109.772469</v>
+        <v>69109.772469000003</v>
       </c>
       <c r="BT17" s="1">
-        <v>19.197159</v>
+        <v>19.197158999999999</v>
       </c>
       <c r="BU17" s="1">
-        <v>1617.830000</v>
+        <v>1617.83</v>
       </c>
       <c r="BV17" s="1">
-        <v>-824.175000</v>
+        <v>-824.17499999999995</v>
       </c>
       <c r="BW17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX17" s="1">
         <v>69120.640304</v>
       </c>
       <c r="BY17" s="1">
-        <v>19.200178</v>
+        <v>19.200178000000001</v>
       </c>
       <c r="BZ17" s="1">
-        <v>1771.340000</v>
+        <v>1771.34</v>
       </c>
       <c r="CA17" s="1">
-        <v>-1091.800000</v>
+        <v>-1091.8</v>
       </c>
       <c r="CB17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC17" s="1">
-        <v>69133.257535</v>
+        <v>69133.257534999997</v>
       </c>
       <c r="CD17" s="1">
-        <v>19.203683</v>
+        <v>19.203683000000002</v>
       </c>
       <c r="CE17" s="1">
-        <v>2188.400000</v>
+        <v>2188.4</v>
       </c>
       <c r="CF17" s="1">
-        <v>-1737.260000</v>
+        <v>-1737.26</v>
       </c>
       <c r="CG17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:85">
       <c r="A18" s="1">
-        <v>68961.660609</v>
+        <v>68961.660608999999</v>
       </c>
       <c r="B18" s="1">
-        <v>19.156017</v>
+        <v>19.156016999999999</v>
       </c>
       <c r="C18" s="1">
-        <v>1147.190000</v>
+        <v>1147.19</v>
       </c>
       <c r="D18" s="1">
-        <v>-248.292000</v>
+        <v>-248.292</v>
       </c>
       <c r="E18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F18" s="1">
-        <v>68972.069155</v>
+        <v>68972.069155000005</v>
       </c>
       <c r="G18" s="1">
         <v>19.158908</v>
       </c>
       <c r="H18" s="1">
-        <v>1167.060000</v>
+        <v>1167.06</v>
       </c>
       <c r="I18" s="1">
-        <v>-209.002000</v>
+        <v>-209.00200000000001</v>
       </c>
       <c r="J18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K18" s="1">
-        <v>68982.203910</v>
+        <v>68982.203909999997</v>
       </c>
       <c r="L18" s="1">
-        <v>19.161723</v>
+        <v>19.161722999999999</v>
       </c>
       <c r="M18" s="1">
-        <v>1194.180000</v>
+        <v>1194.18</v>
       </c>
       <c r="N18" s="1">
-        <v>-147.481000</v>
+        <v>-147.48099999999999</v>
       </c>
       <c r="O18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P18" s="1">
-        <v>68992.422487</v>
+        <v>68992.422487000003</v>
       </c>
       <c r="Q18" s="1">
         <v>19.164562</v>
       </c>
       <c r="R18" s="1">
-        <v>1202.130000</v>
+        <v>1202.1300000000001</v>
       </c>
       <c r="S18" s="1">
-        <v>-126.691000</v>
+        <v>-126.691</v>
       </c>
       <c r="T18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U18" s="1">
-        <v>69002.617754</v>
+        <v>69002.617754000006</v>
       </c>
       <c r="V18" s="1">
-        <v>19.167394</v>
+        <v>19.167394000000002</v>
       </c>
       <c r="W18" s="1">
-        <v>1209.870000</v>
+        <v>1209.8699999999999</v>
       </c>
       <c r="X18" s="1">
-        <v>-107.013000</v>
+        <v>-107.01300000000001</v>
       </c>
       <c r="Y18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z18" s="1">
-        <v>69012.844270</v>
+        <v>69012.844270000001</v>
       </c>
       <c r="AA18" s="1">
-        <v>19.170235</v>
+        <v>19.170235000000002</v>
       </c>
       <c r="AB18" s="1">
-        <v>1218.140000</v>
+        <v>1218.1400000000001</v>
       </c>
       <c r="AC18" s="1">
-        <v>-90.847900</v>
+        <v>-90.847899999999996</v>
       </c>
       <c r="AD18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE18" s="1">
-        <v>69022.987456</v>
+        <v>69022.987456000003</v>
       </c>
       <c r="AF18" s="1">
-        <v>19.173052</v>
+        <v>19.173051999999998</v>
       </c>
       <c r="AG18" s="1">
-        <v>1223.280000</v>
+        <v>1223.28</v>
       </c>
       <c r="AH18" s="1">
-        <v>-86.574000</v>
+        <v>-86.573999999999998</v>
       </c>
       <c r="AI18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ18" s="1">
-        <v>69033.535908</v>
+        <v>69033.535908000005</v>
       </c>
       <c r="AK18" s="1">
-        <v>19.175982</v>
+        <v>19.175982000000001</v>
       </c>
       <c r="AL18" s="1">
-        <v>1230.850000</v>
+        <v>1230.8499999999999</v>
       </c>
       <c r="AM18" s="1">
-        <v>-90.086900</v>
+        <v>-90.0869</v>
       </c>
       <c r="AN18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO18" s="1">
-        <v>69044.055523</v>
+        <v>69044.055523000003</v>
       </c>
       <c r="AP18" s="1">
-        <v>19.178904</v>
+        <v>19.178903999999999</v>
       </c>
       <c r="AQ18" s="1">
-        <v>1239.050000</v>
+        <v>1239.05</v>
       </c>
       <c r="AR18" s="1">
-        <v>-102.087000</v>
+        <v>-102.087</v>
       </c>
       <c r="AS18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT18" s="1">
-        <v>69055.149542</v>
+        <v>69055.149541999999</v>
       </c>
       <c r="AU18" s="1">
-        <v>19.181986</v>
+        <v>19.181985999999998</v>
       </c>
       <c r="AV18" s="1">
-        <v>1249.310000</v>
+        <v>1249.31</v>
       </c>
       <c r="AW18" s="1">
-        <v>-121.413000</v>
+        <v>-121.413</v>
       </c>
       <c r="AX18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY18" s="1">
-        <v>69066.149318</v>
+        <v>69066.149317999996</v>
       </c>
       <c r="AZ18" s="1">
-        <v>19.185041</v>
+        <v>19.185040999999998</v>
       </c>
       <c r="BA18" s="1">
-        <v>1257.980000</v>
+        <v>1257.98</v>
       </c>
       <c r="BB18" s="1">
-        <v>-138.934000</v>
+        <v>-138.934</v>
       </c>
       <c r="BC18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD18" s="1">
-        <v>69077.163977</v>
+        <v>69077.163977000004</v>
       </c>
       <c r="BE18" s="1">
         <v>19.188101</v>
       </c>
       <c r="BF18" s="1">
-        <v>1298.740000</v>
+        <v>1298.74</v>
       </c>
       <c r="BG18" s="1">
-        <v>-220.733000</v>
+        <v>-220.733</v>
       </c>
       <c r="BH18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI18" s="1">
-        <v>69088.381497</v>
+        <v>69088.381496999995</v>
       </c>
       <c r="BJ18" s="1">
-        <v>19.191217</v>
+        <v>19.191217000000002</v>
       </c>
       <c r="BK18" s="1">
-        <v>1369.280000</v>
+        <v>1369.28</v>
       </c>
       <c r="BL18" s="1">
-        <v>-356.435000</v>
+        <v>-356.435</v>
       </c>
       <c r="BM18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN18" s="1">
-        <v>69099.301946</v>
+        <v>69099.301946000007</v>
       </c>
       <c r="BO18" s="1">
-        <v>19.194251</v>
+        <v>19.194251000000001</v>
       </c>
       <c r="BP18" s="1">
-        <v>1484.930000</v>
+        <v>1484.93</v>
       </c>
       <c r="BQ18" s="1">
-        <v>-576.432000</v>
+        <v>-576.43200000000002</v>
       </c>
       <c r="BR18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS18" s="1">
-        <v>69109.892988</v>
+        <v>69109.892988000007</v>
       </c>
       <c r="BT18" s="1">
-        <v>19.197192</v>
+        <v>19.197192000000001</v>
       </c>
       <c r="BU18" s="1">
-        <v>1617.710000</v>
+        <v>1617.71</v>
       </c>
       <c r="BV18" s="1">
-        <v>-824.170000</v>
+        <v>-824.17</v>
       </c>
       <c r="BW18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX18" s="1">
-        <v>69121.060942</v>
+        <v>69121.060941999996</v>
       </c>
       <c r="BY18" s="1">
-        <v>19.200295</v>
+        <v>19.200295000000001</v>
       </c>
       <c r="BZ18" s="1">
-        <v>1771.430000</v>
+        <v>1771.43</v>
       </c>
       <c r="CA18" s="1">
-        <v>-1091.720000</v>
+        <v>-1091.72</v>
       </c>
       <c r="CB18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC18" s="1">
-        <v>69133.805118</v>
+        <v>69133.805118000004</v>
       </c>
       <c r="CD18" s="1">
-        <v>19.203835</v>
+        <v>19.203835000000002</v>
       </c>
       <c r="CE18" s="1">
-        <v>2189.470000</v>
+        <v>2189.4699999999998</v>
       </c>
       <c r="CF18" s="1">
-        <v>-1736.080000</v>
+        <v>-1736.08</v>
       </c>
       <c r="CG18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:85">
       <c r="A19" s="1">
-        <v>68961.940353</v>
+        <v>68961.940352999998</v>
       </c>
       <c r="B19" s="1">
-        <v>19.156095</v>
+        <v>19.156095000000001</v>
       </c>
       <c r="C19" s="1">
-        <v>1147.410000</v>
+        <v>1147.4100000000001</v>
       </c>
       <c r="D19" s="1">
-        <v>-248.452000</v>
+        <v>-248.452</v>
       </c>
       <c r="E19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F19" s="1">
-        <v>68972.348403</v>
+        <v>68972.348402999996</v>
       </c>
       <c r="G19" s="1">
-        <v>19.158986</v>
+        <v>19.158985999999999</v>
       </c>
       <c r="H19" s="1">
-        <v>1167.530000</v>
+        <v>1167.53</v>
       </c>
       <c r="I19" s="1">
-        <v>-208.846000</v>
+        <v>-208.846</v>
       </c>
       <c r="J19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K19" s="1">
-        <v>68982.549949</v>
+        <v>68982.549948999993</v>
       </c>
       <c r="L19" s="1">
-        <v>19.161819</v>
+        <v>19.161819000000001</v>
       </c>
       <c r="M19" s="1">
-        <v>1194.120000</v>
+        <v>1194.1199999999999</v>
       </c>
       <c r="N19" s="1">
-        <v>-147.279000</v>
+        <v>-147.279</v>
       </c>
       <c r="O19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P19" s="1">
-        <v>68992.770679</v>
+        <v>68992.770678999994</v>
       </c>
       <c r="Q19" s="1">
         <v>19.164659</v>
       </c>
       <c r="R19" s="1">
-        <v>1202.170000</v>
+        <v>1202.17</v>
       </c>
       <c r="S19" s="1">
-        <v>-126.729000</v>
+        <v>-126.729</v>
       </c>
       <c r="T19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U19" s="1">
-        <v>69002.959994</v>
+        <v>69002.959994000004</v>
       </c>
       <c r="V19" s="1">
         <v>19.167489</v>
       </c>
       <c r="W19" s="1">
-        <v>1209.980000</v>
+        <v>1209.98</v>
       </c>
       <c r="X19" s="1">
-        <v>-106.922000</v>
+        <v>-106.922</v>
       </c>
       <c r="Y19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z19" s="1">
-        <v>69013.543131</v>
+        <v>69013.543130999999</v>
       </c>
       <c r="AA19" s="1">
-        <v>19.170429</v>
+        <v>19.170428999999999</v>
       </c>
       <c r="AB19" s="1">
-        <v>1218.200000</v>
+        <v>1218.2</v>
       </c>
       <c r="AC19" s="1">
-        <v>-90.816400</v>
+        <v>-90.816400000000002</v>
       </c>
       <c r="AD19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE19" s="1">
-        <v>69023.675406</v>
+        <v>69023.675405999995</v>
       </c>
       <c r="AF19" s="1">
-        <v>19.173243</v>
+        <v>19.173242999999999</v>
       </c>
       <c r="AG19" s="1">
-        <v>1223.410000</v>
+        <v>1223.4100000000001</v>
       </c>
       <c r="AH19" s="1">
-        <v>-86.601600</v>
+        <v>-86.601600000000005</v>
       </c>
       <c r="AI19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ19" s="1">
-        <v>69033.883073</v>
+        <v>69033.883073000005</v>
       </c>
       <c r="AK19" s="1">
-        <v>19.176079</v>
+        <v>19.176079000000001</v>
       </c>
       <c r="AL19" s="1">
-        <v>1230.850000</v>
+        <v>1230.8499999999999</v>
       </c>
       <c r="AM19" s="1">
-        <v>-90.090500</v>
+        <v>-90.090500000000006</v>
       </c>
       <c r="AN19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO19" s="1">
-        <v>69044.419091</v>
+        <v>69044.419091000003</v>
       </c>
       <c r="AP19" s="1">
         <v>19.179005</v>
       </c>
       <c r="AQ19" s="1">
-        <v>1239.080000</v>
+        <v>1239.08</v>
       </c>
       <c r="AR19" s="1">
-        <v>-102.098000</v>
+        <v>-102.098</v>
       </c>
       <c r="AS19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT19" s="1">
-        <v>69055.516085</v>
+        <v>69055.516084999996</v>
       </c>
       <c r="AU19" s="1">
         <v>19.182088</v>
       </c>
       <c r="AV19" s="1">
-        <v>1249.330000</v>
+        <v>1249.33</v>
       </c>
       <c r="AW19" s="1">
-        <v>-121.455000</v>
+        <v>-121.455</v>
       </c>
       <c r="AX19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY19" s="1">
-        <v>69066.819911</v>
+        <v>69066.819910999999</v>
       </c>
       <c r="AZ19" s="1">
-        <v>19.185228</v>
+        <v>19.185227999999999</v>
       </c>
       <c r="BA19" s="1">
-        <v>1257.940000</v>
+        <v>1257.94</v>
       </c>
       <c r="BB19" s="1">
-        <v>-138.933000</v>
+        <v>-138.93299999999999</v>
       </c>
       <c r="BC19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD19" s="1">
-        <v>69077.600994</v>
+        <v>69077.600993999993</v>
       </c>
       <c r="BE19" s="1">
         <v>19.188222</v>
       </c>
       <c r="BF19" s="1">
-        <v>1298.750000</v>
+        <v>1298.75</v>
       </c>
       <c r="BG19" s="1">
-        <v>-220.749000</v>
+        <v>-220.749</v>
       </c>
       <c r="BH19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI19" s="1">
         <v>69088.819464</v>
       </c>
       <c r="BJ19" s="1">
-        <v>19.191339</v>
+        <v>19.191338999999999</v>
       </c>
       <c r="BK19" s="1">
-        <v>1369.280000</v>
+        <v>1369.28</v>
       </c>
       <c r="BL19" s="1">
-        <v>-356.398000</v>
+        <v>-356.39800000000002</v>
       </c>
       <c r="BM19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN19" s="1">
-        <v>69099.725034</v>
+        <v>69099.725034000003</v>
       </c>
       <c r="BO19" s="1">
-        <v>19.194368</v>
+        <v>19.194368000000001</v>
       </c>
       <c r="BP19" s="1">
-        <v>1484.890000</v>
+        <v>1484.89</v>
       </c>
       <c r="BQ19" s="1">
-        <v>-576.448000</v>
+        <v>-576.44799999999998</v>
       </c>
       <c r="BR19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS19" s="1">
-        <v>69110.304172</v>
+        <v>69110.304172000004</v>
       </c>
       <c r="BT19" s="1">
-        <v>19.197307</v>
+        <v>19.197306999999999</v>
       </c>
       <c r="BU19" s="1">
-        <v>1617.660000</v>
+        <v>1617.66</v>
       </c>
       <c r="BV19" s="1">
-        <v>-824.092000</v>
+        <v>-824.09199999999998</v>
       </c>
       <c r="BW19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX19" s="1">
-        <v>69121.487588</v>
+        <v>69121.487588000004</v>
       </c>
       <c r="BY19" s="1">
-        <v>19.200413</v>
+        <v>19.200413000000001</v>
       </c>
       <c r="BZ19" s="1">
-        <v>1771.410000</v>
+        <v>1771.41</v>
       </c>
       <c r="CA19" s="1">
-        <v>-1091.780000</v>
+        <v>-1091.78</v>
       </c>
       <c r="CB19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC19" s="1">
-        <v>69134.333884</v>
+        <v>69134.333884000007</v>
       </c>
       <c r="CD19" s="1">
         <v>19.203982</v>
       </c>
       <c r="CE19" s="1">
-        <v>2188.420000</v>
+        <v>2188.42</v>
       </c>
       <c r="CF19" s="1">
-        <v>-1737.720000</v>
+        <v>-1737.72</v>
       </c>
       <c r="CG19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:85">
       <c r="A20" s="1">
-        <v>68962.282591</v>
+        <v>68962.282590999996</v>
       </c>
       <c r="B20" s="1">
-        <v>19.156190</v>
+        <v>19.156189999999999</v>
       </c>
       <c r="C20" s="1">
-        <v>1147.410000</v>
+        <v>1147.4100000000001</v>
       </c>
       <c r="D20" s="1">
-        <v>-248.384000</v>
+        <v>-248.38399999999999</v>
       </c>
       <c r="E20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F20" s="1">
-        <v>68972.706514</v>
+        <v>68972.706514000005</v>
       </c>
       <c r="G20" s="1">
-        <v>19.159085</v>
+        <v>19.159085000000001</v>
       </c>
       <c r="H20" s="1">
-        <v>1167.690000</v>
+        <v>1167.69</v>
       </c>
       <c r="I20" s="1">
-        <v>-209.549000</v>
+        <v>-209.54900000000001</v>
       </c>
       <c r="J20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K20" s="1">
-        <v>68982.895829</v>
+        <v>68982.895829000001</v>
       </c>
       <c r="L20" s="1">
-        <v>19.161916</v>
+        <v>19.161916000000002</v>
       </c>
       <c r="M20" s="1">
-        <v>1194.020000</v>
+        <v>1194.02</v>
       </c>
       <c r="N20" s="1">
-        <v>-147.341000</v>
+        <v>-147.34100000000001</v>
       </c>
       <c r="O20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P20" s="1">
-        <v>68993.466603</v>
+        <v>68993.466602999993</v>
       </c>
       <c r="Q20" s="1">
         <v>19.164852</v>
       </c>
       <c r="R20" s="1">
-        <v>1202.140000</v>
+        <v>1202.1400000000001</v>
       </c>
       <c r="S20" s="1">
-        <v>-126.774000</v>
+        <v>-126.774</v>
       </c>
       <c r="T20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U20" s="1">
-        <v>69003.645464</v>
+        <v>69003.645464000001</v>
       </c>
       <c r="V20" s="1">
         <v>19.167679</v>
       </c>
       <c r="W20" s="1">
-        <v>1210.100000</v>
+        <v>1210.0999999999999</v>
       </c>
       <c r="X20" s="1">
-        <v>-107.008000</v>
+        <v>-107.008</v>
       </c>
       <c r="Y20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z20" s="1">
-        <v>69013.892811</v>
+        <v>69013.892810999998</v>
       </c>
       <c r="AA20" s="1">
-        <v>19.170526</v>
+        <v>19.170525999999999</v>
       </c>
       <c r="AB20" s="1">
-        <v>1218.200000</v>
+        <v>1218.2</v>
       </c>
       <c r="AC20" s="1">
-        <v>-90.865200</v>
+        <v>-90.865200000000002</v>
       </c>
       <c r="AD20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE20" s="1">
-        <v>69024.016653</v>
+        <v>69024.016652999999</v>
       </c>
       <c r="AF20" s="1">
-        <v>19.173338</v>
+        <v>19.173338000000001</v>
       </c>
       <c r="AG20" s="1">
-        <v>1223.360000</v>
+        <v>1223.3599999999999</v>
       </c>
       <c r="AH20" s="1">
-        <v>-86.631500</v>
+        <v>-86.631500000000003</v>
       </c>
       <c r="AI20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ20" s="1">
-        <v>69034.233744</v>
+        <v>69034.233743999997</v>
       </c>
       <c r="AK20" s="1">
-        <v>19.176176</v>
+        <v>19.176176000000002</v>
       </c>
       <c r="AL20" s="1">
-        <v>1230.840000</v>
+        <v>1230.8399999999999</v>
       </c>
       <c r="AM20" s="1">
-        <v>-90.078700</v>
+        <v>-90.078699999999998</v>
       </c>
       <c r="AN20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO20" s="1">
-        <v>69045.090708</v>
+        <v>69045.090708000003</v>
       </c>
       <c r="AP20" s="1">
         <v>19.179192</v>
       </c>
       <c r="AQ20" s="1">
-        <v>1239.080000</v>
+        <v>1239.08</v>
       </c>
       <c r="AR20" s="1">
-        <v>-102.091000</v>
+        <v>-102.09099999999999</v>
       </c>
       <c r="AS20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT20" s="1">
-        <v>69056.191636</v>
+        <v>69056.191636000003</v>
       </c>
       <c r="AU20" s="1">
-        <v>19.182275</v>
+        <v>19.182275000000001</v>
       </c>
       <c r="AV20" s="1">
-        <v>1249.320000</v>
+        <v>1249.32</v>
       </c>
       <c r="AW20" s="1">
-        <v>-121.444000</v>
+        <v>-121.444</v>
       </c>
       <c r="AX20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY20" s="1">
-        <v>69067.233572</v>
+        <v>69067.233571999997</v>
       </c>
       <c r="AZ20" s="1">
         <v>19.185343</v>
       </c>
       <c r="BA20" s="1">
-        <v>1257.950000</v>
+        <v>1257.95</v>
       </c>
       <c r="BB20" s="1">
-        <v>-138.928000</v>
+        <v>-138.928</v>
       </c>
       <c r="BC20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD20" s="1">
-        <v>69077.884663</v>
+        <v>69077.884663000004</v>
       </c>
       <c r="BE20" s="1">
-        <v>19.188301</v>
+        <v>19.188300999999999</v>
       </c>
       <c r="BF20" s="1">
-        <v>1298.750000</v>
+        <v>1298.75</v>
       </c>
       <c r="BG20" s="1">
-        <v>-220.738000</v>
+        <v>-220.738</v>
       </c>
       <c r="BH20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI20" s="1">
-        <v>69089.196424</v>
+        <v>69089.196423999994</v>
       </c>
       <c r="BJ20" s="1">
         <v>19.191443</v>
       </c>
       <c r="BK20" s="1">
-        <v>1369.280000</v>
+        <v>1369.28</v>
       </c>
       <c r="BL20" s="1">
-        <v>-356.414000</v>
+        <v>-356.41399999999999</v>
       </c>
       <c r="BM20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN20" s="1">
-        <v>69100.122794</v>
+        <v>69100.122793999995</v>
       </c>
       <c r="BO20" s="1">
-        <v>19.194479</v>
+        <v>19.194479000000001</v>
       </c>
       <c r="BP20" s="1">
-        <v>1484.910000</v>
+        <v>1484.91</v>
       </c>
       <c r="BQ20" s="1">
-        <v>-576.458000</v>
+        <v>-576.45799999999997</v>
       </c>
       <c r="BR20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS20" s="1">
-        <v>69110.739660</v>
+        <v>69110.739660000007</v>
       </c>
       <c r="BT20" s="1">
-        <v>19.197428</v>
+        <v>19.197427999999999</v>
       </c>
       <c r="BU20" s="1">
-        <v>1617.680000</v>
+        <v>1617.68</v>
       </c>
       <c r="BV20" s="1">
-        <v>-824.068000</v>
+        <v>-824.06799999999998</v>
       </c>
       <c r="BW20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX20" s="1">
-        <v>69121.906588</v>
+        <v>69121.906587999998</v>
       </c>
       <c r="BY20" s="1">
-        <v>19.200530</v>
+        <v>19.200530000000001</v>
       </c>
       <c r="BZ20" s="1">
-        <v>1771.330000</v>
+        <v>1771.33</v>
       </c>
       <c r="CA20" s="1">
-        <v>-1091.790000</v>
+        <v>-1091.79</v>
       </c>
       <c r="CB20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC20" s="1">
-        <v>69134.855675</v>
+        <v>69134.855674999999</v>
       </c>
       <c r="CD20" s="1">
         <v>19.204127</v>
       </c>
       <c r="CE20" s="1">
-        <v>2191.100000</v>
+        <v>2191.1</v>
       </c>
       <c r="CF20" s="1">
-        <v>-1737.300000</v>
+        <v>-1737.3</v>
       </c>
       <c r="CG20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:85">
       <c r="A21" s="1">
-        <v>68962.625328</v>
+        <v>68962.625327999995</v>
       </c>
       <c r="B21" s="1">
         <v>19.156285</v>
       </c>
       <c r="C21" s="1">
-        <v>1147.440000</v>
+        <v>1147.44</v>
       </c>
       <c r="D21" s="1">
-        <v>-248.487000</v>
+        <v>-248.48699999999999</v>
       </c>
       <c r="E21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F21" s="1">
-        <v>68973.380618</v>
+        <v>68973.380617999996</v>
       </c>
       <c r="G21" s="1">
-        <v>19.159272</v>
+        <v>19.159272000000001</v>
       </c>
       <c r="H21" s="1">
-        <v>1167.740000</v>
+        <v>1167.74</v>
       </c>
       <c r="I21" s="1">
-        <v>-208.292000</v>
+        <v>-208.292</v>
       </c>
       <c r="J21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K21" s="1">
-        <v>68983.591752</v>
+        <v>68983.591751999993</v>
       </c>
       <c r="L21" s="1">
-        <v>19.162109</v>
+        <v>19.162109000000001</v>
       </c>
       <c r="M21" s="1">
-        <v>1194.030000</v>
+        <v>1194.03</v>
       </c>
       <c r="N21" s="1">
-        <v>-147.335000</v>
+        <v>-147.33500000000001</v>
       </c>
       <c r="O21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P21" s="1">
-        <v>68993.818231</v>
+        <v>68993.818230999997</v>
       </c>
       <c r="Q21" s="1">
-        <v>19.164950</v>
+        <v>19.164950000000001</v>
       </c>
       <c r="R21" s="1">
-        <v>1202.110000</v>
+        <v>1202.1099999999999</v>
       </c>
       <c r="S21" s="1">
-        <v>-126.708000</v>
+        <v>-126.708</v>
       </c>
       <c r="T21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U21" s="1">
-        <v>69003.989193</v>
+        <v>69003.989193000001</v>
       </c>
       <c r="V21" s="1">
-        <v>19.167775</v>
+        <v>19.167774999999999</v>
       </c>
       <c r="W21" s="1">
-        <v>1210.010000</v>
+        <v>1210.01</v>
       </c>
       <c r="X21" s="1">
-        <v>-107.091000</v>
+        <v>-107.09099999999999</v>
       </c>
       <c r="Y21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z21" s="1">
-        <v>69014.241498</v>
+        <v>69014.241498000003</v>
       </c>
       <c r="AA21" s="1">
-        <v>19.170623</v>
+        <v>19.170622999999999</v>
       </c>
       <c r="AB21" s="1">
-        <v>1218.230000</v>
+        <v>1218.23</v>
       </c>
       <c r="AC21" s="1">
-        <v>-90.876100</v>
+        <v>-90.876099999999994</v>
       </c>
       <c r="AD21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE21" s="1">
-        <v>69024.359390</v>
+        <v>69024.359389999998</v>
       </c>
       <c r="AF21" s="1">
-        <v>19.173433</v>
+        <v>19.173432999999999</v>
       </c>
       <c r="AG21" s="1">
-        <v>1223.290000</v>
+        <v>1223.29</v>
       </c>
       <c r="AH21" s="1">
-        <v>-86.699600</v>
+        <v>-86.699600000000004</v>
       </c>
       <c r="AI21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ21" s="1">
-        <v>69034.895226</v>
+        <v>69034.895225999993</v>
       </c>
       <c r="AK21" s="1">
-        <v>19.176360</v>
+        <v>19.176359999999999</v>
       </c>
       <c r="AL21" s="1">
-        <v>1230.830000</v>
+        <v>1230.83</v>
       </c>
       <c r="AM21" s="1">
-        <v>-90.091700</v>
+        <v>-90.091700000000003</v>
       </c>
       <c r="AN21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO21" s="1">
-        <v>69045.496435</v>
+        <v>69045.496434999994</v>
       </c>
       <c r="AP21" s="1">
-        <v>19.179305</v>
+        <v>19.179304999999999</v>
       </c>
       <c r="AQ21" s="1">
-        <v>1239.090000</v>
+        <v>1239.0899999999999</v>
       </c>
       <c r="AR21" s="1">
-        <v>-102.085000</v>
+        <v>-102.08499999999999</v>
       </c>
       <c r="AS21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT21" s="1">
-        <v>69056.643231</v>
+        <v>69056.643230999995</v>
       </c>
       <c r="AU21" s="1">
-        <v>19.182401</v>
+        <v>19.182400999999999</v>
       </c>
       <c r="AV21" s="1">
-        <v>1249.330000</v>
+        <v>1249.33</v>
       </c>
       <c r="AW21" s="1">
-        <v>-121.452000</v>
+        <v>-121.452</v>
       </c>
       <c r="AX21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY21" s="1">
-        <v>69067.608555</v>
+        <v>69067.608554999999</v>
       </c>
       <c r="AZ21" s="1">
         <v>19.185447</v>
       </c>
       <c r="BA21" s="1">
-        <v>1257.950000</v>
+        <v>1257.95</v>
       </c>
       <c r="BB21" s="1">
-        <v>-138.936000</v>
+        <v>-138.93600000000001</v>
       </c>
       <c r="BC21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD21" s="1">
-        <v>69078.248725</v>
+        <v>69078.248724999998</v>
       </c>
       <c r="BE21" s="1">
         <v>19.188402</v>
       </c>
       <c r="BF21" s="1">
-        <v>1298.740000</v>
+        <v>1298.74</v>
       </c>
       <c r="BG21" s="1">
-        <v>-220.739000</v>
+        <v>-220.739</v>
       </c>
       <c r="BH21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI21" s="1">
-        <v>69089.569911</v>
+        <v>69089.569910999999</v>
       </c>
       <c r="BJ21" s="1">
         <v>19.191547</v>
       </c>
       <c r="BK21" s="1">
-        <v>1369.270000</v>
+        <v>1369.27</v>
       </c>
       <c r="BL21" s="1">
-        <v>-356.420000</v>
+        <v>-356.42</v>
       </c>
       <c r="BM21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN21" s="1">
-        <v>69100.543898</v>
+        <v>69100.543898000004</v>
       </c>
       <c r="BO21" s="1">
-        <v>19.194596</v>
+        <v>19.194596000000001</v>
       </c>
       <c r="BP21" s="1">
-        <v>1484.920000</v>
+        <v>1484.92</v>
       </c>
       <c r="BQ21" s="1">
-        <v>-576.438000</v>
+        <v>-576.43799999999999</v>
       </c>
       <c r="BR21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS21" s="1">
-        <v>69111.163242</v>
+        <v>69111.163241999995</v>
       </c>
       <c r="BT21" s="1">
-        <v>19.197545</v>
+        <v>19.197545000000002</v>
       </c>
       <c r="BU21" s="1">
-        <v>1617.610000</v>
+        <v>1617.61</v>
       </c>
       <c r="BV21" s="1">
-        <v>-823.874000</v>
+        <v>-823.87400000000002</v>
       </c>
       <c r="BW21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX21" s="1">
-        <v>69122.351997</v>
+        <v>69122.351997000005</v>
       </c>
       <c r="BY21" s="1">
-        <v>19.200653</v>
+        <v>19.200652999999999</v>
       </c>
       <c r="BZ21" s="1">
-        <v>1771.540000</v>
+        <v>1771.54</v>
       </c>
       <c r="CA21" s="1">
-        <v>-1091.810000</v>
+        <v>-1091.81</v>
       </c>
       <c r="CB21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC21" s="1">
-        <v>69135.394796</v>
+        <v>69135.394795999993</v>
       </c>
       <c r="CD21" s="1">
         <v>19.204276</v>
       </c>
       <c r="CE21" s="1">
-        <v>2188.410000</v>
+        <v>2188.41</v>
       </c>
       <c r="CF21" s="1">
-        <v>-1736.490000</v>
+        <v>-1736.49</v>
       </c>
       <c r="CG21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:85">
       <c r="A22" s="1">
-        <v>68963.304846</v>
+        <v>68963.304845999999</v>
       </c>
       <c r="B22" s="1">
-        <v>19.156474</v>
+        <v>19.156473999999999</v>
       </c>
       <c r="C22" s="1">
-        <v>1147.280000</v>
+        <v>1147.28</v>
       </c>
       <c r="D22" s="1">
-        <v>-248.221000</v>
+        <v>-248.221</v>
       </c>
       <c r="E22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F22" s="1">
-        <v>68973.741202</v>
+        <v>68973.741202000005</v>
       </c>
       <c r="G22" s="1">
-        <v>19.159373</v>
+        <v>19.159372999999999</v>
       </c>
       <c r="H22" s="1">
-        <v>1166.710000</v>
+        <v>1166.71</v>
       </c>
       <c r="I22" s="1">
-        <v>-209.372000</v>
+        <v>-209.37200000000001</v>
       </c>
       <c r="J22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K22" s="1">
-        <v>68983.940403</v>
+        <v>68983.940403000001</v>
       </c>
       <c r="L22" s="1">
-        <v>19.162206</v>
+        <v>19.162206000000001</v>
       </c>
       <c r="M22" s="1">
-        <v>1194.260000</v>
+        <v>1194.26</v>
       </c>
       <c r="N22" s="1">
-        <v>-147.635000</v>
+        <v>-147.63499999999999</v>
       </c>
       <c r="O22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P22" s="1">
-        <v>68994.162949</v>
+        <v>68994.162949000005</v>
       </c>
       <c r="Q22" s="1">
-        <v>19.165045</v>
+        <v>19.165044999999999</v>
       </c>
       <c r="R22" s="1">
-        <v>1202.050000</v>
+        <v>1202.05</v>
       </c>
       <c r="S22" s="1">
-        <v>-126.681000</v>
+        <v>-126.681</v>
       </c>
       <c r="T22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U22" s="1">
-        <v>69004.334426</v>
+        <v>69004.334426000001</v>
       </c>
       <c r="V22" s="1">
-        <v>19.167871</v>
+        <v>19.167871000000002</v>
       </c>
       <c r="W22" s="1">
-        <v>1210.040000</v>
+        <v>1210.04</v>
       </c>
       <c r="X22" s="1">
-        <v>-106.825000</v>
+        <v>-106.825</v>
       </c>
       <c r="Y22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z22" s="1">
-        <v>69014.897706</v>
+        <v>69014.897706000003</v>
       </c>
       <c r="AA22" s="1">
-        <v>19.170805</v>
+        <v>19.170805000000001</v>
       </c>
       <c r="AB22" s="1">
-        <v>1218.190000</v>
+        <v>1218.19</v>
       </c>
       <c r="AC22" s="1">
-        <v>-90.858800</v>
+        <v>-90.858800000000002</v>
       </c>
       <c r="AD22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE22" s="1">
-        <v>69025.009148</v>
+        <v>69025.009147999997</v>
       </c>
       <c r="AF22" s="1">
-        <v>19.173614</v>
+        <v>19.173614000000001</v>
       </c>
       <c r="AG22" s="1">
-        <v>1223.340000</v>
+        <v>1223.3399999999999</v>
       </c>
       <c r="AH22" s="1">
-        <v>-86.781200</v>
+        <v>-86.781199999999998</v>
       </c>
       <c r="AI22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ22" s="1">
-        <v>69035.280303</v>
+        <v>69035.280303000007</v>
       </c>
       <c r="AK22" s="1">
-        <v>19.176467</v>
+        <v>19.176466999999999</v>
       </c>
       <c r="AL22" s="1">
-        <v>1230.810000</v>
+        <v>1230.81</v>
       </c>
       <c r="AM22" s="1">
-        <v>-90.102800</v>
+        <v>-90.102800000000002</v>
       </c>
       <c r="AN22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO22" s="1">
-        <v>69045.879810</v>
+        <v>69045.879809999999</v>
       </c>
       <c r="AP22" s="1">
-        <v>19.179411</v>
+        <v>19.179411000000002</v>
       </c>
       <c r="AQ22" s="1">
-        <v>1239.070000</v>
+        <v>1239.07</v>
       </c>
       <c r="AR22" s="1">
-        <v>-102.096000</v>
+        <v>-102.096</v>
       </c>
       <c r="AS22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT22" s="1">
-        <v>69057.008050</v>
+        <v>69057.008050000004</v>
       </c>
       <c r="AU22" s="1">
-        <v>19.182502</v>
+        <v>19.182501999999999</v>
       </c>
       <c r="AV22" s="1">
-        <v>1249.330000</v>
+        <v>1249.33</v>
       </c>
       <c r="AW22" s="1">
-        <v>-121.452000</v>
+        <v>-121.452</v>
       </c>
       <c r="AX22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY22" s="1">
-        <v>69067.988485</v>
+        <v>69067.988484999994</v>
       </c>
       <c r="AZ22" s="1">
-        <v>19.185552</v>
+        <v>19.185552000000001</v>
       </c>
       <c r="BA22" s="1">
-        <v>1257.940000</v>
+        <v>1257.94</v>
       </c>
       <c r="BB22" s="1">
-        <v>-138.928000</v>
+        <v>-138.928</v>
       </c>
       <c r="BC22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD22" s="1">
-        <v>69078.670361</v>
+        <v>69078.670360999997</v>
       </c>
       <c r="BE22" s="1">
-        <v>19.188520</v>
+        <v>19.18852</v>
       </c>
       <c r="BF22" s="1">
-        <v>1298.730000</v>
+        <v>1298.73</v>
       </c>
       <c r="BG22" s="1">
-        <v>-220.717000</v>
+        <v>-220.71700000000001</v>
       </c>
       <c r="BH22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI22" s="1">
         <v>69089.992006</v>
       </c>
       <c r="BJ22" s="1">
-        <v>19.191664</v>
+        <v>19.191663999999999</v>
       </c>
       <c r="BK22" s="1">
-        <v>1369.300000</v>
+        <v>1369.3</v>
       </c>
       <c r="BL22" s="1">
-        <v>-356.440000</v>
+        <v>-356.44</v>
       </c>
       <c r="BM22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN22" s="1">
-        <v>69100.942211</v>
+        <v>69100.942211000001</v>
       </c>
       <c r="BO22" s="1">
         <v>19.194706</v>
       </c>
       <c r="BP22" s="1">
-        <v>1484.920000</v>
+        <v>1484.92</v>
       </c>
       <c r="BQ22" s="1">
-        <v>-576.473000</v>
+        <v>-576.47299999999996</v>
       </c>
       <c r="BR22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS22" s="1">
-        <v>69111.577898</v>
+        <v>69111.577898000003</v>
       </c>
       <c r="BT22" s="1">
         <v>19.197661</v>
       </c>
       <c r="BU22" s="1">
-        <v>1617.620000</v>
+        <v>1617.62</v>
       </c>
       <c r="BV22" s="1">
-        <v>-823.835000</v>
+        <v>-823.83500000000004</v>
       </c>
       <c r="BW22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX22" s="1">
-        <v>69122.776571</v>
+        <v>69122.776570999995</v>
       </c>
       <c r="BY22" s="1">
         <v>19.200771</v>
       </c>
       <c r="BZ22" s="1">
-        <v>1771.360000</v>
+        <v>1771.36</v>
       </c>
       <c r="CA22" s="1">
-        <v>-1091.850000</v>
+        <v>-1091.8499999999999</v>
       </c>
       <c r="CB22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC22" s="1">
-        <v>69135.934474</v>
+        <v>69135.934473999994</v>
       </c>
       <c r="CD22" s="1">
-        <v>19.204426</v>
+        <v>19.204426000000002</v>
       </c>
       <c r="CE22" s="1">
-        <v>2190.300000</v>
+        <v>2190.3000000000002</v>
       </c>
       <c r="CF22" s="1">
-        <v>-1738.620000</v>
+        <v>-1738.62</v>
       </c>
       <c r="CG22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:85">
       <c r="A23" s="1">
-        <v>68963.648574</v>
+        <v>68963.648574000006</v>
       </c>
       <c r="B23" s="1">
-        <v>19.156569</v>
+        <v>19.156569000000001</v>
       </c>
       <c r="C23" s="1">
-        <v>1147.490000</v>
+        <v>1147.49</v>
       </c>
       <c r="D23" s="1">
-        <v>-248.444000</v>
+        <v>-248.44399999999999</v>
       </c>
       <c r="E23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F23" s="1">
-        <v>68974.086385</v>
+        <v>68974.086385000002</v>
       </c>
       <c r="G23" s="1">
         <v>19.159468</v>
       </c>
       <c r="H23" s="1">
-        <v>1167.240000</v>
+        <v>1167.24</v>
       </c>
       <c r="I23" s="1">
-        <v>-209.744000</v>
+        <v>-209.744</v>
       </c>
       <c r="J23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K23" s="1">
-        <v>68984.288098</v>
+        <v>68984.288098000005</v>
       </c>
       <c r="L23" s="1">
         <v>19.162302</v>
       </c>
       <c r="M23" s="1">
-        <v>1193.860000</v>
+        <v>1193.8599999999999</v>
       </c>
       <c r="N23" s="1">
-        <v>-147.620000</v>
+        <v>-147.62</v>
       </c>
       <c r="O23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P23" s="1">
-        <v>68994.824158</v>
+        <v>68994.824158000003</v>
       </c>
       <c r="Q23" s="1">
         <v>19.165229</v>
       </c>
       <c r="R23" s="1">
-        <v>1202.120000</v>
+        <v>1202.1199999999999</v>
       </c>
       <c r="S23" s="1">
-        <v>-126.678000</v>
+        <v>-126.678</v>
       </c>
       <c r="T23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U23" s="1">
-        <v>69004.980695</v>
+        <v>69004.980695000006</v>
       </c>
       <c r="V23" s="1">
-        <v>19.168050</v>
+        <v>19.168050000000001</v>
       </c>
       <c r="W23" s="1">
-        <v>1209.870000</v>
+        <v>1209.8699999999999</v>
       </c>
       <c r="X23" s="1">
-        <v>-107.076000</v>
+        <v>-107.07599999999999</v>
       </c>
       <c r="Y23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z23" s="1">
-        <v>69015.286111</v>
+        <v>69015.286110999994</v>
       </c>
       <c r="AA23" s="1">
-        <v>19.170913</v>
+        <v>19.170912999999999</v>
       </c>
       <c r="AB23" s="1">
-        <v>1218.180000</v>
+        <v>1218.18</v>
       </c>
       <c r="AC23" s="1">
-        <v>-90.712400</v>
+        <v>-90.712400000000002</v>
       </c>
       <c r="AD23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE23" s="1">
-        <v>69025.390107</v>
+        <v>69025.390106999999</v>
       </c>
       <c r="AF23" s="1">
-        <v>19.173719</v>
+        <v>19.173718999999998</v>
       </c>
       <c r="AG23" s="1">
-        <v>1223.410000</v>
+        <v>1223.4100000000001</v>
       </c>
       <c r="AH23" s="1">
-        <v>-86.580900</v>
+        <v>-86.5809</v>
       </c>
       <c r="AI23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ23" s="1">
-        <v>69035.628613</v>
+        <v>69035.628612999993</v>
       </c>
       <c r="AK23" s="1">
-        <v>19.176564</v>
+        <v>19.176563999999999</v>
       </c>
       <c r="AL23" s="1">
-        <v>1230.830000</v>
+        <v>1230.83</v>
       </c>
       <c r="AM23" s="1">
-        <v>-90.058000</v>
+        <v>-90.058000000000007</v>
       </c>
       <c r="AN23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO23" s="1">
-        <v>69046.237426</v>
+        <v>69046.237426000007</v>
       </c>
       <c r="AP23" s="1">
-        <v>19.179510</v>
+        <v>19.179510000000001</v>
       </c>
       <c r="AQ23" s="1">
-        <v>1239.100000</v>
+        <v>1239.0999999999999</v>
       </c>
       <c r="AR23" s="1">
-        <v>-102.081000</v>
+        <v>-102.081</v>
       </c>
       <c r="AS23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT23" s="1">
         <v>69057.374593</v>
       </c>
       <c r="AU23" s="1">
-        <v>19.182604</v>
+        <v>19.182604000000001</v>
       </c>
       <c r="AV23" s="1">
-        <v>1249.330000</v>
+        <v>1249.33</v>
       </c>
       <c r="AW23" s="1">
-        <v>-121.438000</v>
+        <v>-121.438</v>
       </c>
       <c r="AX23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY23" s="1">
-        <v>69068.423972</v>
+        <v>69068.423972000004</v>
       </c>
       <c r="AZ23" s="1">
-        <v>19.185673</v>
+        <v>19.185673000000001</v>
       </c>
       <c r="BA23" s="1">
-        <v>1257.960000</v>
+        <v>1257.96</v>
       </c>
       <c r="BB23" s="1">
-        <v>-138.927000</v>
+        <v>-138.92699999999999</v>
       </c>
       <c r="BC23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD23" s="1">
         <v>69078.970405</v>
       </c>
       <c r="BE23" s="1">
-        <v>19.188603</v>
+        <v>19.188603000000001</v>
       </c>
       <c r="BF23" s="1">
-        <v>1298.740000</v>
+        <v>1298.74</v>
       </c>
       <c r="BG23" s="1">
-        <v>-220.693000</v>
+        <v>-220.69300000000001</v>
       </c>
       <c r="BH23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI23" s="1">
-        <v>69090.349622</v>
+        <v>69090.349621999994</v>
       </c>
       <c r="BJ23" s="1">
-        <v>19.191764</v>
+        <v>19.191763999999999</v>
       </c>
       <c r="BK23" s="1">
-        <v>1369.300000</v>
+        <v>1369.3</v>
       </c>
       <c r="BL23" s="1">
-        <v>-356.425000</v>
+        <v>-356.42500000000001</v>
       </c>
       <c r="BM23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN23" s="1">
         <v>69101.362792</v>
@@ -6073,467 +6489,467 @@
         <v>19.194823</v>
       </c>
       <c r="BP23" s="1">
-        <v>1484.930000</v>
+        <v>1484.93</v>
       </c>
       <c r="BQ23" s="1">
-        <v>-576.489000</v>
+        <v>-576.48900000000003</v>
       </c>
       <c r="BR23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS23" s="1">
-        <v>69112.005947</v>
+        <v>69112.005946999998</v>
       </c>
       <c r="BT23" s="1">
-        <v>19.197779</v>
+        <v>19.197779000000001</v>
       </c>
       <c r="BU23" s="1">
-        <v>1617.700000</v>
+        <v>1617.7</v>
       </c>
       <c r="BV23" s="1">
-        <v>-823.655000</v>
+        <v>-823.65499999999997</v>
       </c>
       <c r="BW23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX23" s="1">
-        <v>69123.195195</v>
+        <v>69123.195194999993</v>
       </c>
       <c r="BY23" s="1">
-        <v>19.200888</v>
+        <v>19.200887999999999</v>
       </c>
       <c r="BZ23" s="1">
-        <v>1771.490000</v>
+        <v>1771.49</v>
       </c>
       <c r="CA23" s="1">
-        <v>-1091.880000</v>
+        <v>-1091.8800000000001</v>
       </c>
       <c r="CB23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC23" s="1">
-        <v>69136.473595</v>
+        <v>69136.473595000003</v>
       </c>
       <c r="CD23" s="1">
-        <v>19.204576</v>
+        <v>19.204575999999999</v>
       </c>
       <c r="CE23" s="1">
-        <v>2190.000000</v>
+        <v>2190</v>
       </c>
       <c r="CF23" s="1">
-        <v>-1736.470000</v>
+        <v>-1736.47</v>
       </c>
       <c r="CG23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:85">
       <c r="A24" s="1">
-        <v>68963.990813</v>
+        <v>68963.990812999997</v>
       </c>
       <c r="B24" s="1">
-        <v>19.156664</v>
+        <v>19.156663999999999</v>
       </c>
       <c r="C24" s="1">
-        <v>1147.470000</v>
+        <v>1147.47</v>
       </c>
       <c r="D24" s="1">
-        <v>-248.362000</v>
+        <v>-248.36199999999999</v>
       </c>
       <c r="E24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F24" s="1">
-        <v>68974.736639</v>
+        <v>68974.736638999995</v>
       </c>
       <c r="G24" s="1">
-        <v>19.159649</v>
+        <v>19.159649000000002</v>
       </c>
       <c r="H24" s="1">
-        <v>1167.040000</v>
+        <v>1167.04</v>
       </c>
       <c r="I24" s="1">
-        <v>-209.589000</v>
+        <v>-209.589</v>
       </c>
       <c r="J24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K24" s="1">
-        <v>68984.935873</v>
+        <v>68984.935872999995</v>
       </c>
       <c r="L24" s="1">
-        <v>19.162482</v>
+        <v>19.162482000000001</v>
       </c>
       <c r="M24" s="1">
-        <v>1193.860000</v>
+        <v>1193.8599999999999</v>
       </c>
       <c r="N24" s="1">
-        <v>-147.148000</v>
+        <v>-147.148</v>
       </c>
       <c r="O24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P24" s="1">
-        <v>68995.209540</v>
+        <v>68995.209539999996</v>
       </c>
       <c r="Q24" s="1">
         <v>19.165336</v>
       </c>
       <c r="R24" s="1">
-        <v>1202.190000</v>
+        <v>1202.19</v>
       </c>
       <c r="S24" s="1">
-        <v>-126.680000</v>
+        <v>-126.68</v>
       </c>
       <c r="T24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U24" s="1">
-        <v>69005.362652</v>
+        <v>69005.362651999996</v>
       </c>
       <c r="V24" s="1">
         <v>19.168156</v>
       </c>
       <c r="W24" s="1">
-        <v>1210.050000</v>
+        <v>1210.05</v>
       </c>
       <c r="X24" s="1">
-        <v>-106.986000</v>
+        <v>-106.986</v>
       </c>
       <c r="Y24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z24" s="1">
-        <v>69015.637242</v>
+        <v>69015.637241999997</v>
       </c>
       <c r="AA24" s="1">
-        <v>19.171010</v>
+        <v>19.171009999999999</v>
       </c>
       <c r="AB24" s="1">
-        <v>1218.270000</v>
+        <v>1218.27</v>
       </c>
       <c r="AC24" s="1">
-        <v>-90.825900</v>
+        <v>-90.825900000000004</v>
       </c>
       <c r="AD24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE24" s="1">
-        <v>69025.733803</v>
+        <v>69025.733802999996</v>
       </c>
       <c r="AF24" s="1">
-        <v>19.173815</v>
+        <v>19.173815000000001</v>
       </c>
       <c r="AG24" s="1">
-        <v>1223.270000</v>
+        <v>1223.27</v>
       </c>
       <c r="AH24" s="1">
-        <v>-86.781300</v>
+        <v>-86.781300000000002</v>
       </c>
       <c r="AI24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ24" s="1">
-        <v>69035.975197</v>
+        <v>69035.975197000007</v>
       </c>
       <c r="AK24" s="1">
-        <v>19.176660</v>
+        <v>19.176659999999998</v>
       </c>
       <c r="AL24" s="1">
-        <v>1230.830000</v>
+        <v>1230.83</v>
       </c>
       <c r="AM24" s="1">
-        <v>-90.059300</v>
+        <v>-90.059299999999993</v>
       </c>
       <c r="AN24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO24" s="1">
-        <v>69046.652081</v>
+        <v>69046.652080999993</v>
       </c>
       <c r="AP24" s="1">
-        <v>19.179626</v>
+        <v>19.179625999999999</v>
       </c>
       <c r="AQ24" s="1">
-        <v>1239.080000</v>
+        <v>1239.08</v>
       </c>
       <c r="AR24" s="1">
-        <v>-102.094000</v>
+        <v>-102.09399999999999</v>
       </c>
       <c r="AS24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT24" s="1">
-        <v>69057.802146</v>
+        <v>69057.802146000002</v>
       </c>
       <c r="AU24" s="1">
-        <v>19.182723</v>
+        <v>19.182722999999999</v>
       </c>
       <c r="AV24" s="1">
-        <v>1249.330000</v>
+        <v>1249.33</v>
       </c>
       <c r="AW24" s="1">
-        <v>-121.420000</v>
+        <v>-121.42</v>
       </c>
       <c r="AX24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY24" s="1">
-        <v>69068.705700</v>
+        <v>69068.705700000006</v>
       </c>
       <c r="AZ24" s="1">
-        <v>19.185752</v>
+        <v>19.185752000000001</v>
       </c>
       <c r="BA24" s="1">
-        <v>1257.940000</v>
+        <v>1257.94</v>
       </c>
       <c r="BB24" s="1">
-        <v>-138.922000</v>
+        <v>-138.922</v>
       </c>
       <c r="BC24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD24" s="1">
-        <v>69079.331028</v>
+        <v>69079.331028000001</v>
       </c>
       <c r="BE24" s="1">
         <v>19.188703</v>
       </c>
       <c r="BF24" s="1">
-        <v>1298.760000</v>
+        <v>1298.76</v>
       </c>
       <c r="BG24" s="1">
-        <v>-220.745000</v>
+        <v>-220.745</v>
       </c>
       <c r="BH24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI24" s="1">
-        <v>69090.723783</v>
+        <v>69090.723782999994</v>
       </c>
       <c r="BJ24" s="1">
-        <v>19.191868</v>
+        <v>19.191867999999999</v>
       </c>
       <c r="BK24" s="1">
-        <v>1369.280000</v>
+        <v>1369.28</v>
       </c>
       <c r="BL24" s="1">
-        <v>-356.398000</v>
+        <v>-356.39800000000002</v>
       </c>
       <c r="BM24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN24" s="1">
-        <v>69101.760088</v>
+        <v>69101.760087999995</v>
       </c>
       <c r="BO24" s="1">
-        <v>19.194933</v>
+        <v>19.194932999999999</v>
       </c>
       <c r="BP24" s="1">
-        <v>1484.910000</v>
+        <v>1484.91</v>
       </c>
       <c r="BQ24" s="1">
-        <v>-576.461000</v>
+        <v>-576.46100000000001</v>
       </c>
       <c r="BR24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS24" s="1">
-        <v>69112.613081</v>
+        <v>69112.613081000003</v>
       </c>
       <c r="BT24" s="1">
         <v>19.197948</v>
       </c>
       <c r="BU24" s="1">
-        <v>1617.800000</v>
+        <v>1617.8</v>
       </c>
       <c r="BV24" s="1">
-        <v>-823.601000</v>
+        <v>-823.601</v>
       </c>
       <c r="BW24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX24" s="1">
-        <v>69123.643611</v>
+        <v>69123.643611000007</v>
       </c>
       <c r="BY24" s="1">
-        <v>19.201012</v>
+        <v>19.201011999999999</v>
       </c>
       <c r="BZ24" s="1">
-        <v>1771.360000</v>
+        <v>1771.36</v>
       </c>
       <c r="CA24" s="1">
-        <v>-1091.700000</v>
+        <v>-1091.7</v>
       </c>
       <c r="CB24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC24" s="1">
-        <v>69137.014729</v>
+        <v>69137.014729000002</v>
       </c>
       <c r="CD24" s="1">
-        <v>19.204726</v>
+        <v>19.204726000000001</v>
       </c>
       <c r="CE24" s="1">
-        <v>2188.510000</v>
+        <v>2188.5100000000002</v>
       </c>
       <c r="CF24" s="1">
-        <v>-1738.180000</v>
+        <v>-1738.18</v>
       </c>
       <c r="CG24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:85">
       <c r="A25" s="1">
-        <v>68964.645068</v>
+        <v>68964.645067999998</v>
       </c>
       <c r="B25" s="1">
-        <v>19.156846</v>
+        <v>19.156846000000002</v>
       </c>
       <c r="C25" s="1">
-        <v>1147.370000</v>
+        <v>1147.3699999999999</v>
       </c>
       <c r="D25" s="1">
-        <v>-248.504000</v>
+        <v>-248.50399999999999</v>
       </c>
       <c r="E25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F25" s="1">
         <v>68975.116574</v>
       </c>
       <c r="G25" s="1">
-        <v>19.159755</v>
+        <v>19.159755000000001</v>
       </c>
       <c r="H25" s="1">
-        <v>1167.360000</v>
+        <v>1167.3599999999999</v>
       </c>
       <c r="I25" s="1">
-        <v>-209.443000</v>
+        <v>-209.44300000000001</v>
       </c>
       <c r="J25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K25" s="1">
-        <v>68985.320769</v>
+        <v>68985.320768999998</v>
       </c>
       <c r="L25" s="1">
-        <v>19.162589</v>
+        <v>19.162589000000001</v>
       </c>
       <c r="M25" s="1">
-        <v>1193.830000</v>
+        <v>1193.83</v>
       </c>
       <c r="N25" s="1">
-        <v>-147.504000</v>
+        <v>-147.50399999999999</v>
       </c>
       <c r="O25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P25" s="1">
-        <v>68995.559219</v>
+        <v>68995.559219000002</v>
       </c>
       <c r="Q25" s="1">
         <v>19.165433</v>
       </c>
       <c r="R25" s="1">
-        <v>1202.150000</v>
+        <v>1202.1500000000001</v>
       </c>
       <c r="S25" s="1">
-        <v>-126.745000</v>
+        <v>-126.745</v>
       </c>
       <c r="T25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U25" s="1">
-        <v>69005.706870</v>
+        <v>69005.706869999995</v>
       </c>
       <c r="V25" s="1">
-        <v>19.168252</v>
+        <v>19.168251999999999</v>
       </c>
       <c r="W25" s="1">
-        <v>1209.890000</v>
+        <v>1209.8900000000001</v>
       </c>
       <c r="X25" s="1">
-        <v>-107.154000</v>
+        <v>-107.154</v>
       </c>
       <c r="Y25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z25" s="1">
-        <v>69015.985462</v>
+        <v>69015.985461999997</v>
       </c>
       <c r="AA25" s="1">
-        <v>19.171107</v>
+        <v>19.171106999999999</v>
       </c>
       <c r="AB25" s="1">
-        <v>1218.240000</v>
+        <v>1218.24</v>
       </c>
       <c r="AC25" s="1">
-        <v>-90.836400</v>
+        <v>-90.836399999999998</v>
       </c>
       <c r="AD25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE25" s="1">
-        <v>69026.160364</v>
+        <v>69026.160363999996</v>
       </c>
       <c r="AF25" s="1">
-        <v>19.173933</v>
+        <v>19.173933000000002</v>
       </c>
       <c r="AG25" s="1">
-        <v>1223.430000</v>
+        <v>1223.43</v>
       </c>
       <c r="AH25" s="1">
-        <v>-86.403000</v>
+        <v>-86.403000000000006</v>
       </c>
       <c r="AI25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ25" s="1">
-        <v>69036.395838</v>
+        <v>69036.395837999997</v>
       </c>
       <c r="AK25" s="1">
-        <v>19.176777</v>
+        <v>19.176777000000001</v>
       </c>
       <c r="AL25" s="1">
-        <v>1230.870000</v>
+        <v>1230.8699999999999</v>
       </c>
       <c r="AM25" s="1">
-        <v>-90.087900</v>
+        <v>-90.087900000000005</v>
       </c>
       <c r="AN25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO25" s="1">
-        <v>69046.962080</v>
+        <v>69046.962079999998</v>
       </c>
       <c r="AP25" s="1">
-        <v>19.179712</v>
+        <v>19.179711999999999</v>
       </c>
       <c r="AQ25" s="1">
-        <v>1239.070000</v>
+        <v>1239.07</v>
       </c>
       <c r="AR25" s="1">
-        <v>-102.087000</v>
+        <v>-102.087</v>
       </c>
       <c r="AS25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT25" s="1">
-        <v>69058.102224</v>
+        <v>69058.102224000002</v>
       </c>
       <c r="AU25" s="1">
-        <v>19.182806</v>
+        <v>19.182805999999999</v>
       </c>
       <c r="AV25" s="1">
-        <v>1249.320000</v>
+        <v>1249.32</v>
       </c>
       <c r="AW25" s="1">
-        <v>-121.463000</v>
+        <v>-121.46299999999999</v>
       </c>
       <c r="AX25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY25" s="1">
         <v>69069.063811</v>
@@ -6542,362 +6958,363 @@
         <v>19.185851</v>
       </c>
       <c r="BA25" s="1">
-        <v>1257.960000</v>
+        <v>1257.96</v>
       </c>
       <c r="BB25" s="1">
-        <v>-138.931000</v>
+        <v>-138.93100000000001</v>
       </c>
       <c r="BC25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD25" s="1">
-        <v>69079.693108</v>
+        <v>69079.693108000007</v>
       </c>
       <c r="BE25" s="1">
-        <v>19.188804</v>
+        <v>19.188804000000001</v>
       </c>
       <c r="BF25" s="1">
-        <v>1298.770000</v>
+        <v>1298.77</v>
       </c>
       <c r="BG25" s="1">
-        <v>-220.708000</v>
+        <v>-220.708</v>
       </c>
       <c r="BH25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI25" s="1">
-        <v>69091.086677</v>
+        <v>69091.086676999999</v>
       </c>
       <c r="BJ25" s="1">
         <v>19.191969</v>
       </c>
       <c r="BK25" s="1">
-        <v>1369.250000</v>
+        <v>1369.25</v>
       </c>
       <c r="BL25" s="1">
-        <v>-356.384000</v>
+        <v>-356.38400000000001</v>
       </c>
       <c r="BM25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN25" s="1">
-        <v>69102.177718</v>
+        <v>69102.177718000006</v>
       </c>
       <c r="BO25" s="1">
-        <v>19.195049</v>
+        <v>19.195049000000001</v>
       </c>
       <c r="BP25" s="1">
-        <v>1484.880000</v>
+        <v>1484.88</v>
       </c>
       <c r="BQ25" s="1">
-        <v>-576.473000</v>
+        <v>-576.47299999999996</v>
       </c>
       <c r="BR25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS25" s="1">
-        <v>69112.848685</v>
+        <v>69112.848685000004</v>
       </c>
       <c r="BT25" s="1">
-        <v>19.198014</v>
+        <v>19.198014000000001</v>
       </c>
       <c r="BU25" s="1">
-        <v>1617.800000</v>
+        <v>1617.8</v>
       </c>
       <c r="BV25" s="1">
-        <v>-823.450000</v>
+        <v>-823.45</v>
       </c>
       <c r="BW25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX25" s="1">
-        <v>69124.075132</v>
+        <v>69124.075131999998</v>
       </c>
       <c r="BY25" s="1">
-        <v>19.201132</v>
+        <v>19.201132000000001</v>
       </c>
       <c r="BZ25" s="1">
-        <v>1771.410000</v>
+        <v>1771.41</v>
       </c>
       <c r="CA25" s="1">
-        <v>-1091.870000</v>
+        <v>-1091.8699999999999</v>
       </c>
       <c r="CB25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC25" s="1">
-        <v>69137.552728</v>
+        <v>69137.552727999995</v>
       </c>
       <c r="CD25" s="1">
-        <v>19.204876</v>
+        <v>19.204875999999999</v>
       </c>
       <c r="CE25" s="1">
-        <v>2191.320000</v>
+        <v>2191.3200000000002</v>
       </c>
       <c r="CF25" s="1">
-        <v>-1737.600000</v>
+        <v>-1737.6</v>
       </c>
       <c r="CG25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:85">
       <c r="A26" s="1">
-        <v>68965.014060</v>
+        <v>68965.014060000001</v>
       </c>
       <c r="B26" s="1">
         <v>19.156948</v>
       </c>
       <c r="C26" s="1">
-        <v>1147.370000</v>
+        <v>1147.3699999999999</v>
       </c>
       <c r="D26" s="1">
-        <v>-248.399000</v>
+        <v>-248.399</v>
       </c>
       <c r="E26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F26" s="1">
-        <v>68975.465262</v>
+        <v>68975.465261999998</v>
       </c>
       <c r="G26" s="1">
         <v>19.159851</v>
       </c>
       <c r="H26" s="1">
-        <v>1166.650000</v>
+        <v>1166.6500000000001</v>
       </c>
       <c r="I26" s="1">
-        <v>-208.938000</v>
+        <v>-208.93799999999999</v>
       </c>
       <c r="J26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K26" s="1">
-        <v>68985.669953</v>
+        <v>68985.669953000004</v>
       </c>
       <c r="L26" s="1">
-        <v>19.162686</v>
+        <v>19.162686000000001</v>
       </c>
       <c r="M26" s="1">
-        <v>1193.950000</v>
+        <v>1193.95</v>
       </c>
       <c r="N26" s="1">
-        <v>-147.550000</v>
+        <v>-147.55000000000001</v>
       </c>
       <c r="O26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P26" s="1">
-        <v>68995.906885</v>
+        <v>68995.906885000004</v>
       </c>
       <c r="Q26" s="1">
-        <v>19.165530</v>
+        <v>19.16553</v>
       </c>
       <c r="R26" s="1">
-        <v>1202.130000</v>
+        <v>1202.1300000000001</v>
       </c>
       <c r="S26" s="1">
-        <v>-126.735000</v>
+        <v>-126.735</v>
       </c>
       <c r="T26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U26" s="1">
-        <v>69006.051595</v>
+        <v>69006.051594999997</v>
       </c>
       <c r="V26" s="1">
-        <v>19.168348</v>
+        <v>19.168348000000002</v>
       </c>
       <c r="W26" s="1">
-        <v>1209.970000</v>
+        <v>1209.97</v>
       </c>
       <c r="X26" s="1">
-        <v>-107.031000</v>
+        <v>-107.03100000000001</v>
       </c>
       <c r="Y26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z26" s="1">
-        <v>69016.407529</v>
+        <v>69016.407529000004</v>
       </c>
       <c r="AA26" s="1">
-        <v>19.171224</v>
+        <v>19.171223999999999</v>
       </c>
       <c r="AB26" s="1">
-        <v>1218.320000</v>
+        <v>1218.32</v>
       </c>
       <c r="AC26" s="1">
-        <v>-90.818400</v>
+        <v>-90.818399999999997</v>
       </c>
       <c r="AD26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE26" s="1">
-        <v>69026.450059</v>
+        <v>69026.450058999995</v>
       </c>
       <c r="AF26" s="1">
         <v>19.174014</v>
       </c>
       <c r="AG26" s="1">
-        <v>1223.190000</v>
+        <v>1223.19</v>
       </c>
       <c r="AH26" s="1">
-        <v>-86.656400</v>
+        <v>-86.656400000000005</v>
       </c>
       <c r="AI26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ26" s="1">
-        <v>69036.686462</v>
+        <v>69036.686461999998</v>
       </c>
       <c r="AK26" s="1">
-        <v>19.176857</v>
+        <v>19.176856999999998</v>
       </c>
       <c r="AL26" s="1">
-        <v>1230.830000</v>
+        <v>1230.83</v>
       </c>
       <c r="AM26" s="1">
-        <v>-90.081200</v>
+        <v>-90.081199999999995</v>
       </c>
       <c r="AN26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO26" s="1">
-        <v>69047.319235</v>
+        <v>69047.319235000003</v>
       </c>
       <c r="AP26" s="1">
-        <v>19.179811</v>
+        <v>19.179811000000001</v>
       </c>
       <c r="AQ26" s="1">
-        <v>1239.120000</v>
+        <v>1239.1199999999999</v>
       </c>
       <c r="AR26" s="1">
-        <v>-102.087000</v>
+        <v>-102.087</v>
       </c>
       <c r="AS26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT26" s="1">
-        <v>69058.469264</v>
+        <v>69058.469263999999</v>
       </c>
       <c r="AU26" s="1">
-        <v>19.182908</v>
+        <v>19.182908000000001</v>
       </c>
       <c r="AV26" s="1">
-        <v>1249.320000</v>
+        <v>1249.32</v>
       </c>
       <c r="AW26" s="1">
-        <v>-121.443000</v>
+        <v>-121.443</v>
       </c>
       <c r="AX26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY26" s="1">
-        <v>69069.421921</v>
+        <v>69069.421921000001</v>
       </c>
       <c r="AZ26" s="1">
-        <v>19.185951</v>
+        <v>19.185950999999999</v>
       </c>
       <c r="BA26" s="1">
-        <v>1257.960000</v>
+        <v>1257.96</v>
       </c>
       <c r="BB26" s="1">
-        <v>-138.944000</v>
+        <v>-138.94399999999999</v>
       </c>
       <c r="BC26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD26" s="1">
-        <v>69080.414757</v>
+        <v>69080.414757000006</v>
       </c>
       <c r="BE26" s="1">
-        <v>19.189004</v>
+        <v>19.189004000000001</v>
       </c>
       <c r="BF26" s="1">
-        <v>1298.750000</v>
+        <v>1298.75</v>
       </c>
       <c r="BG26" s="1">
-        <v>-220.751000</v>
+        <v>-220.751</v>
       </c>
       <c r="BH26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI26" s="1">
-        <v>69091.872340</v>
+        <v>69091.872340000002</v>
       </c>
       <c r="BJ26" s="1">
-        <v>19.192187</v>
+        <v>19.192187000000001</v>
       </c>
       <c r="BK26" s="1">
-        <v>1369.260000</v>
+        <v>1369.26</v>
       </c>
       <c r="BL26" s="1">
-        <v>-356.397000</v>
+        <v>-356.39699999999999</v>
       </c>
       <c r="BM26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN26" s="1">
-        <v>69102.578519</v>
+        <v>69102.578519000002</v>
       </c>
       <c r="BO26" s="1">
-        <v>19.195161</v>
+        <v>19.195160999999999</v>
       </c>
       <c r="BP26" s="1">
-        <v>1484.880000</v>
+        <v>1484.88</v>
       </c>
       <c r="BQ26" s="1">
-        <v>-576.458000</v>
+        <v>-576.45799999999997</v>
       </c>
       <c r="BR26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS26" s="1">
-        <v>69113.279213</v>
+        <v>69113.279213000002</v>
       </c>
       <c r="BT26" s="1">
-        <v>19.198133</v>
+        <v>19.198132999999999</v>
       </c>
       <c r="BU26" s="1">
-        <v>1617.930000</v>
+        <v>1617.93</v>
       </c>
       <c r="BV26" s="1">
-        <v>-823.442000</v>
+        <v>-823.44200000000001</v>
       </c>
       <c r="BW26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX26" s="1">
-        <v>69124.498186</v>
+        <v>69124.498185999997</v>
       </c>
       <c r="BY26" s="1">
-        <v>19.201249</v>
+        <v>19.201249000000001</v>
       </c>
       <c r="BZ26" s="1">
-        <v>1771.390000</v>
+        <v>1771.39</v>
       </c>
       <c r="CA26" s="1">
-        <v>-1091.750000</v>
+        <v>-1091.75</v>
       </c>
       <c r="CB26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC26" s="1">
-        <v>69138.407528</v>
+        <v>69138.407527999996</v>
       </c>
       <c r="CD26" s="1">
-        <v>19.205113</v>
+        <v>19.205113000000001</v>
       </c>
       <c r="CE26" s="1">
-        <v>2189.220000</v>
+        <v>2189.2199999999998</v>
       </c>
       <c r="CF26" s="1">
-        <v>-1738.940000</v>
+        <v>-1738.94</v>
       </c>
       <c r="CG26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>